--- a/data/lossofsale_sg_mg road.xlsx
+++ b/data/lossofsale_sg_mg road.xlsx
@@ -203,7 +203,7 @@
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="44.550000000000004" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
     <col min="5" max="5" width="17.55" customWidth="1"/>
     <col min="6" max="6" width="22.950000000000003" customWidth="1"/>
@@ -284,25 +284,25 @@
       </c>
       <c t="inlineStr" r="B3">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">salma</t>
+          <t xml:space="preserve">ahmed</t>
         </is>
       </c>
       <c r="D3" s="65">
-        <v>8086676767</v>
+        <v>9037861022</v>
       </c>
       <c t="inlineStr" r="E3">
         <is>
-          <t xml:space="preserve">21-01-2026</t>
+          <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F3">
         <is>
-          <t xml:space="preserve">HEMANTH K</t>
+          <t xml:space="preserve">ABHISHEK</t>
         </is>
       </c>
       <c t="inlineStr" r="G3">
@@ -317,7 +317,7 @@
       </c>
       <c t="inlineStr" r="I3">
         <is>
-          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J3">
@@ -327,7 +327,7 @@
       </c>
       <c t="inlineStr" r="K3">
         <is>
-          <t xml:space="preserve">KURTHA</t>
+          <t xml:space="preserve">required model plain formal suit size 36 but we 11 option of product we trail product but not single product 36 size not avilable for dec 22</t>
         </is>
       </c>
     </row>
@@ -337,25 +337,25 @@
       </c>
       <c t="inlineStr" r="B4">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C4">
         <is>
-          <t xml:space="preserve">suhail</t>
+          <t xml:space="preserve">belram</t>
         </is>
       </c>
       <c r="D4" s="65">
-        <v>8137912784</v>
+        <v>9544969953</v>
       </c>
       <c t="inlineStr" r="E4">
         <is>
-          <t xml:space="preserve">18-01-2026</t>
+          <t xml:space="preserve">25-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F4">
         <is>
-          <t xml:space="preserve">Fayas E N</t>
+          <t xml:space="preserve">Madhavan p</t>
         </is>
       </c>
       <c t="inlineStr" r="G4">
@@ -365,17 +365,22 @@
       </c>
       <c t="inlineStr" r="H4">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I4">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J4">
         <is>
           <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K4">
+        <is>
+          <t xml:space="preserve">they think this store is retail store.. they came for buy..</t>
         </is>
       </c>
     </row>
@@ -385,25 +390,25 @@
       </c>
       <c t="inlineStr" r="B5">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C5">
         <is>
-          <t xml:space="preserve">joyal</t>
+          <t xml:space="preserve">albit</t>
         </is>
       </c>
       <c r="D5" s="65">
-        <v>7736692907</v>
+        <v>7902250062</v>
       </c>
       <c t="inlineStr" r="E5">
         <is>
-          <t xml:space="preserve">28-12-2025</t>
+          <t xml:space="preserve">27-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F5">
         <is>
-          <t xml:space="preserve">HEMANTH K</t>
+          <t xml:space="preserve">Fayas E N</t>
         </is>
       </c>
       <c t="inlineStr" r="G5">
@@ -413,12 +418,12 @@
       </c>
       <c t="inlineStr" r="H5">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I5">
         <is>
-          <t xml:space="preserve">SIZE TOO LARGE</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J5">
@@ -428,7 +433,7 @@
       </c>
       <c t="inlineStr" r="K5">
         <is>
-          <t xml:space="preserve">46 in suits</t>
+          <t xml:space="preserve">Enquiry for cream non premium formal suit (customer showed a specific colour)</t>
         </is>
       </c>
     </row>
@@ -438,25 +443,25 @@
       </c>
       <c t="inlineStr" r="B6">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C6">
         <is>
-          <t xml:space="preserve">mohana krishnan</t>
+          <t xml:space="preserve">ARUN</t>
         </is>
       </c>
       <c r="D6" s="65">
-        <v>9995805831</v>
+        <v>6901255023</v>
       </c>
       <c t="inlineStr" r="E6">
         <is>
-          <t xml:space="preserve">31-12-2025</t>
+          <t xml:space="preserve">25-04-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F6">
         <is>
-          <t xml:space="preserve">DEVADETH R</t>
+          <t xml:space="preserve">HEMANTH K</t>
         </is>
       </c>
       <c t="inlineStr" r="G6">
@@ -466,12 +471,12 @@
       </c>
       <c t="inlineStr" r="H6">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I6">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J6">
@@ -481,7 +486,7 @@
       </c>
       <c t="inlineStr" r="K6">
         <is>
-          <t xml:space="preserve">disscus with family and confirm</t>
+          <t xml:space="preserve">with in two days visit showroom</t>
         </is>
       </c>
     </row>
@@ -491,25 +496,25 @@
       </c>
       <c t="inlineStr" r="B7">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C7">
         <is>
-          <t xml:space="preserve">Abees</t>
+          <t xml:space="preserve">melvin</t>
         </is>
       </c>
       <c r="D7" s="65">
-        <v>7025027825</v>
+        <v>9496952204</v>
       </c>
       <c t="inlineStr" r="E7">
         <is>
-          <t xml:space="preserve">25-12-2025</t>
+          <t xml:space="preserve">29-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F7">
         <is>
-          <t xml:space="preserve">Muhammed Niyas Ns</t>
+          <t xml:space="preserve">Madhavan p</t>
         </is>
       </c>
       <c t="inlineStr" r="G7">
@@ -524,7 +529,7 @@
       </c>
       <c t="inlineStr" r="I7">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">Product Already Booked</t>
         </is>
       </c>
       <c t="inlineStr" r="J7">
@@ -534,7 +539,7 @@
       </c>
       <c t="inlineStr" r="K7">
         <is>
-          <t xml:space="preserve">product not available</t>
+          <t xml:space="preserve">non premium products not available in that date.. they want casual suits..</t>
         </is>
       </c>
     </row>
@@ -544,25 +549,25 @@
       </c>
       <c t="inlineStr" r="B8">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C8">
         <is>
-          <t xml:space="preserve">Akshay</t>
+          <t xml:space="preserve">frady</t>
         </is>
       </c>
       <c r="D8" s="65">
-        <v>1234567899</v>
+        <v>8921853595</v>
       </c>
       <c t="inlineStr" r="E8">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">28-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F8">
         <is>
-          <t xml:space="preserve">HEMANTH K</t>
+          <t xml:space="preserve">Sanoob k h</t>
         </is>
       </c>
       <c t="inlineStr" r="G8">
@@ -572,12 +577,12 @@
       </c>
       <c t="inlineStr" r="H8">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I8">
         <is>
-          <t xml:space="preserve">SIZE TOO SMALL</t>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J8">
@@ -587,7 +592,7 @@
       </c>
       <c t="inlineStr" r="K8">
         <is>
-          <t xml:space="preserve">size and color not available on customer date</t>
+          <t xml:space="preserve">pintrest model</t>
         </is>
       </c>
     </row>
@@ -597,25 +602,25 @@
       </c>
       <c t="inlineStr" r="B9">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C9">
         <is>
-          <t xml:space="preserve">philemon</t>
+          <t xml:space="preserve">Roshan</t>
         </is>
       </c>
       <c r="D9" s="65">
-        <v>8113834686</v>
+        <v>9633222807</v>
       </c>
       <c t="inlineStr" r="E9">
         <is>
-          <t xml:space="preserve">29-12-2025</t>
+          <t xml:space="preserve">27-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F9">
         <is>
-          <t xml:space="preserve">AKHIL K S</t>
+          <t xml:space="preserve">Muhammed Niyas Ns</t>
         </is>
       </c>
       <c t="inlineStr" r="G9">
@@ -625,12 +630,12 @@
       </c>
       <c t="inlineStr" r="H9">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I9">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
         </is>
       </c>
       <c t="inlineStr" r="J9">
@@ -640,7 +645,7 @@
       </c>
       <c t="inlineStr" r="K9">
         <is>
-          <t xml:space="preserve">product is already booked</t>
+          <t xml:space="preserve">enquiry</t>
         </is>
       </c>
     </row>
@@ -650,48 +655,2057 @@
       </c>
       <c t="inlineStr" r="B10">
         <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C10">
+        <is>
+          <t xml:space="preserve">vishvajith</t>
+        </is>
+      </c>
+      <c r="D10" s="65">
+        <v>9778205101</v>
+      </c>
+      <c t="inlineStr" r="E10">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F10">
+        <is>
+          <t xml:space="preserve">Madhavan p</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G10">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H10">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I10">
+        <is>
+          <t xml:space="preserve">Product Already Booked</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J10">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K10">
+        <is>
+          <t xml:space="preserve">non premium black blazer not available on that date.. they looking for black blazer..</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="65">
+        <v>9</v>
+      </c>
+      <c t="inlineStr" r="B11">
+        <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C11">
+        <is>
+          <t xml:space="preserve">shenil</t>
+        </is>
+      </c>
+      <c r="D11" s="65">
+        <v>9188866751</v>
+      </c>
+      <c t="inlineStr" r="E11">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F11">
+        <is>
+          <t xml:space="preserve">suhail ilyas</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G11">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H11">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I11">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J11">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K11">
+        <is>
+          <t xml:space="preserve">black non premium bulk booking not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="65">
+        <v>10</v>
+      </c>
+      <c t="inlineStr" r="B12">
+        <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C12">
+        <is>
+          <t xml:space="preserve">eldho</t>
+        </is>
+      </c>
+      <c r="D12" s="65">
+        <v>9020297279</v>
+      </c>
+      <c t="inlineStr" r="E12">
+        <is>
+          <t xml:space="preserve">03-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F12">
+        <is>
+          <t xml:space="preserve">AKHIL K S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G12">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H12">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I12">
+        <is>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J12">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K12">
+        <is>
+          <t xml:space="preserve">blackil design work olla single piece not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="65">
+        <v>11</v>
+      </c>
+      <c t="inlineStr" r="B13">
+        <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C13">
+        <is>
+          <t xml:space="preserve">bincy</t>
+        </is>
+      </c>
+      <c r="D13" s="65">
+        <v>8714154578</v>
+      </c>
+      <c t="inlineStr" r="E13">
+        <is>
+          <t xml:space="preserve">05-03-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F13">
+        <is>
+          <t xml:space="preserve">AKHIL K S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G13">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H13">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I13">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J13">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K13">
+        <is>
+          <t xml:space="preserve">function date fixed akkiyattila dress trial cheythatunde leave anusarich parayum eth dress vennam enn</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="65">
+        <v>12</v>
+      </c>
+      <c t="inlineStr" r="B14">
+        <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C14">
+        <is>
+          <t xml:space="preserve">Melvin</t>
+        </is>
+      </c>
+      <c r="D14" s="65">
+        <v>8075468546</v>
+      </c>
+      <c t="inlineStr" r="E14">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F14">
+        <is>
+          <t xml:space="preserve">Fayas E N</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G14">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H14">
+        <is>
+          <t xml:space="preserve">PRICING</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I14">
+        <is>
+          <t xml:space="preserve">RENT TO HIGH</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J14">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K14">
+        <is>
+          <t xml:space="preserve">SIZE WAS OKEY BUT RENT WAS NOT AFFORDABLE BY THE CUSTOMER</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="65">
+        <v>13</v>
+      </c>
+      <c t="inlineStr" r="B15">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C15">
+        <is>
+          <t xml:space="preserve">Althaj</t>
+        </is>
+      </c>
+      <c r="D15" s="65">
+        <v>7559957569</v>
+      </c>
+      <c t="inlineStr" r="E15">
+        <is>
+          <t xml:space="preserve">29-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F15">
+        <is>
+          <t xml:space="preserve">AKHIL K S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G15">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H15">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I15">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J15">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K15">
+        <is>
+          <t xml:space="preserve">product not available on that date</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="65">
+        <v>14</v>
+      </c>
+      <c t="inlineStr" r="B16">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C16">
+        <is>
+          <t xml:space="preserve">georgi</t>
+        </is>
+      </c>
+      <c r="D16" s="65">
+        <v>9562393568</v>
+      </c>
+      <c t="inlineStr" r="E16">
+        <is>
+          <t xml:space="preserve">16-05-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F16">
+        <is>
+          <t xml:space="preserve">Madhavan p</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G16">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H16">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I16">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J16">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K16">
+        <is>
+          <t xml:space="preserve">wedding in may.. they just explore the product details..</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="65">
+        <v>15</v>
+      </c>
+      <c t="inlineStr" r="B17">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C17">
+        <is>
+          <t xml:space="preserve">arjun</t>
+        </is>
+      </c>
+      <c r="D17" s="65">
+        <v>9539531728</v>
+      </c>
+      <c t="inlineStr" r="E17">
+        <is>
+          <t xml:space="preserve">04-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F17">
+        <is>
+          <t xml:space="preserve">Madhavan p</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G17">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H17">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I17">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J17">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K17">
+        <is>
+          <t xml:space="preserve">colour not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="65">
+        <v>16</v>
+      </c>
+      <c t="inlineStr" r="B18">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C18">
+        <is>
+          <t xml:space="preserve">Charls</t>
+        </is>
+      </c>
+      <c r="D18" s="65">
+        <v>7025243407</v>
+      </c>
+      <c t="inlineStr" r="E18">
+        <is>
+          <t xml:space="preserve">27-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F18">
+        <is>
+          <t xml:space="preserve">Madhavan p</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G18">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H18">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I18">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J18">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K18">
+        <is>
+          <t xml:space="preserve">products not available for that date..</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="65">
+        <v>17</v>
+      </c>
+      <c t="inlineStr" r="B19">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C19">
+        <is>
+          <t xml:space="preserve">rithu</t>
+        </is>
+      </c>
+      <c r="D19" s="65">
+        <v>7034940790</v>
+      </c>
+      <c t="inlineStr" r="E19">
+        <is>
+          <t xml:space="preserve">18-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F19">
+        <is>
+          <t xml:space="preserve">suhail ilyas</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G19">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H19">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I19">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J19">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K19">
+        <is>
+          <t xml:space="preserve">model not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="65">
+        <v>18</v>
+      </c>
+      <c t="inlineStr" r="B20">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C20">
+        <is>
+          <t xml:space="preserve">Akash</t>
+        </is>
+      </c>
+      <c r="D20" s="65">
+        <v>123456789</v>
+      </c>
+      <c t="inlineStr" r="E20">
+        <is>
+          <t xml:space="preserve">02-12-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F20">
+        <is>
+          <t xml:space="preserve">HEMANTH K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G20">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H20">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I20">
+        <is>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J20">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K20">
+        <is>
+          <t xml:space="preserve">need 58 size customer not interested to give number</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="65">
+        <v>19</v>
+      </c>
+      <c t="inlineStr" r="B21">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C21">
+        <is>
+          <t xml:space="preserve">ajay</t>
+        </is>
+      </c>
+      <c r="D21" s="65">
+        <v>9496253497</v>
+      </c>
+      <c t="inlineStr" r="E21">
+        <is>
+          <t xml:space="preserve">09-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F21">
+        <is>
+          <t xml:space="preserve">HEMANTH K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G21">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H21">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I21">
+        <is>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J21">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K21">
+        <is>
+          <t xml:space="preserve">46 size not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="65">
+        <v>20</v>
+      </c>
+      <c t="inlineStr" r="B22">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C22">
+        <is>
+          <t xml:space="preserve">Binosh</t>
+        </is>
+      </c>
+      <c r="D22" s="65">
+        <v>8075879638</v>
+      </c>
+      <c t="inlineStr" r="E22">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F22">
+        <is>
+          <t xml:space="preserve">Fayas E N</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G22">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H22">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I22">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J22">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K22">
+        <is>
+          <t xml:space="preserve">will come tommorrow for booking</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="65">
+        <v>21</v>
+      </c>
+      <c t="inlineStr" r="B23">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C23">
+        <is>
+          <t xml:space="preserve">muhameed</t>
+        </is>
+      </c>
+      <c r="D23" s="65">
+        <v>9072368000</v>
+      </c>
+      <c t="inlineStr" r="E23">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F23">
+        <is>
+          <t xml:space="preserve">ABHISHEK</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G23">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H23">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I23">
+        <is>
+          <t xml:space="preserve">Product Already Booked</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J23">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K23">
+        <is>
+          <t xml:space="preserve">They need same colour suit but collect most product are booked on that days trail 4 to 5 sets but product are already booked</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="65">
+        <v>22</v>
+      </c>
+      <c t="inlineStr" r="B24">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C24">
+        <is>
+          <t xml:space="preserve">Sabin</t>
+        </is>
+      </c>
+      <c r="D24" s="65">
+        <v>7736345309</v>
+      </c>
+      <c t="inlineStr" r="E24">
+        <is>
+          <t xml:space="preserve">01-02-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F24">
+        <is>
+          <t xml:space="preserve">Fayas E N</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G24">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H24">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I24">
+        <is>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J24">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K24">
+        <is>
+          <t xml:space="preserve">46 size is not available for needed colour.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="65">
+        <v>23</v>
+      </c>
+      <c t="inlineStr" r="B25">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C25">
+        <is>
+          <t xml:space="preserve">customer not ready for mentioning</t>
+        </is>
+      </c>
+      <c r="D25" s="65">
+        <v>1234567890</v>
+      </c>
+      <c t="inlineStr" r="E25">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F25">
+        <is>
+          <t xml:space="preserve">Fayas E N</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G25">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H25">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I25">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J25">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K25">
+        <is>
+          <t xml:space="preserve">THE REQUIRED MODEL CUSTOMER ENQUIRED WAS NOT AVAILABLE HERE.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="65">
+        <v>24</v>
+      </c>
+      <c t="inlineStr" r="B26">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C26">
+        <is>
+          <t xml:space="preserve">ashik</t>
+        </is>
+      </c>
+      <c r="D26" s="65">
+        <v>9037260665</v>
+      </c>
+      <c t="inlineStr" r="E26">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F26">
+        <is>
+          <t xml:space="preserve">AKHIL K S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G26">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H26">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I26">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J26">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K26">
+        <is>
+          <t xml:space="preserve">required model already booked not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="65">
+        <v>25</v>
+      </c>
+      <c t="inlineStr" r="B27">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C27">
+        <is>
+          <t xml:space="preserve">Eldhos</t>
+        </is>
+      </c>
+      <c r="D27" s="65">
+        <v>8592931127</v>
+      </c>
+      <c t="inlineStr" r="E27">
+        <is>
+          <t xml:space="preserve">12-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F27">
+        <is>
+          <t xml:space="preserve">Fayas E N</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G27">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H27">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I27">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J27">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K27">
+        <is>
+          <t xml:space="preserve">will visit soon and book the product. color issues was there. non premium item</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="65">
+        <v>26</v>
+      </c>
+      <c t="inlineStr" r="B28">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C28">
+        <is>
+          <t xml:space="preserve">aswim</t>
+        </is>
+      </c>
+      <c r="D28" s="65">
+        <v>1111111111</v>
+      </c>
+      <c t="inlineStr" r="E28">
+        <is>
+          <t xml:space="preserve">10-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F28">
+        <is>
+          <t xml:space="preserve">HEMANTH K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G28">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H28">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I28">
+        <is>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J28">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K28">
+        <is>
+          <t xml:space="preserve">32 size</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="65">
+        <v>27</v>
+      </c>
+      <c t="inlineStr" r="B29">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C29">
+        <is>
+          <t xml:space="preserve">Swalih</t>
+        </is>
+      </c>
+      <c r="D29" s="65">
+        <v>7594903470</v>
+      </c>
+      <c t="inlineStr" r="E29">
+        <is>
+          <t xml:space="preserve">04-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F29">
+        <is>
+          <t xml:space="preserve">Madhavan p</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G29">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H29">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I29">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J29">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K29">
+        <is>
+          <t xml:space="preserve">product not available in that size..</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="65">
+        <v>28</v>
+      </c>
+      <c t="inlineStr" r="B30">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C30">
+        <is>
+          <t xml:space="preserve">pink suit normal</t>
+        </is>
+      </c>
+      <c r="D30" s="65">
+        <v>8891895652</v>
+      </c>
+      <c t="inlineStr" r="E30">
+        <is>
+          <t xml:space="preserve">22-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F30">
+        <is>
+          <t xml:space="preserve">HEMANTH K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G30">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H30">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I30">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J30">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K30">
+        <is>
+          <t xml:space="preserve">WILL VISIT STORE TOMORROW</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="65">
+        <v>29</v>
+      </c>
+      <c t="inlineStr" r="B31">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C31">
+        <is>
+          <t xml:space="preserve">yashik</t>
+        </is>
+      </c>
+      <c r="D31" s="65">
+        <v>8606342468</v>
+      </c>
+      <c t="inlineStr" r="E31">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F31">
+        <is>
+          <t xml:space="preserve">Vipin V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G31">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H31">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I31">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J31">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K31">
+        <is>
+          <t xml:space="preserve">pistha green bangala aane nokkunney suit colour available ane bangala ane vendath</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="65">
+        <v>30</v>
+      </c>
+      <c t="inlineStr" r="B32">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C32">
+        <is>
+          <t xml:space="preserve">Arshad</t>
+        </is>
+      </c>
+      <c r="D32" s="65">
+        <v>7736458418</v>
+      </c>
+      <c t="inlineStr" r="E32">
+        <is>
+          <t xml:space="preserve">04-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F32">
+        <is>
+          <t xml:space="preserve">AKHIL K S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G32">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H32">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I32">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J32">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K32">
+        <is>
+          <t xml:space="preserve">family ayyite discuss cheythande varum</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="65">
+        <v>31</v>
+      </c>
+      <c t="inlineStr" r="B33">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C33">
+        <is>
+          <t xml:space="preserve">Afras</t>
+        </is>
+      </c>
+      <c r="D33" s="65">
+        <v>9526236699</v>
+      </c>
+      <c t="inlineStr" r="E33">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F33">
+        <is>
+          <t xml:space="preserve">Muhammed Niyas Ns</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G33">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H33">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I33">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J33">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K33">
+        <is>
+          <t xml:space="preserve">Alredy bookd in edapally</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="65">
+        <v>32</v>
+      </c>
+      <c t="inlineStr" r="B34">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C34">
+        <is>
+          <t xml:space="preserve">Saxon</t>
+        </is>
+      </c>
+      <c r="D34" s="65">
+        <v>8590724045</v>
+      </c>
+      <c t="inlineStr" r="E34">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F34">
+        <is>
+          <t xml:space="preserve">Muhammed Niyas Ns</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G34">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H34">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I34">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J34">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K34">
+        <is>
+          <t xml:space="preserve">White indowestern not available 40 size</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="65">
+        <v>33</v>
+      </c>
+      <c t="inlineStr" r="B35">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C35">
+        <is>
+          <t xml:space="preserve">Thanveer</t>
+        </is>
+      </c>
+      <c r="D35" s="65">
+        <v>9947874867</v>
+      </c>
+      <c t="inlineStr" r="E35">
+        <is>
+          <t xml:space="preserve">10-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F35">
+        <is>
+          <t xml:space="preserve">AKHIL K S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G35">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H35">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I35">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J35">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K35">
+        <is>
+          <t xml:space="preserve">Saturday vanne confirm cheyum</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="65">
+        <v>34</v>
+      </c>
+      <c t="inlineStr" r="B36">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C36">
+        <is>
+          <t xml:space="preserve">joreg</t>
+        </is>
+      </c>
+      <c r="D36" s="65">
+        <v>7592553007</v>
+      </c>
+      <c t="inlineStr" r="E36">
+        <is>
+          <t xml:space="preserve">28-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F36">
+        <is>
+          <t xml:space="preserve">DEVADETH R</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G36">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H36">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I36">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J36">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K36">
+        <is>
+          <t xml:space="preserve">discuss with family and they will come back in future</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="65">
+        <v>35</v>
+      </c>
+      <c t="inlineStr" r="B37">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C37">
+        <is>
+          <t xml:space="preserve">rashid</t>
+        </is>
+      </c>
+      <c r="D37" s="65">
+        <v>9744315737</v>
+      </c>
+      <c t="inlineStr" r="E37">
+        <is>
+          <t xml:space="preserve">04-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F37">
+        <is>
+          <t xml:space="preserve">HEMANTH K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G37">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H37">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I37">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J37">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K37">
+        <is>
+          <t xml:space="preserve">will come jan 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="65">
+        <v>36</v>
+      </c>
+      <c t="inlineStr" r="B38">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C38">
+        <is>
+          <t xml:space="preserve">vishnu</t>
+        </is>
+      </c>
+      <c r="D38" s="65">
+        <v>9995931223</v>
+      </c>
+      <c t="inlineStr" r="E38">
+        <is>
+          <t xml:space="preserve">26-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F38">
+        <is>
+          <t xml:space="preserve">Fayas E N</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G38">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H38">
+        <is>
+          <t xml:space="preserve">PRICING</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I38">
+        <is>
+          <t xml:space="preserve">RENT TO HIGH</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J38">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K38">
+        <is>
+          <t xml:space="preserve">Customer was facing rent price issue.rent was not okey for customer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="65">
+        <v>37</v>
+      </c>
+      <c t="inlineStr" r="B39">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C39">
+        <is>
+          <t xml:space="preserve">riju johnson</t>
+        </is>
+      </c>
+      <c r="D39" s="65">
+        <v>8921576245</v>
+      </c>
+      <c t="inlineStr" r="E39">
+        <is>
+          <t xml:space="preserve">10-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F39">
+        <is>
+          <t xml:space="preserve">Vipin V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G39">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H39">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I39">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J39">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K39">
+        <is>
+          <t xml:space="preserve">family ayit onnumkoodi nokkit nale vera paraju</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="65">
+        <v>38</v>
+      </c>
+      <c t="inlineStr" r="B40">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C40">
+        <is>
+          <t xml:space="preserve">lavanya</t>
+        </is>
+      </c>
+      <c r="D40" s="65">
+        <v>8904482775</v>
+      </c>
+      <c t="inlineStr" r="E40">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F40">
+        <is>
+          <t xml:space="preserve">Vipin V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G40">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H40">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I40">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J40">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K40">
+        <is>
+          <t xml:space="preserve">plain black 34 over size aane kid's suit ok ane but work ellatha typ venam</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="65">
+        <v>39</v>
+      </c>
+      <c t="inlineStr" r="B41">
+        <is>
           <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="C10">
+      <c t="inlineStr" r="C41">
+        <is>
+          <t xml:space="preserve">salma</t>
+        </is>
+      </c>
+      <c r="D41" s="65">
+        <v>8086676767</v>
+      </c>
+      <c t="inlineStr" r="E41">
+        <is>
+          <t xml:space="preserve">21-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F41">
+        <is>
+          <t xml:space="preserve">HEMANTH K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G41">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H41">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I41">
+        <is>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J41">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K41">
+        <is>
+          <t xml:space="preserve">KURTHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="65">
+        <v>40</v>
+      </c>
+      <c t="inlineStr" r="B42">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C42">
+        <is>
+          <t xml:space="preserve">suhail</t>
+        </is>
+      </c>
+      <c r="D42" s="65">
+        <v>8137912784</v>
+      </c>
+      <c t="inlineStr" r="E42">
+        <is>
+          <t xml:space="preserve">18-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F42">
+        <is>
+          <t xml:space="preserve">Fayas E N</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G42">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H42">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I42">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J42">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="65">
+        <v>41</v>
+      </c>
+      <c t="inlineStr" r="B43">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C43">
+        <is>
+          <t xml:space="preserve">joyal</t>
+        </is>
+      </c>
+      <c r="D43" s="65">
+        <v>7736692907</v>
+      </c>
+      <c t="inlineStr" r="E43">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F43">
+        <is>
+          <t xml:space="preserve">HEMANTH K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G43">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H43">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I43">
+        <is>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J43">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K43">
+        <is>
+          <t xml:space="preserve">46 in suits</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="65">
+        <v>42</v>
+      </c>
+      <c t="inlineStr" r="B44">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C44">
+        <is>
+          <t xml:space="preserve">mohana krishnan</t>
+        </is>
+      </c>
+      <c r="D44" s="65">
+        <v>9995805831</v>
+      </c>
+      <c t="inlineStr" r="E44">
+        <is>
+          <t xml:space="preserve">31-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F44">
+        <is>
+          <t xml:space="preserve">DEVADETH R</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G44">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H44">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I44">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J44">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K44">
+        <is>
+          <t xml:space="preserve">disscus with family and confirm</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="65">
+        <v>43</v>
+      </c>
+      <c t="inlineStr" r="B45">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C45">
+        <is>
+          <t xml:space="preserve">Abees</t>
+        </is>
+      </c>
+      <c r="D45" s="65">
+        <v>7025027825</v>
+      </c>
+      <c t="inlineStr" r="E45">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F45">
+        <is>
+          <t xml:space="preserve">Muhammed Niyas Ns</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G45">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H45">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I45">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J45">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K45">
+        <is>
+          <t xml:space="preserve">product not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="65">
+        <v>44</v>
+      </c>
+      <c t="inlineStr" r="B46">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C46">
+        <is>
+          <t xml:space="preserve">Akshay</t>
+        </is>
+      </c>
+      <c r="D46" s="65">
+        <v>1234567899</v>
+      </c>
+      <c t="inlineStr" r="E46">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F46">
+        <is>
+          <t xml:space="preserve">HEMANTH K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G46">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H46">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I46">
+        <is>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J46">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K46">
+        <is>
+          <t xml:space="preserve">size and color not available on customer date</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="65">
+        <v>45</v>
+      </c>
+      <c t="inlineStr" r="B47">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C47">
+        <is>
+          <t xml:space="preserve">philemon</t>
+        </is>
+      </c>
+      <c r="D47" s="65">
+        <v>8113834686</v>
+      </c>
+      <c t="inlineStr" r="E47">
+        <is>
+          <t xml:space="preserve">29-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F47">
+        <is>
+          <t xml:space="preserve">AKHIL K S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G47">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H47">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I47">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J47">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K47">
+        <is>
+          <t xml:space="preserve">product is already booked</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="65">
+        <v>46</v>
+      </c>
+      <c t="inlineStr" r="B48">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C48">
         <is>
           <t xml:space="preserve">Ajay</t>
         </is>
       </c>
-      <c r="D10" s="65">
+      <c r="D48" s="65">
         <v>7994994767</v>
       </c>
-      <c t="inlineStr" r="E10">
+      <c t="inlineStr" r="E48">
         <is>
           <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="F10">
+      <c t="inlineStr" r="F48">
         <is>
           <t xml:space="preserve">Muhammed Niyas Ns</t>
         </is>
       </c>
-      <c t="inlineStr" r="G10">
-        <is>
-          <t xml:space="preserve">Loss</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H10">
+      <c t="inlineStr" r="G48">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H48">
         <is>
           <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
-      <c t="inlineStr" r="I10">
+      <c t="inlineStr" r="I48">
         <is>
           <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
-      <c t="inlineStr" r="J10">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="K10">
+      <c t="inlineStr" r="J48">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K48">
         <is>
           <t xml:space="preserve">formal suite not availabl that date</t>
         </is>

--- a/data/lossofsale_sg_mg road.xlsx
+++ b/data/lossofsale_sg_mg road.xlsx
@@ -284,25 +284,25 @@
       </c>
       <c t="inlineStr" r="B3">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">10-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">ahmed</t>
+          <t xml:space="preserve">Firoz</t>
         </is>
       </c>
       <c r="D3" s="65">
-        <v>9037861022</v>
+        <v>7403603244</v>
       </c>
       <c t="inlineStr" r="E3">
         <is>
-          <t xml:space="preserve">22-12-2025</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F3">
         <is>
-          <t xml:space="preserve">ABHISHEK</t>
+          <t xml:space="preserve">Muhammed Niyas Ns</t>
         </is>
       </c>
       <c t="inlineStr" r="G3">
@@ -317,7 +317,7 @@
       </c>
       <c t="inlineStr" r="I3">
         <is>
-          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J3">
@@ -327,7 +327,7 @@
       </c>
       <c t="inlineStr" r="K3">
         <is>
-          <t xml:space="preserve">required model plain formal suit size 36 but we 11 option of product we trail product but not single product 36 size not avilable for dec 22</t>
+          <t xml:space="preserve">PRODUCT NOT AVIALBLE FOR THAT DATE WHITE INDOWESTERN  2 MODELS ARE AVILABLE IN STORE 36 SIZE 2 SETS ARE ALREADY BOOKED</t>
         </is>
       </c>
     </row>
@@ -337,20 +337,20 @@
       </c>
       <c t="inlineStr" r="B4">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">10-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C4">
         <is>
-          <t xml:space="preserve">belram</t>
+          <t xml:space="preserve">Ashil</t>
         </is>
       </c>
       <c r="D4" s="65">
-        <v>9544969953</v>
+        <v>8943988694</v>
       </c>
       <c t="inlineStr" r="E4">
         <is>
-          <t xml:space="preserve">25-01-2026</t>
+          <t xml:space="preserve">20-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F4">
@@ -365,12 +365,12 @@
       </c>
       <c t="inlineStr" r="H4">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I4">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J4">
@@ -380,7 +380,7 @@
       </c>
       <c t="inlineStr" r="K4">
         <is>
-          <t xml:space="preserve">they think this store is retail store.. they came for buy..</t>
+          <t xml:space="preserve">suggested ones already booked..</t>
         </is>
       </c>
     </row>
@@ -390,25 +390,25 @@
       </c>
       <c t="inlineStr" r="B5">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">10-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C5">
         <is>
-          <t xml:space="preserve">albit</t>
+          <t xml:space="preserve">omar</t>
         </is>
       </c>
       <c r="D5" s="65">
-        <v>7902250062</v>
+        <v>7306525085</v>
       </c>
       <c t="inlineStr" r="E5">
         <is>
-          <t xml:space="preserve">27-12-2025</t>
+          <t xml:space="preserve">04-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F5">
         <is>
-          <t xml:space="preserve">Fayas E N</t>
+          <t xml:space="preserve">Madhavan p</t>
         </is>
       </c>
       <c t="inlineStr" r="G5">
@@ -418,12 +418,12 @@
       </c>
       <c t="inlineStr" r="H5">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I5">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J5">
@@ -433,7 +433,7 @@
       </c>
       <c t="inlineStr" r="K5">
         <is>
-          <t xml:space="preserve">Enquiry for cream non premium formal suit (customer showed a specific colour)</t>
+          <t xml:space="preserve">searching products not available.. double breast not available..</t>
         </is>
       </c>
     </row>
@@ -443,25 +443,25 @@
       </c>
       <c t="inlineStr" r="B6">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">10-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C6">
         <is>
-          <t xml:space="preserve">ARUN</t>
+          <t xml:space="preserve">Eldho</t>
         </is>
       </c>
       <c r="D6" s="65">
-        <v>6901255023</v>
+        <v>8330017880</v>
       </c>
       <c t="inlineStr" r="E6">
         <is>
-          <t xml:space="preserve">25-04-2026</t>
+          <t xml:space="preserve">17-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F6">
         <is>
-          <t xml:space="preserve">HEMANTH K</t>
+          <t xml:space="preserve">Fayas E N</t>
         </is>
       </c>
       <c t="inlineStr" r="G6">
@@ -471,12 +471,12 @@
       </c>
       <c t="inlineStr" r="H6">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I6">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
         </is>
       </c>
       <c t="inlineStr" r="J6">
@@ -486,7 +486,7 @@
       </c>
       <c t="inlineStr" r="K6">
         <is>
-          <t xml:space="preserve">with in two days visit showroom</t>
+          <t xml:space="preserve">46 size needed.</t>
         </is>
       </c>
     </row>
@@ -496,25 +496,25 @@
       </c>
       <c t="inlineStr" r="B7">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">10-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C7">
         <is>
-          <t xml:space="preserve">melvin</t>
+          <t xml:space="preserve">vishnu</t>
         </is>
       </c>
       <c r="D7" s="65">
-        <v>9496952204</v>
+        <v>9400538533</v>
       </c>
       <c t="inlineStr" r="E7">
         <is>
-          <t xml:space="preserve">29-12-2025</t>
+          <t xml:space="preserve">27-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F7">
         <is>
-          <t xml:space="preserve">Madhavan p</t>
+          <t xml:space="preserve">AKHIL K S</t>
         </is>
       </c>
       <c t="inlineStr" r="G7">
@@ -524,12 +524,12 @@
       </c>
       <c t="inlineStr" r="H7">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I7">
         <is>
-          <t xml:space="preserve">Product Already Booked</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J7">
@@ -539,7 +539,7 @@
       </c>
       <c t="inlineStr" r="K7">
         <is>
-          <t xml:space="preserve">non premium products not available in that date.. they want casual suits..</t>
+          <t xml:space="preserve">nala confirm cheyum</t>
         </is>
       </c>
     </row>
@@ -549,25 +549,25 @@
       </c>
       <c t="inlineStr" r="B8">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">10-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C8">
         <is>
-          <t xml:space="preserve">frady</t>
+          <t xml:space="preserve">akhil</t>
         </is>
       </c>
       <c r="D8" s="65">
-        <v>8921853595</v>
+        <v>7736286640</v>
       </c>
       <c t="inlineStr" r="E8">
         <is>
-          <t xml:space="preserve">28-12-2025</t>
+          <t xml:space="preserve">10-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F8">
         <is>
-          <t xml:space="preserve">Sanoob k h</t>
+          <t xml:space="preserve">DEVADETH R</t>
         </is>
       </c>
       <c t="inlineStr" r="G8">
@@ -577,12 +577,12 @@
       </c>
       <c t="inlineStr" r="H8">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I8">
         <is>
-          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
         </is>
       </c>
       <c t="inlineStr" r="J8">
@@ -592,7 +592,7 @@
       </c>
       <c t="inlineStr" r="K8">
         <is>
-          <t xml:space="preserve">pintrest model</t>
+          <t xml:space="preserve">required item size not hear</t>
         </is>
       </c>
     </row>
@@ -602,20 +602,20 @@
       </c>
       <c t="inlineStr" r="B9">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">10-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C9">
         <is>
-          <t xml:space="preserve">Roshan</t>
+          <t xml:space="preserve">Nidhal</t>
         </is>
       </c>
       <c r="D9" s="65">
-        <v>9633222807</v>
+        <v>9400462406</v>
       </c>
       <c t="inlineStr" r="E9">
         <is>
-          <t xml:space="preserve">27-12-2025</t>
+          <t xml:space="preserve">28-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F9">
@@ -635,7 +635,7 @@
       </c>
       <c t="inlineStr" r="I9">
         <is>
-          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J9">
@@ -645,7 +645,7 @@
       </c>
       <c t="inlineStr" r="K9">
         <is>
-          <t xml:space="preserve">enquiry</t>
+          <t xml:space="preserve">revisit on saturday</t>
         </is>
       </c>
     </row>
@@ -655,20 +655,20 @@
       </c>
       <c t="inlineStr" r="B10">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C10">
         <is>
-          <t xml:space="preserve">vishvajith</t>
+          <t xml:space="preserve">Fizal</t>
         </is>
       </c>
       <c r="D10" s="65">
-        <v>9778205101</v>
+        <v>9207885907</v>
       </c>
       <c t="inlineStr" r="E10">
         <is>
-          <t xml:space="preserve">22-12-2025</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F10">
@@ -683,12 +683,12 @@
       </c>
       <c t="inlineStr" r="H10">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I10">
         <is>
-          <t xml:space="preserve">Product Already Booked</t>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
       <c t="inlineStr" r="J10">
@@ -698,7 +698,7 @@
       </c>
       <c t="inlineStr" r="K10">
         <is>
-          <t xml:space="preserve">non premium black blazer not available on that date.. they looking for black blazer..</t>
+          <t xml:space="preserve">family not approved</t>
         </is>
       </c>
     </row>
@@ -708,16 +708,16 @@
       </c>
       <c t="inlineStr" r="B11">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C11">
         <is>
-          <t xml:space="preserve">shenil</t>
+          <t xml:space="preserve">Ajmal</t>
         </is>
       </c>
       <c r="D11" s="65">
-        <v>9188866751</v>
+        <v>9061195667</v>
       </c>
       <c t="inlineStr" r="E11">
         <is>
@@ -726,7 +726,7 @@
       </c>
       <c t="inlineStr" r="F11">
         <is>
-          <t xml:space="preserve">suhail ilyas</t>
+          <t xml:space="preserve">Muhammed Niyas Ns</t>
         </is>
       </c>
       <c t="inlineStr" r="G11">
@@ -751,7 +751,7 @@
       </c>
       <c t="inlineStr" r="K11">
         <is>
-          <t xml:space="preserve">black non premium bulk booking not available</t>
+          <t xml:space="preserve">PRODUCT NOT AVIALBLE FOR THAT DATE WHITE INDOWESTERN 2 MODELS ARE AVILABLE IN STORE 38 OR 40 SIZE 2 SETS ARE ALREADY BOOKED</t>
         </is>
       </c>
     </row>
@@ -761,25 +761,25 @@
       </c>
       <c t="inlineStr" r="B12">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C12">
         <is>
-          <t xml:space="preserve">eldho</t>
+          <t xml:space="preserve">aswin</t>
         </is>
       </c>
       <c r="D12" s="65">
-        <v>9020297279</v>
+        <v>7012114981</v>
       </c>
       <c t="inlineStr" r="E12">
         <is>
-          <t xml:space="preserve">03-01-2026</t>
+          <t xml:space="preserve">01-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F12">
         <is>
-          <t xml:space="preserve">AKHIL K S</t>
+          <t xml:space="preserve">DEVADETH R</t>
         </is>
       </c>
       <c t="inlineStr" r="G12">
@@ -804,7 +804,7 @@
       </c>
       <c t="inlineStr" r="K12">
         <is>
-          <t xml:space="preserve">blackil design work olla single piece not available</t>
+          <t xml:space="preserve">CUTOMER NEED TO CUSTOMIZE</t>
         </is>
       </c>
     </row>
@@ -814,25 +814,25 @@
       </c>
       <c t="inlineStr" r="B13">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C13">
         <is>
-          <t xml:space="preserve">bincy</t>
+          <t xml:space="preserve">saeed</t>
         </is>
       </c>
       <c r="D13" s="65">
-        <v>8714154578</v>
+        <v>8590825100</v>
       </c>
       <c t="inlineStr" r="E13">
         <is>
-          <t xml:space="preserve">05-03-2026</t>
+          <t xml:space="preserve">25-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F13">
         <is>
-          <t xml:space="preserve">AKHIL K S</t>
+          <t xml:space="preserve">Madhavan p</t>
         </is>
       </c>
       <c t="inlineStr" r="G13">
@@ -842,12 +842,12 @@
       </c>
       <c t="inlineStr" r="H13">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I13">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
       <c t="inlineStr" r="J13">
@@ -857,7 +857,7 @@
       </c>
       <c t="inlineStr" r="K13">
         <is>
-          <t xml:space="preserve">function date fixed akkiyattila dress trial cheythatunde leave anusarich parayum eth dress vennam enn</t>
+          <t xml:space="preserve">they discuss with family and return..</t>
         </is>
       </c>
     </row>
@@ -867,25 +867,25 @@
       </c>
       <c t="inlineStr" r="B14">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C14">
         <is>
-          <t xml:space="preserve">Melvin</t>
+          <t xml:space="preserve">ajmal</t>
         </is>
       </c>
       <c r="D14" s="65">
-        <v>8075468546</v>
+        <v>8089744330</v>
       </c>
       <c t="inlineStr" r="E14">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">01-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F14">
         <is>
-          <t xml:space="preserve">Fayas E N</t>
+          <t xml:space="preserve">Madhavan p</t>
         </is>
       </c>
       <c t="inlineStr" r="G14">
@@ -895,12 +895,12 @@
       </c>
       <c t="inlineStr" r="H14">
         <is>
-          <t xml:space="preserve">PRICING</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I14">
         <is>
-          <t xml:space="preserve">RENT TO HIGH</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J14">
@@ -910,7 +910,7 @@
       </c>
       <c t="inlineStr" r="K14">
         <is>
-          <t xml:space="preserve">SIZE WAS OKEY BUT RENT WAS NOT AFFORDABLE BY THE CUSTOMER</t>
+          <t xml:space="preserve">product not available for that date..</t>
         </is>
       </c>
     </row>
@@ -920,25 +920,25 @@
       </c>
       <c t="inlineStr" r="B15">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C15">
         <is>
-          <t xml:space="preserve">Althaj</t>
+          <t xml:space="preserve">MELVIN</t>
         </is>
       </c>
       <c r="D15" s="65">
-        <v>7559957569</v>
+        <v>9496952220</v>
       </c>
       <c t="inlineStr" r="E15">
         <is>
-          <t xml:space="preserve">29-12-2025</t>
+          <t xml:space="preserve">01-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F15">
         <is>
-          <t xml:space="preserve">AKHIL K S</t>
+          <t xml:space="preserve">Vishnu Raj</t>
         </is>
       </c>
       <c t="inlineStr" r="G15">
@@ -948,12 +948,12 @@
       </c>
       <c t="inlineStr" r="H15">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I15">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J15">
@@ -963,7 +963,7 @@
       </c>
       <c t="inlineStr" r="K15">
         <is>
-          <t xml:space="preserve">product not available on that date</t>
+          <t xml:space="preserve">KURTHA BULK SIZE NOT CONFIRM VISIT AGAIN</t>
         </is>
       </c>
     </row>
@@ -973,25 +973,25 @@
       </c>
       <c t="inlineStr" r="B16">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C16">
         <is>
-          <t xml:space="preserve">georgi</t>
+          <t xml:space="preserve">Bharat</t>
         </is>
       </c>
       <c r="D16" s="65">
-        <v>9562393568</v>
+        <v>9495317079</v>
       </c>
       <c t="inlineStr" r="E16">
         <is>
-          <t xml:space="preserve">16-05-2026</t>
+          <t xml:space="preserve">05-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F16">
         <is>
-          <t xml:space="preserve">Madhavan p</t>
+          <t xml:space="preserve">Muhammed Niyas Ns</t>
         </is>
       </c>
       <c t="inlineStr" r="G16">
@@ -1001,12 +1001,12 @@
       </c>
       <c t="inlineStr" r="H16">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I16">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J16">
@@ -1016,7 +1016,7 @@
       </c>
       <c t="inlineStr" r="K16">
         <is>
-          <t xml:space="preserve">wedding in may.. they just explore the product details..</t>
+          <t xml:space="preserve">size not available</t>
         </is>
       </c>
     </row>
@@ -1026,25 +1026,25 @@
       </c>
       <c t="inlineStr" r="B17">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C17">
         <is>
-          <t xml:space="preserve">arjun</t>
+          <t xml:space="preserve">Feniston</t>
         </is>
       </c>
       <c r="D17" s="65">
-        <v>9539531728</v>
+        <v>8848139006</v>
       </c>
       <c t="inlineStr" r="E17">
         <is>
-          <t xml:space="preserve">04-01-2026</t>
+          <t xml:space="preserve">28-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F17">
         <is>
-          <t xml:space="preserve">Madhavan p</t>
+          <t xml:space="preserve">Muhammed Niyas Ns</t>
         </is>
       </c>
       <c t="inlineStr" r="G17">
@@ -1054,12 +1054,12 @@
       </c>
       <c t="inlineStr" r="H17">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I17">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J17">
@@ -1069,7 +1069,7 @@
       </c>
       <c t="inlineStr" r="K17">
         <is>
-          <t xml:space="preserve">colour not available</t>
+          <t xml:space="preserve">Size Not available all products of booking on that date</t>
         </is>
       </c>
     </row>
@@ -1079,25 +1079,25 @@
       </c>
       <c t="inlineStr" r="B18">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C18">
         <is>
-          <t xml:space="preserve">Charls</t>
+          <t xml:space="preserve">Govind</t>
         </is>
       </c>
       <c r="D18" s="65">
-        <v>7025243407</v>
+        <v>8848749054</v>
       </c>
       <c t="inlineStr" r="E18">
         <is>
-          <t xml:space="preserve">27-01-2026</t>
+          <t xml:space="preserve">20-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F18">
         <is>
-          <t xml:space="preserve">Madhavan p</t>
+          <t xml:space="preserve">Fayas E N</t>
         </is>
       </c>
       <c t="inlineStr" r="G18">
@@ -1107,12 +1107,12 @@
       </c>
       <c t="inlineStr" r="H18">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I18">
         <is>
-          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J18">
@@ -1122,7 +1122,7 @@
       </c>
       <c t="inlineStr" r="K18">
         <is>
-          <t xml:space="preserve">products not available for that date..</t>
+          <t xml:space="preserve">WILL VISIT SOON. A MOTHER WALKEDIN AND ENQUIRED ABOUT THE PRODUCT'S  DETAILS AND WILL SEND HER SON FOR FURTHER SELECTIONS. (SON IS RIYAS IKKA'S FRIEND)</t>
         </is>
       </c>
     </row>
@@ -1132,25 +1132,25 @@
       </c>
       <c t="inlineStr" r="B19">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C19">
         <is>
-          <t xml:space="preserve">rithu</t>
+          <t xml:space="preserve">kurian</t>
         </is>
       </c>
       <c r="D19" s="65">
-        <v>7034940790</v>
+        <v>7902829286</v>
       </c>
       <c t="inlineStr" r="E19">
         <is>
-          <t xml:space="preserve">18-12-2025</t>
+          <t xml:space="preserve">09-05-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F19">
         <is>
-          <t xml:space="preserve">suhail ilyas</t>
+          <t xml:space="preserve">Madhavan p</t>
         </is>
       </c>
       <c t="inlineStr" r="G19">
@@ -1160,12 +1160,12 @@
       </c>
       <c t="inlineStr" r="H19">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I19">
         <is>
-          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J19">
@@ -1175,7 +1175,7 @@
       </c>
       <c t="inlineStr" r="K19">
         <is>
-          <t xml:space="preserve">model not available</t>
+          <t xml:space="preserve">groom is not here..program in may.. just explore the details..</t>
         </is>
       </c>
     </row>
@@ -1185,25 +1185,25 @@
       </c>
       <c t="inlineStr" r="B20">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C20">
         <is>
-          <t xml:space="preserve">Akash</t>
+          <t xml:space="preserve">jotty</t>
         </is>
       </c>
       <c r="D20" s="65">
-        <v>123456789</v>
+        <v>7909125090</v>
       </c>
       <c t="inlineStr" r="E20">
         <is>
-          <t xml:space="preserve">02-12-2026</t>
+          <t xml:space="preserve">21-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F20">
         <is>
-          <t xml:space="preserve">HEMANTH K</t>
+          <t xml:space="preserve">Madhavan p</t>
         </is>
       </c>
       <c t="inlineStr" r="G20">
@@ -1213,12 +1213,12 @@
       </c>
       <c t="inlineStr" r="H20">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I20">
         <is>
-          <t xml:space="preserve">SIZE TOO LARGE</t>
+          <t xml:space="preserve">Product Already Booked</t>
         </is>
       </c>
       <c t="inlineStr" r="J20">
@@ -1228,7 +1228,7 @@
       </c>
       <c t="inlineStr" r="K20">
         <is>
-          <t xml:space="preserve">need 58 size customer not interested to give number</t>
+          <t xml:space="preserve">normal suit preferred colour and size already booked..</t>
         </is>
       </c>
     </row>
@@ -1238,25 +1238,25 @@
       </c>
       <c t="inlineStr" r="B21">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C21">
         <is>
-          <t xml:space="preserve">ajay</t>
+          <t xml:space="preserve">fahim</t>
         </is>
       </c>
       <c r="D21" s="65">
-        <v>9496253497</v>
+        <v>8547190953</v>
       </c>
       <c t="inlineStr" r="E21">
         <is>
-          <t xml:space="preserve">09-01-2026</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F21">
         <is>
-          <t xml:space="preserve">HEMANTH K</t>
+          <t xml:space="preserve">suhail ilyas</t>
         </is>
       </c>
       <c t="inlineStr" r="G21">
@@ -1266,12 +1266,12 @@
       </c>
       <c t="inlineStr" r="H21">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I21">
         <is>
-          <t xml:space="preserve">SIZE TOO LARGE</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J21">
@@ -1281,7 +1281,7 @@
       </c>
       <c t="inlineStr" r="K21">
         <is>
-          <t xml:space="preserve">46 size not available</t>
+          <t xml:space="preserve">enquiry</t>
         </is>
       </c>
     </row>
@@ -1291,25 +1291,25 @@
       </c>
       <c t="inlineStr" r="B22">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C22">
         <is>
-          <t xml:space="preserve">Binosh</t>
+          <t xml:space="preserve">amoz</t>
         </is>
       </c>
       <c r="D22" s="65">
-        <v>8075879638</v>
+        <v>7594016963</v>
       </c>
       <c t="inlineStr" r="E22">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">10-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F22">
         <is>
-          <t xml:space="preserve">Fayas E N</t>
+          <t xml:space="preserve">Madhavan p</t>
         </is>
       </c>
       <c t="inlineStr" r="G22">
@@ -1319,12 +1319,12 @@
       </c>
       <c t="inlineStr" r="H22">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I22">
         <is>
-          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
         </is>
       </c>
       <c t="inlineStr" r="J22">
@@ -1334,7 +1334,7 @@
       </c>
       <c t="inlineStr" r="K22">
         <is>
-          <t xml:space="preserve">will come tommorrow for booking</t>
+          <t xml:space="preserve">fit products not available in that date..</t>
         </is>
       </c>
     </row>
@@ -1344,25 +1344,25 @@
       </c>
       <c t="inlineStr" r="B23">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C23">
         <is>
-          <t xml:space="preserve">muhameed</t>
+          <t xml:space="preserve">arun</t>
         </is>
       </c>
       <c r="D23" s="65">
-        <v>9072368000</v>
+        <v>7736502744</v>
       </c>
       <c t="inlineStr" r="E23">
         <is>
-          <t xml:space="preserve">28-12-2025</t>
+          <t xml:space="preserve">04-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F23">
         <is>
-          <t xml:space="preserve">ABHISHEK</t>
+          <t xml:space="preserve">Madhavan p</t>
         </is>
       </c>
       <c t="inlineStr" r="G23">
@@ -1372,12 +1372,12 @@
       </c>
       <c t="inlineStr" r="H23">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I23">
         <is>
-          <t xml:space="preserve">Product Already Booked</t>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
       <c t="inlineStr" r="J23">
@@ -1387,7 +1387,7 @@
       </c>
       <c t="inlineStr" r="K23">
         <is>
-          <t xml:space="preserve">They need same colour suit but collect most product are booked on that days trail 4 to 5 sets but product are already booked</t>
+          <t xml:space="preserve">groom not here</t>
         </is>
       </c>
     </row>
@@ -1397,25 +1397,25 @@
       </c>
       <c t="inlineStr" r="B24">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C24">
         <is>
-          <t xml:space="preserve">Sabin</t>
+          <t xml:space="preserve">akshey</t>
         </is>
       </c>
       <c r="D24" s="65">
-        <v>7736345309</v>
+        <v>8921740083</v>
       </c>
       <c t="inlineStr" r="E24">
         <is>
-          <t xml:space="preserve">01-02-2026</t>
+          <t xml:space="preserve">29-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F24">
         <is>
-          <t xml:space="preserve">Fayas E N</t>
+          <t xml:space="preserve">Madhavan p</t>
         </is>
       </c>
       <c t="inlineStr" r="G24">
@@ -1425,12 +1425,12 @@
       </c>
       <c t="inlineStr" r="H24">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I24">
         <is>
-          <t xml:space="preserve">SIZE TOO SMALL</t>
+          <t xml:space="preserve">Product Already Booked</t>
         </is>
       </c>
       <c t="inlineStr" r="J24">
@@ -1440,7 +1440,7 @@
       </c>
       <c t="inlineStr" r="K24">
         <is>
-          <t xml:space="preserve">46 size is not available for needed colour.</t>
+          <t xml:space="preserve">loved products already booked the same date..</t>
         </is>
       </c>
     </row>
@@ -1450,25 +1450,25 @@
       </c>
       <c t="inlineStr" r="B25">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C25">
         <is>
-          <t xml:space="preserve">customer not ready for mentioning</t>
+          <t xml:space="preserve">Akhil</t>
         </is>
       </c>
       <c r="D25" s="65">
-        <v>1234567890</v>
+        <v>9946204482</v>
       </c>
       <c t="inlineStr" r="E25">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">06-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F25">
         <is>
-          <t xml:space="preserve">Fayas E N</t>
+          <t xml:space="preserve">AKHIL K S</t>
         </is>
       </c>
       <c t="inlineStr" r="G25">
@@ -1478,12 +1478,12 @@
       </c>
       <c t="inlineStr" r="H25">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I25">
         <is>
-          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J25">
@@ -1493,7 +1493,7 @@
       </c>
       <c t="inlineStr" r="K25">
         <is>
-          <t xml:space="preserve">THE REQUIRED MODEL CUSTOMER ENQUIRED WAS NOT AVAILABLE HERE.</t>
+          <t xml:space="preserve">groom varunnathe Jan 1st ennit nokkum</t>
         </is>
       </c>
     </row>
@@ -1503,25 +1503,25 @@
       </c>
       <c t="inlineStr" r="B26">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C26">
         <is>
-          <t xml:space="preserve">ashik</t>
+          <t xml:space="preserve">jestin</t>
         </is>
       </c>
       <c r="D26" s="65">
-        <v>9037260665</v>
+        <v>9946458237</v>
       </c>
       <c t="inlineStr" r="E26">
         <is>
-          <t xml:space="preserve">22-12-2025</t>
+          <t xml:space="preserve">05-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F26">
         <is>
-          <t xml:space="preserve">AKHIL K S</t>
+          <t xml:space="preserve">suhail ilyas</t>
         </is>
       </c>
       <c t="inlineStr" r="G26">
@@ -1531,12 +1531,12 @@
       </c>
       <c t="inlineStr" r="H26">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I26">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J26">
@@ -1546,7 +1546,7 @@
       </c>
       <c t="inlineStr" r="K26">
         <is>
-          <t xml:space="preserve">required model already booked not available</t>
+          <t xml:space="preserve">enquiry</t>
         </is>
       </c>
     </row>
@@ -1556,25 +1556,25 @@
       </c>
       <c t="inlineStr" r="B27">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C27">
         <is>
-          <t xml:space="preserve">Eldhos</t>
+          <t xml:space="preserve">raez</t>
         </is>
       </c>
       <c r="D27" s="65">
-        <v>8592931127</v>
+        <v>9496971740</v>
       </c>
       <c t="inlineStr" r="E27">
         <is>
-          <t xml:space="preserve">12-01-2026</t>
+          <t xml:space="preserve">20-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F27">
         <is>
-          <t xml:space="preserve">Fayas E N</t>
+          <t xml:space="preserve">suhail ilyas</t>
         </is>
       </c>
       <c t="inlineStr" r="G27">
@@ -1584,12 +1584,12 @@
       </c>
       <c t="inlineStr" r="H27">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I27">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J27">
@@ -1599,7 +1599,7 @@
       </c>
       <c t="inlineStr" r="K27">
         <is>
-          <t xml:space="preserve">will visit soon and book the product. color issues was there. non premium item</t>
+          <t xml:space="preserve">product not available</t>
         </is>
       </c>
     </row>
@@ -1609,25 +1609,25 @@
       </c>
       <c t="inlineStr" r="B28">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C28">
         <is>
-          <t xml:space="preserve">aswim</t>
+          <t xml:space="preserve">Ebin</t>
         </is>
       </c>
       <c r="D28" s="65">
-        <v>1111111111</v>
+        <v>8078585931</v>
       </c>
       <c t="inlineStr" r="E28">
         <is>
-          <t xml:space="preserve">10-01-2026</t>
+          <t xml:space="preserve">27-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F28">
         <is>
-          <t xml:space="preserve">HEMANTH K</t>
+          <t xml:space="preserve">Muhammed Niyas Ns</t>
         </is>
       </c>
       <c t="inlineStr" r="G28">
@@ -1637,12 +1637,12 @@
       </c>
       <c t="inlineStr" r="H28">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I28">
         <is>
-          <t xml:space="preserve">SIZE TOO SMALL</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J28">
@@ -1652,7 +1652,7 @@
       </c>
       <c t="inlineStr" r="K28">
         <is>
-          <t xml:space="preserve">32 size</t>
+          <t xml:space="preserve">enquiry without groom</t>
         </is>
       </c>
     </row>
@@ -1662,25 +1662,25 @@
       </c>
       <c t="inlineStr" r="B29">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C29">
         <is>
-          <t xml:space="preserve">Swalih</t>
+          <t xml:space="preserve">shahabas</t>
         </is>
       </c>
       <c r="D29" s="65">
-        <v>7594903470</v>
+        <v>8714951548</v>
       </c>
       <c t="inlineStr" r="E29">
         <is>
-          <t xml:space="preserve">04-01-2026</t>
+          <t xml:space="preserve">26-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F29">
         <is>
-          <t xml:space="preserve">Madhavan p</t>
+          <t xml:space="preserve">suhail ilyas</t>
         </is>
       </c>
       <c t="inlineStr" r="G29">
@@ -1698,14 +1698,12 @@
           <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
-      <c t="inlineStr" r="J29">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
+      <c r="J29" s="65">
+        <v>2</v>
       </c>
       <c t="inlineStr" r="K29">
         <is>
-          <t xml:space="preserve">product not available in that size..</t>
+          <t xml:space="preserve">product not available</t>
         </is>
       </c>
     </row>
@@ -1715,25 +1713,25 @@
       </c>
       <c t="inlineStr" r="B30">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C30">
         <is>
-          <t xml:space="preserve">pink suit normal</t>
+          <t xml:space="preserve">sachin</t>
         </is>
       </c>
       <c r="D30" s="65">
-        <v>8891895652</v>
+        <v>8129345939</v>
       </c>
       <c t="inlineStr" r="E30">
         <is>
-          <t xml:space="preserve">22-01-2026</t>
+          <t xml:space="preserve">27-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F30">
         <is>
-          <t xml:space="preserve">HEMANTH K</t>
+          <t xml:space="preserve">Madhavan p</t>
         </is>
       </c>
       <c t="inlineStr" r="G30">
@@ -1743,12 +1741,12 @@
       </c>
       <c t="inlineStr" r="H30">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I30">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J30">
@@ -1758,7 +1756,7 @@
       </c>
       <c t="inlineStr" r="K30">
         <is>
-          <t xml:space="preserve">WILL VISIT STORE TOMORROW</t>
+          <t xml:space="preserve">products not available on that date</t>
         </is>
       </c>
     </row>
@@ -1768,25 +1766,25 @@
       </c>
       <c t="inlineStr" r="B31">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C31">
         <is>
-          <t xml:space="preserve">yashik</t>
+          <t xml:space="preserve">jithin</t>
         </is>
       </c>
       <c r="D31" s="65">
-        <v>8606342468</v>
+        <v>8891734117</v>
       </c>
       <c t="inlineStr" r="E31">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">10-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F31">
         <is>
-          <t xml:space="preserve">Vipin V</t>
+          <t xml:space="preserve">AKHIL K S</t>
         </is>
       </c>
       <c t="inlineStr" r="G31">
@@ -1811,7 +1809,7 @@
       </c>
       <c t="inlineStr" r="K31">
         <is>
-          <t xml:space="preserve">pistha green bangala aane nokkunney suit colour available ane bangala ane vendath</t>
+          <t xml:space="preserve">confirm in 2 days</t>
         </is>
       </c>
     </row>
@@ -1821,25 +1819,25 @@
       </c>
       <c t="inlineStr" r="B32">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C32">
         <is>
-          <t xml:space="preserve">Arshad</t>
+          <t xml:space="preserve">Livin</t>
         </is>
       </c>
       <c r="D32" s="65">
-        <v>7736458418</v>
+        <v>8075759667</v>
       </c>
       <c t="inlineStr" r="E32">
         <is>
-          <t xml:space="preserve">04-01-2026</t>
+          <t xml:space="preserve">06-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F32">
         <is>
-          <t xml:space="preserve">AKHIL K S</t>
+          <t xml:space="preserve">Muhammed Niyas Ns</t>
         </is>
       </c>
       <c t="inlineStr" r="G32">
@@ -1849,12 +1847,12 @@
       </c>
       <c t="inlineStr" r="H32">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I32">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
         </is>
       </c>
       <c t="inlineStr" r="J32">
@@ -1864,7 +1862,7 @@
       </c>
       <c t="inlineStr" r="K32">
         <is>
-          <t xml:space="preserve">family ayyite discuss cheythande varum</t>
+          <t xml:space="preserve">cream suit size 44 not available</t>
         </is>
       </c>
     </row>
@@ -1874,25 +1872,25 @@
       </c>
       <c t="inlineStr" r="B33">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C33">
         <is>
-          <t xml:space="preserve">Afras</t>
+          <t xml:space="preserve">al7</t>
         </is>
       </c>
       <c r="D33" s="65">
-        <v>9526236699</v>
+        <v>7012591139</v>
       </c>
       <c t="inlineStr" r="E33">
         <is>
-          <t xml:space="preserve">28-12-2025</t>
+          <t xml:space="preserve">04-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F33">
         <is>
-          <t xml:space="preserve">Muhammed Niyas Ns</t>
+          <t xml:space="preserve">suhail ilyas</t>
         </is>
       </c>
       <c t="inlineStr" r="G33">
@@ -1907,7 +1905,7 @@
       </c>
       <c t="inlineStr" r="I33">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
         </is>
       </c>
       <c t="inlineStr" r="J33">
@@ -1917,7 +1915,7 @@
       </c>
       <c t="inlineStr" r="K33">
         <is>
-          <t xml:space="preserve">Alredy bookd in edapally</t>
+          <t xml:space="preserve">enquiry</t>
         </is>
       </c>
     </row>
@@ -1927,25 +1925,25 @@
       </c>
       <c t="inlineStr" r="B34">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C34">
         <is>
-          <t xml:space="preserve">Saxon</t>
+          <t xml:space="preserve">derrik</t>
         </is>
       </c>
       <c r="D34" s="65">
-        <v>8590724045</v>
+        <v>7558958775</v>
       </c>
       <c t="inlineStr" r="E34">
         <is>
-          <t xml:space="preserve">27-12-2025</t>
+          <t xml:space="preserve">20-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F34">
         <is>
-          <t xml:space="preserve">Muhammed Niyas Ns</t>
+          <t xml:space="preserve">Madhavan p</t>
         </is>
       </c>
       <c t="inlineStr" r="G34">
@@ -1960,7 +1958,7 @@
       </c>
       <c t="inlineStr" r="I34">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">Product Already Booked</t>
         </is>
       </c>
       <c t="inlineStr" r="J34">
@@ -1970,7 +1968,7 @@
       </c>
       <c t="inlineStr" r="K34">
         <is>
-          <t xml:space="preserve">White indowestern not available 40 size</t>
+          <t xml:space="preserve">product and available size and colour already booked..</t>
         </is>
       </c>
     </row>
@@ -1980,25 +1978,25 @@
       </c>
       <c t="inlineStr" r="B35">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C35">
         <is>
-          <t xml:space="preserve">Thanveer</t>
+          <t xml:space="preserve">fadhil</t>
         </is>
       </c>
       <c r="D35" s="65">
-        <v>9947874867</v>
+        <v>9745526644</v>
       </c>
       <c t="inlineStr" r="E35">
         <is>
-          <t xml:space="preserve">10-01-2026</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F35">
         <is>
-          <t xml:space="preserve">AKHIL K S</t>
+          <t xml:space="preserve">suhail ilyas</t>
         </is>
       </c>
       <c t="inlineStr" r="G35">
@@ -2008,12 +2006,12 @@
       </c>
       <c t="inlineStr" r="H35">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I35">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J35">
@@ -2023,7 +2021,7 @@
       </c>
       <c t="inlineStr" r="K35">
         <is>
-          <t xml:space="preserve">Saturday vanne confirm cheyum</t>
+          <t xml:space="preserve">not available</t>
         </is>
       </c>
     </row>
@@ -2033,25 +2031,25 @@
       </c>
       <c t="inlineStr" r="B36">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C36">
         <is>
-          <t xml:space="preserve">joreg</t>
+          <t xml:space="preserve">Abdul basith</t>
         </is>
       </c>
       <c r="D36" s="65">
-        <v>7592553007</v>
+        <v>9633482162</v>
       </c>
       <c t="inlineStr" r="E36">
         <is>
-          <t xml:space="preserve">28-01-2026</t>
+          <t xml:space="preserve">15-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F36">
         <is>
-          <t xml:space="preserve">DEVADETH R</t>
+          <t xml:space="preserve">Muhammed Niyas Ns</t>
         </is>
       </c>
       <c t="inlineStr" r="G36">
@@ -2061,12 +2059,12 @@
       </c>
       <c t="inlineStr" r="H36">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I36">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J36">
@@ -2076,7 +2074,7 @@
       </c>
       <c t="inlineStr" r="K36">
         <is>
-          <t xml:space="preserve">discuss with family and they will come back in future</t>
+          <t xml:space="preserve">black texido.all product booked that date</t>
         </is>
       </c>
     </row>
@@ -2086,25 +2084,25 @@
       </c>
       <c t="inlineStr" r="B37">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C37">
         <is>
-          <t xml:space="preserve">rashid</t>
+          <t xml:space="preserve">Rizwan</t>
         </is>
       </c>
       <c r="D37" s="65">
-        <v>9744315737</v>
+        <v>8089552240</v>
       </c>
       <c t="inlineStr" r="E37">
         <is>
-          <t xml:space="preserve">04-01-2026</t>
+          <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F37">
         <is>
-          <t xml:space="preserve">HEMANTH K</t>
+          <t xml:space="preserve">Muhammed Niyas Ns</t>
         </is>
       </c>
       <c t="inlineStr" r="G37">
@@ -2114,12 +2112,12 @@
       </c>
       <c t="inlineStr" r="H37">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRICING</t>
         </is>
       </c>
       <c t="inlineStr" r="I37">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">RENT TO HIGH</t>
         </is>
       </c>
       <c t="inlineStr" r="J37">
@@ -2129,7 +2127,7 @@
       </c>
       <c t="inlineStr" r="K37">
         <is>
-          <t xml:space="preserve">will come jan 1</t>
+          <t xml:space="preserve">black ind western rent to high</t>
         </is>
       </c>
     </row>
@@ -2139,25 +2137,25 @@
       </c>
       <c t="inlineStr" r="B38">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C38">
         <is>
-          <t xml:space="preserve">vishnu</t>
+          <t xml:space="preserve">firoz</t>
         </is>
       </c>
       <c r="D38" s="65">
-        <v>9995931223</v>
+        <v>9995981509</v>
       </c>
       <c t="inlineStr" r="E38">
         <is>
-          <t xml:space="preserve">26-01-2026</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F38">
         <is>
-          <t xml:space="preserve">Fayas E N</t>
+          <t xml:space="preserve">AKHIL K S</t>
         </is>
       </c>
       <c t="inlineStr" r="G38">
@@ -2167,12 +2165,12 @@
       </c>
       <c t="inlineStr" r="H38">
         <is>
-          <t xml:space="preserve">PRICING</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I38">
         <is>
-          <t xml:space="preserve">RENT TO HIGH</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J38">
@@ -2182,7 +2180,7 @@
       </c>
       <c t="inlineStr" r="K38">
         <is>
-          <t xml:space="preserve">Customer was facing rent price issue.rent was not okey for customer.</t>
+          <t xml:space="preserve">confirm in Tommorow</t>
         </is>
       </c>
     </row>
@@ -2192,25 +2190,25 @@
       </c>
       <c t="inlineStr" r="B39">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">13-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C39">
         <is>
-          <t xml:space="preserve">riju johnson</t>
+          <t xml:space="preserve">frederik</t>
         </is>
       </c>
       <c r="D39" s="65">
-        <v>8921576245</v>
+        <v>7034060021</v>
       </c>
       <c t="inlineStr" r="E39">
         <is>
-          <t xml:space="preserve">10-01-2026</t>
+          <t xml:space="preserve">27-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F39">
         <is>
-          <t xml:space="preserve">Vipin V</t>
+          <t xml:space="preserve">DEVADETH R</t>
         </is>
       </c>
       <c t="inlineStr" r="G39">
@@ -2235,7 +2233,7 @@
       </c>
       <c t="inlineStr" r="K39">
         <is>
-          <t xml:space="preserve">family ayit onnumkoodi nokkit nale vera paraju</t>
+          <t xml:space="preserve">product will be confirm tomorrow</t>
         </is>
       </c>
     </row>
@@ -2245,25 +2243,25 @@
       </c>
       <c t="inlineStr" r="B40">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">13-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C40">
         <is>
-          <t xml:space="preserve">lavanya</t>
+          <t xml:space="preserve">Alfin</t>
         </is>
       </c>
       <c r="D40" s="65">
-        <v>8904482775</v>
+        <v>8891594432</v>
       </c>
       <c t="inlineStr" r="E40">
         <is>
-          <t xml:space="preserve">20-12-2025</t>
+          <t xml:space="preserve">04-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F40">
         <is>
-          <t xml:space="preserve">Vipin V</t>
+          <t xml:space="preserve">Madhavan p</t>
         </is>
       </c>
       <c t="inlineStr" r="G40">
@@ -2278,7 +2276,7 @@
       </c>
       <c t="inlineStr" r="I40">
         <is>
-          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J40">
@@ -2288,7 +2286,7 @@
       </c>
       <c t="inlineStr" r="K40">
         <is>
-          <t xml:space="preserve">plain black 34 over size aane kid's suit ok ane but work ellatha typ venam</t>
+          <t xml:space="preserve">after available of products they will book.. pistagreen bulk</t>
         </is>
       </c>
     </row>
@@ -2298,25 +2296,25 @@
       </c>
       <c t="inlineStr" r="B41">
         <is>
+          <t xml:space="preserve">13-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C41">
+        <is>
+          <t xml:space="preserve">thanush</t>
+        </is>
+      </c>
+      <c r="D41" s="65">
+        <v>9446496875</v>
+      </c>
+      <c t="inlineStr" r="E41">
+        <is>
           <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="C41">
-        <is>
-          <t xml:space="preserve">salma</t>
-        </is>
-      </c>
-      <c r="D41" s="65">
-        <v>8086676767</v>
-      </c>
-      <c t="inlineStr" r="E41">
-        <is>
-          <t xml:space="preserve">21-01-2026</t>
-        </is>
-      </c>
       <c t="inlineStr" r="F41">
         <is>
-          <t xml:space="preserve">HEMANTH K</t>
+          <t xml:space="preserve">suhail ilyas</t>
         </is>
       </c>
       <c t="inlineStr" r="G41">
@@ -2326,12 +2324,12 @@
       </c>
       <c t="inlineStr" r="H41">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I41">
         <is>
-          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J41">
@@ -2341,7 +2339,7 @@
       </c>
       <c t="inlineStr" r="K41">
         <is>
-          <t xml:space="preserve">KURTHA</t>
+          <t xml:space="preserve">enquiry</t>
         </is>
       </c>
     </row>
@@ -2351,25 +2349,25 @@
       </c>
       <c t="inlineStr" r="B42">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">13-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C42">
         <is>
-          <t xml:space="preserve">suhail</t>
+          <t xml:space="preserve">tony</t>
         </is>
       </c>
       <c r="D42" s="65">
-        <v>8137912784</v>
+        <v>6238053244</v>
       </c>
       <c t="inlineStr" r="E42">
         <is>
-          <t xml:space="preserve">18-01-2026</t>
+          <t xml:space="preserve">10-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F42">
         <is>
-          <t xml:space="preserve">Fayas E N</t>
+          <t xml:space="preserve">suhail ilyas</t>
         </is>
       </c>
       <c t="inlineStr" r="G42">
@@ -2379,17 +2377,22 @@
       </c>
       <c t="inlineStr" r="H42">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I42">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J42">
         <is>
           <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K42">
+        <is>
+          <t xml:space="preserve">model not available in this shop</t>
         </is>
       </c>
     </row>
@@ -2399,20 +2402,20 @@
       </c>
       <c t="inlineStr" r="B43">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">13-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C43">
         <is>
-          <t xml:space="preserve">joyal</t>
+          <t xml:space="preserve">Arjun</t>
         </is>
       </c>
       <c r="D43" s="65">
-        <v>7736692907</v>
+        <v>8921025726</v>
       </c>
       <c t="inlineStr" r="E43">
         <is>
-          <t xml:space="preserve">28-12-2025</t>
+          <t xml:space="preserve">26-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F43">
@@ -2442,7 +2445,7 @@
       </c>
       <c t="inlineStr" r="K43">
         <is>
-          <t xml:space="preserve">46 in suits</t>
+          <t xml:space="preserve">46 size need</t>
         </is>
       </c>
     </row>
@@ -2452,25 +2455,25 @@
       </c>
       <c t="inlineStr" r="B44">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">13-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C44">
         <is>
-          <t xml:space="preserve">mohana krishnan</t>
+          <t xml:space="preserve">Paul antony</t>
         </is>
       </c>
       <c r="D44" s="65">
-        <v>9995805831</v>
+        <v>995846150</v>
       </c>
       <c t="inlineStr" r="E44">
         <is>
-          <t xml:space="preserve">31-12-2025</t>
+          <t xml:space="preserve">20-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F44">
         <is>
-          <t xml:space="preserve">DEVADETH R</t>
+          <t xml:space="preserve">Madhavan p</t>
         </is>
       </c>
       <c t="inlineStr" r="G44">
@@ -2480,12 +2483,12 @@
       </c>
       <c t="inlineStr" r="H44">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I44">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">Product Already Booked</t>
         </is>
       </c>
       <c t="inlineStr" r="J44">
@@ -2495,7 +2498,7 @@
       </c>
       <c t="inlineStr" r="K44">
         <is>
-          <t xml:space="preserve">disscus with family and confirm</t>
+          <t xml:space="preserve">non premium suit.. not available for that date..</t>
         </is>
       </c>
     </row>
@@ -2505,25 +2508,25 @@
       </c>
       <c t="inlineStr" r="B45">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">13-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C45">
         <is>
-          <t xml:space="preserve">Abees</t>
+          <t xml:space="preserve">abin</t>
         </is>
       </c>
       <c r="D45" s="65">
-        <v>7025027825</v>
+        <v>8075666934</v>
       </c>
       <c t="inlineStr" r="E45">
         <is>
-          <t xml:space="preserve">25-12-2025</t>
+          <t xml:space="preserve">03-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F45">
         <is>
-          <t xml:space="preserve">Muhammed Niyas Ns</t>
+          <t xml:space="preserve">suhail ilyas</t>
         </is>
       </c>
       <c t="inlineStr" r="G45">
@@ -2533,12 +2536,12 @@
       </c>
       <c t="inlineStr" r="H45">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I45">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
         </is>
       </c>
       <c t="inlineStr" r="J45">
@@ -2548,7 +2551,7 @@
       </c>
       <c t="inlineStr" r="K45">
         <is>
-          <t xml:space="preserve">product not available</t>
+          <t xml:space="preserve">size not suitable</t>
         </is>
       </c>
     </row>
@@ -2558,25 +2561,25 @@
       </c>
       <c t="inlineStr" r="B46">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C46">
         <is>
-          <t xml:space="preserve">Akshay</t>
+          <t xml:space="preserve">ahmed</t>
         </is>
       </c>
       <c r="D46" s="65">
-        <v>1234567899</v>
+        <v>9037861022</v>
       </c>
       <c t="inlineStr" r="E46">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F46">
         <is>
-          <t xml:space="preserve">HEMANTH K</t>
+          <t xml:space="preserve">ABHISHEK</t>
         </is>
       </c>
       <c t="inlineStr" r="G46">
@@ -2586,12 +2589,12 @@
       </c>
       <c t="inlineStr" r="H46">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I46">
         <is>
-          <t xml:space="preserve">SIZE TOO SMALL</t>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J46">
@@ -2601,7 +2604,7 @@
       </c>
       <c t="inlineStr" r="K46">
         <is>
-          <t xml:space="preserve">size and color not available on customer date</t>
+          <t xml:space="preserve">required model plain formal suit size 36 but we 11 option of product we trail product but not single product 36 size not avilable for dec 22</t>
         </is>
       </c>
     </row>
@@ -2611,25 +2614,25 @@
       </c>
       <c t="inlineStr" r="B47">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C47">
         <is>
-          <t xml:space="preserve">philemon</t>
+          <t xml:space="preserve">belram</t>
         </is>
       </c>
       <c r="D47" s="65">
-        <v>8113834686</v>
+        <v>9544969953</v>
       </c>
       <c t="inlineStr" r="E47">
         <is>
-          <t xml:space="preserve">29-12-2025</t>
+          <t xml:space="preserve">25-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F47">
         <is>
-          <t xml:space="preserve">AKHIL K S</t>
+          <t xml:space="preserve">Madhavan p</t>
         </is>
       </c>
       <c t="inlineStr" r="G47">
@@ -2639,12 +2642,12 @@
       </c>
       <c t="inlineStr" r="H47">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I47">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J47">
@@ -2654,7 +2657,7 @@
       </c>
       <c t="inlineStr" r="K47">
         <is>
-          <t xml:space="preserve">product is already booked</t>
+          <t xml:space="preserve">they think this store is retail store.. they came for buy..</t>
         </is>
       </c>
     </row>
@@ -2664,50 +2667,4073 @@
       </c>
       <c t="inlineStr" r="B48">
         <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C48">
+        <is>
+          <t xml:space="preserve">albit</t>
+        </is>
+      </c>
+      <c r="D48" s="65">
+        <v>7902250062</v>
+      </c>
+      <c t="inlineStr" r="E48">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F48">
+        <is>
+          <t xml:space="preserve">Fayas E N</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G48">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H48">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I48">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J48">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K48">
+        <is>
+          <t xml:space="preserve">Enquiry for cream non premium formal suit (customer showed a specific colour)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="65">
+        <v>47</v>
+      </c>
+      <c t="inlineStr" r="B49">
+        <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C49">
+        <is>
+          <t xml:space="preserve">ARUN</t>
+        </is>
+      </c>
+      <c r="D49" s="65">
+        <v>6901255023</v>
+      </c>
+      <c t="inlineStr" r="E49">
+        <is>
+          <t xml:space="preserve">25-04-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F49">
+        <is>
+          <t xml:space="preserve">HEMANTH K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G49">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H49">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I49">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J49">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K49">
+        <is>
+          <t xml:space="preserve">with in two days visit showroom</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="65">
+        <v>48</v>
+      </c>
+      <c t="inlineStr" r="B50">
+        <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C50">
+        <is>
+          <t xml:space="preserve">melvin</t>
+        </is>
+      </c>
+      <c r="D50" s="65">
+        <v>9496952204</v>
+      </c>
+      <c t="inlineStr" r="E50">
+        <is>
+          <t xml:space="preserve">29-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F50">
+        <is>
+          <t xml:space="preserve">Madhavan p</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G50">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H50">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I50">
+        <is>
+          <t xml:space="preserve">Product Already Booked</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J50">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K50">
+        <is>
+          <t xml:space="preserve">non premium products not available in that date.. they want casual suits..</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="65">
+        <v>49</v>
+      </c>
+      <c t="inlineStr" r="B51">
+        <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C51">
+        <is>
+          <t xml:space="preserve">frady</t>
+        </is>
+      </c>
+      <c r="D51" s="65">
+        <v>8921853595</v>
+      </c>
+      <c t="inlineStr" r="E51">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F51">
+        <is>
+          <t xml:space="preserve">Sanoob k h</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G51">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H51">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I51">
+        <is>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J51">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K51">
+        <is>
+          <t xml:space="preserve">pintrest model</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="65">
+        <v>50</v>
+      </c>
+      <c t="inlineStr" r="B52">
+        <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C52">
+        <is>
+          <t xml:space="preserve">Roshan</t>
+        </is>
+      </c>
+      <c r="D52" s="65">
+        <v>9633222807</v>
+      </c>
+      <c t="inlineStr" r="E52">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F52">
+        <is>
+          <t xml:space="preserve">Muhammed Niyas Ns</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G52">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H52">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I52">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J52">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K52">
+        <is>
+          <t xml:space="preserve">enquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="65">
+        <v>51</v>
+      </c>
+      <c t="inlineStr" r="B53">
+        <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C53">
+        <is>
+          <t xml:space="preserve">vishvajith</t>
+        </is>
+      </c>
+      <c r="D53" s="65">
+        <v>9778205101</v>
+      </c>
+      <c t="inlineStr" r="E53">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F53">
+        <is>
+          <t xml:space="preserve">Madhavan p</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G53">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H53">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I53">
+        <is>
+          <t xml:space="preserve">Product Already Booked</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J53">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K53">
+        <is>
+          <t xml:space="preserve">non premium black blazer not available on that date.. they looking for black blazer..</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="65">
+        <v>52</v>
+      </c>
+      <c t="inlineStr" r="B54">
+        <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C54">
+        <is>
+          <t xml:space="preserve">shenil</t>
+        </is>
+      </c>
+      <c r="D54" s="65">
+        <v>9188866751</v>
+      </c>
+      <c t="inlineStr" r="E54">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F54">
+        <is>
+          <t xml:space="preserve">suhail ilyas</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G54">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H54">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I54">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J54">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K54">
+        <is>
+          <t xml:space="preserve">black non premium bulk booking not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="65">
+        <v>53</v>
+      </c>
+      <c t="inlineStr" r="B55">
+        <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C55">
+        <is>
+          <t xml:space="preserve">eldho</t>
+        </is>
+      </c>
+      <c r="D55" s="65">
+        <v>9020297279</v>
+      </c>
+      <c t="inlineStr" r="E55">
+        <is>
+          <t xml:space="preserve">03-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F55">
+        <is>
+          <t xml:space="preserve">AKHIL K S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G55">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H55">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I55">
+        <is>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J55">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K55">
+        <is>
+          <t xml:space="preserve">blackil design work olla single piece not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="65">
+        <v>54</v>
+      </c>
+      <c t="inlineStr" r="B56">
+        <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C56">
+        <is>
+          <t xml:space="preserve">bincy</t>
+        </is>
+      </c>
+      <c r="D56" s="65">
+        <v>8714154578</v>
+      </c>
+      <c t="inlineStr" r="E56">
+        <is>
+          <t xml:space="preserve">05-03-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F56">
+        <is>
+          <t xml:space="preserve">AKHIL K S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G56">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H56">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I56">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J56">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K56">
+        <is>
+          <t xml:space="preserve">function date fixed akkiyattila dress trial cheythatunde leave anusarich parayum eth dress vennam enn</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="65">
+        <v>55</v>
+      </c>
+      <c t="inlineStr" r="B57">
+        <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C57">
+        <is>
+          <t xml:space="preserve">Melvin</t>
+        </is>
+      </c>
+      <c r="D57" s="65">
+        <v>8075468546</v>
+      </c>
+      <c t="inlineStr" r="E57">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F57">
+        <is>
+          <t xml:space="preserve">Fayas E N</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G57">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H57">
+        <is>
+          <t xml:space="preserve">PRICING</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I57">
+        <is>
+          <t xml:space="preserve">RENT TO HIGH</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J57">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K57">
+        <is>
+          <t xml:space="preserve">SIZE WAS OKEY BUT RENT WAS NOT AFFORDABLE BY THE CUSTOMER</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="65">
+        <v>56</v>
+      </c>
+      <c t="inlineStr" r="B58">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C58">
+        <is>
+          <t xml:space="preserve">Althaj</t>
+        </is>
+      </c>
+      <c r="D58" s="65">
+        <v>7559957569</v>
+      </c>
+      <c t="inlineStr" r="E58">
+        <is>
+          <t xml:space="preserve">29-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F58">
+        <is>
+          <t xml:space="preserve">AKHIL K S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G58">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H58">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I58">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J58">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K58">
+        <is>
+          <t xml:space="preserve">product not available on that date</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="65">
+        <v>57</v>
+      </c>
+      <c t="inlineStr" r="B59">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C59">
+        <is>
+          <t xml:space="preserve">georgi</t>
+        </is>
+      </c>
+      <c r="D59" s="65">
+        <v>9562393568</v>
+      </c>
+      <c t="inlineStr" r="E59">
+        <is>
+          <t xml:space="preserve">16-05-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F59">
+        <is>
+          <t xml:space="preserve">Madhavan p</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G59">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H59">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I59">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J59">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K59">
+        <is>
+          <t xml:space="preserve">wedding in may.. they just explore the product details..</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="65">
+        <v>58</v>
+      </c>
+      <c t="inlineStr" r="B60">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C60">
+        <is>
+          <t xml:space="preserve">arjun</t>
+        </is>
+      </c>
+      <c r="D60" s="65">
+        <v>9539531728</v>
+      </c>
+      <c t="inlineStr" r="E60">
+        <is>
+          <t xml:space="preserve">04-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F60">
+        <is>
+          <t xml:space="preserve">Madhavan p</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G60">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H60">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I60">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J60">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K60">
+        <is>
+          <t xml:space="preserve">colour not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="65">
+        <v>59</v>
+      </c>
+      <c t="inlineStr" r="B61">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C61">
+        <is>
+          <t xml:space="preserve">Charls</t>
+        </is>
+      </c>
+      <c r="D61" s="65">
+        <v>7025243407</v>
+      </c>
+      <c t="inlineStr" r="E61">
+        <is>
+          <t xml:space="preserve">27-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F61">
+        <is>
+          <t xml:space="preserve">Madhavan p</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G61">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H61">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I61">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J61">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K61">
+        <is>
+          <t xml:space="preserve">products not available for that date..</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="65">
+        <v>60</v>
+      </c>
+      <c t="inlineStr" r="B62">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C62">
+        <is>
+          <t xml:space="preserve">rithu</t>
+        </is>
+      </c>
+      <c r="D62" s="65">
+        <v>7034940790</v>
+      </c>
+      <c t="inlineStr" r="E62">
+        <is>
+          <t xml:space="preserve">18-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F62">
+        <is>
+          <t xml:space="preserve">suhail ilyas</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G62">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H62">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I62">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J62">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K62">
+        <is>
+          <t xml:space="preserve">model not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="65">
+        <v>61</v>
+      </c>
+      <c t="inlineStr" r="B63">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C63">
+        <is>
+          <t xml:space="preserve">Akash</t>
+        </is>
+      </c>
+      <c r="D63" s="65">
+        <v>123456789</v>
+      </c>
+      <c t="inlineStr" r="E63">
+        <is>
+          <t xml:space="preserve">02-12-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F63">
+        <is>
+          <t xml:space="preserve">HEMANTH K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G63">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H63">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I63">
+        <is>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J63">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K63">
+        <is>
+          <t xml:space="preserve">need 58 size customer not interested to give number</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="65">
+        <v>62</v>
+      </c>
+      <c t="inlineStr" r="B64">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C64">
+        <is>
+          <t xml:space="preserve">ajay</t>
+        </is>
+      </c>
+      <c r="D64" s="65">
+        <v>9496253497</v>
+      </c>
+      <c t="inlineStr" r="E64">
+        <is>
+          <t xml:space="preserve">09-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F64">
+        <is>
+          <t xml:space="preserve">HEMANTH K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G64">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H64">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I64">
+        <is>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J64">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K64">
+        <is>
+          <t xml:space="preserve">46 size not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="65">
+        <v>63</v>
+      </c>
+      <c t="inlineStr" r="B65">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C65">
+        <is>
+          <t xml:space="preserve">Binosh</t>
+        </is>
+      </c>
+      <c r="D65" s="65">
+        <v>8075879638</v>
+      </c>
+      <c t="inlineStr" r="E65">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F65">
+        <is>
+          <t xml:space="preserve">Fayas E N</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G65">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H65">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I65">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J65">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K65">
+        <is>
+          <t xml:space="preserve">will come tommorrow for booking</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="65">
+        <v>64</v>
+      </c>
+      <c t="inlineStr" r="B66">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C66">
+        <is>
+          <t xml:space="preserve">muhameed</t>
+        </is>
+      </c>
+      <c r="D66" s="65">
+        <v>9072368000</v>
+      </c>
+      <c t="inlineStr" r="E66">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F66">
+        <is>
+          <t xml:space="preserve">ABHISHEK</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G66">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H66">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I66">
+        <is>
+          <t xml:space="preserve">Product Already Booked</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J66">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K66">
+        <is>
+          <t xml:space="preserve">They need same colour suit but collect most product are booked on that days trail 4 to 5 sets but product are already booked</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="65">
+        <v>65</v>
+      </c>
+      <c t="inlineStr" r="B67">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C67">
+        <is>
+          <t xml:space="preserve">Sabin</t>
+        </is>
+      </c>
+      <c r="D67" s="65">
+        <v>7736345309</v>
+      </c>
+      <c t="inlineStr" r="E67">
+        <is>
+          <t xml:space="preserve">01-02-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F67">
+        <is>
+          <t xml:space="preserve">Fayas E N</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G67">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H67">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I67">
+        <is>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J67">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K67">
+        <is>
+          <t xml:space="preserve">46 size is not available for needed colour.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="65">
+        <v>66</v>
+      </c>
+      <c t="inlineStr" r="B68">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C68">
+        <is>
+          <t xml:space="preserve">customer not ready for mentioning</t>
+        </is>
+      </c>
+      <c r="D68" s="65">
+        <v>1234567890</v>
+      </c>
+      <c t="inlineStr" r="E68">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F68">
+        <is>
+          <t xml:space="preserve">Fayas E N</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G68">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H68">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I68">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J68">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K68">
+        <is>
+          <t xml:space="preserve">THE REQUIRED MODEL CUSTOMER ENQUIRED WAS NOT AVAILABLE HERE.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="65">
+        <v>67</v>
+      </c>
+      <c t="inlineStr" r="B69">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C69">
+        <is>
+          <t xml:space="preserve">ashik</t>
+        </is>
+      </c>
+      <c r="D69" s="65">
+        <v>9037260665</v>
+      </c>
+      <c t="inlineStr" r="E69">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F69">
+        <is>
+          <t xml:space="preserve">AKHIL K S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G69">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H69">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I69">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J69">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K69">
+        <is>
+          <t xml:space="preserve">required model already booked not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="65">
+        <v>68</v>
+      </c>
+      <c t="inlineStr" r="B70">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C70">
+        <is>
+          <t xml:space="preserve">Eldhos</t>
+        </is>
+      </c>
+      <c r="D70" s="65">
+        <v>8592931127</v>
+      </c>
+      <c t="inlineStr" r="E70">
+        <is>
+          <t xml:space="preserve">12-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F70">
+        <is>
+          <t xml:space="preserve">Fayas E N</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G70">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H70">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I70">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J70">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K70">
+        <is>
+          <t xml:space="preserve">will visit soon and book the product. color issues was there. non premium item</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="65">
+        <v>69</v>
+      </c>
+      <c t="inlineStr" r="B71">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C71">
+        <is>
+          <t xml:space="preserve">aswim</t>
+        </is>
+      </c>
+      <c r="D71" s="65">
+        <v>1111111111</v>
+      </c>
+      <c t="inlineStr" r="E71">
+        <is>
+          <t xml:space="preserve">10-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F71">
+        <is>
+          <t xml:space="preserve">HEMANTH K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G71">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H71">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I71">
+        <is>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J71">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K71">
+        <is>
+          <t xml:space="preserve">32 size</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="65">
+        <v>70</v>
+      </c>
+      <c t="inlineStr" r="B72">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C72">
+        <is>
+          <t xml:space="preserve">Swalih</t>
+        </is>
+      </c>
+      <c r="D72" s="65">
+        <v>7594903470</v>
+      </c>
+      <c t="inlineStr" r="E72">
+        <is>
+          <t xml:space="preserve">04-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F72">
+        <is>
+          <t xml:space="preserve">Madhavan p</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G72">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H72">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I72">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J72">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K72">
+        <is>
+          <t xml:space="preserve">product not available in that size..</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="65">
+        <v>71</v>
+      </c>
+      <c t="inlineStr" r="B73">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C73">
+        <is>
+          <t xml:space="preserve">pink suit normal</t>
+        </is>
+      </c>
+      <c r="D73" s="65">
+        <v>8891895652</v>
+      </c>
+      <c t="inlineStr" r="E73">
+        <is>
+          <t xml:space="preserve">22-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F73">
+        <is>
+          <t xml:space="preserve">HEMANTH K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G73">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H73">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I73">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J73">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K73">
+        <is>
+          <t xml:space="preserve">WILL VISIT STORE TOMORROW</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="65">
+        <v>72</v>
+      </c>
+      <c t="inlineStr" r="B74">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C74">
+        <is>
+          <t xml:space="preserve">yashik</t>
+        </is>
+      </c>
+      <c r="D74" s="65">
+        <v>8606342468</v>
+      </c>
+      <c t="inlineStr" r="E74">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F74">
+        <is>
+          <t xml:space="preserve">Vipin V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G74">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H74">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I74">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J74">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K74">
+        <is>
+          <t xml:space="preserve">pistha green bangala aane nokkunney suit colour available ane bangala ane vendath</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="65">
+        <v>73</v>
+      </c>
+      <c t="inlineStr" r="B75">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C75">
+        <is>
+          <t xml:space="preserve">Arshad</t>
+        </is>
+      </c>
+      <c r="D75" s="65">
+        <v>7736458418</v>
+      </c>
+      <c t="inlineStr" r="E75">
+        <is>
+          <t xml:space="preserve">04-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F75">
+        <is>
+          <t xml:space="preserve">AKHIL K S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G75">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H75">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I75">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J75">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K75">
+        <is>
+          <t xml:space="preserve">family ayyite discuss cheythande varum</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="65">
+        <v>74</v>
+      </c>
+      <c t="inlineStr" r="B76">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C76">
+        <is>
+          <t xml:space="preserve">Afras</t>
+        </is>
+      </c>
+      <c r="D76" s="65">
+        <v>9526236699</v>
+      </c>
+      <c t="inlineStr" r="E76">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F76">
+        <is>
+          <t xml:space="preserve">Muhammed Niyas Ns</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G76">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H76">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I76">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J76">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K76">
+        <is>
+          <t xml:space="preserve">Alredy bookd in edapally</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="65">
+        <v>75</v>
+      </c>
+      <c t="inlineStr" r="B77">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C77">
+        <is>
+          <t xml:space="preserve">Saxon</t>
+        </is>
+      </c>
+      <c r="D77" s="65">
+        <v>8590724045</v>
+      </c>
+      <c t="inlineStr" r="E77">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F77">
+        <is>
+          <t xml:space="preserve">Muhammed Niyas Ns</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G77">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H77">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I77">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J77">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K77">
+        <is>
+          <t xml:space="preserve">White indowestern not available 40 size</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="65">
+        <v>76</v>
+      </c>
+      <c t="inlineStr" r="B78">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C78">
+        <is>
+          <t xml:space="preserve">Thanveer</t>
+        </is>
+      </c>
+      <c r="D78" s="65">
+        <v>9947874867</v>
+      </c>
+      <c t="inlineStr" r="E78">
+        <is>
+          <t xml:space="preserve">10-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F78">
+        <is>
+          <t xml:space="preserve">AKHIL K S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G78">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H78">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I78">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J78">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K78">
+        <is>
+          <t xml:space="preserve">Saturday vanne confirm cheyum</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="65">
+        <v>77</v>
+      </c>
+      <c t="inlineStr" r="B79">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C79">
+        <is>
+          <t xml:space="preserve">joreg</t>
+        </is>
+      </c>
+      <c r="D79" s="65">
+        <v>7592553007</v>
+      </c>
+      <c t="inlineStr" r="E79">
+        <is>
+          <t xml:space="preserve">28-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F79">
+        <is>
+          <t xml:space="preserve">DEVADETH R</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G79">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H79">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I79">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J79">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K79">
+        <is>
+          <t xml:space="preserve">discuss with family and they will come back in future</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="65">
+        <v>78</v>
+      </c>
+      <c t="inlineStr" r="B80">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C80">
+        <is>
+          <t xml:space="preserve">rashid</t>
+        </is>
+      </c>
+      <c r="D80" s="65">
+        <v>9744315737</v>
+      </c>
+      <c t="inlineStr" r="E80">
+        <is>
+          <t xml:space="preserve">04-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F80">
+        <is>
+          <t xml:space="preserve">HEMANTH K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G80">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H80">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I80">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J80">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K80">
+        <is>
+          <t xml:space="preserve">will come jan 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="65">
+        <v>79</v>
+      </c>
+      <c t="inlineStr" r="B81">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C81">
+        <is>
+          <t xml:space="preserve">vishnu</t>
+        </is>
+      </c>
+      <c r="D81" s="65">
+        <v>9995931223</v>
+      </c>
+      <c t="inlineStr" r="E81">
+        <is>
+          <t xml:space="preserve">26-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F81">
+        <is>
+          <t xml:space="preserve">Fayas E N</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G81">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H81">
+        <is>
+          <t xml:space="preserve">PRICING</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I81">
+        <is>
+          <t xml:space="preserve">RENT TO HIGH</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J81">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K81">
+        <is>
+          <t xml:space="preserve">Customer was facing rent price issue.rent was not okey for customer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="65">
+        <v>80</v>
+      </c>
+      <c t="inlineStr" r="B82">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C82">
+        <is>
+          <t xml:space="preserve">riju johnson</t>
+        </is>
+      </c>
+      <c r="D82" s="65">
+        <v>8921576245</v>
+      </c>
+      <c t="inlineStr" r="E82">
+        <is>
+          <t xml:space="preserve">10-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F82">
+        <is>
+          <t xml:space="preserve">Vipin V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G82">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H82">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I82">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J82">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K82">
+        <is>
+          <t xml:space="preserve">family ayit onnumkoodi nokkit nale vera paraju</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="65">
+        <v>81</v>
+      </c>
+      <c t="inlineStr" r="B83">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C83">
+        <is>
+          <t xml:space="preserve">lavanya</t>
+        </is>
+      </c>
+      <c r="D83" s="65">
+        <v>8904482775</v>
+      </c>
+      <c t="inlineStr" r="E83">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F83">
+        <is>
+          <t xml:space="preserve">Vipin V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G83">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H83">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I83">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J83">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K83">
+        <is>
+          <t xml:space="preserve">plain black 34 over size aane kid's suit ok ane but work ellatha typ venam</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="65">
+        <v>82</v>
+      </c>
+      <c t="inlineStr" r="B84">
+        <is>
           <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="C48">
+      <c t="inlineStr" r="C84">
+        <is>
+          <t xml:space="preserve">salma</t>
+        </is>
+      </c>
+      <c r="D84" s="65">
+        <v>8086676767</v>
+      </c>
+      <c t="inlineStr" r="E84">
+        <is>
+          <t xml:space="preserve">21-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F84">
+        <is>
+          <t xml:space="preserve">HEMANTH K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G84">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H84">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I84">
+        <is>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J84">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K84">
+        <is>
+          <t xml:space="preserve">KURTHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="65">
+        <v>83</v>
+      </c>
+      <c t="inlineStr" r="B85">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C85">
+        <is>
+          <t xml:space="preserve">suhail</t>
+        </is>
+      </c>
+      <c r="D85" s="65">
+        <v>8137912784</v>
+      </c>
+      <c t="inlineStr" r="E85">
+        <is>
+          <t xml:space="preserve">18-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F85">
+        <is>
+          <t xml:space="preserve">Fayas E N</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G85">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H85">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I85">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J85">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="65">
+        <v>84</v>
+      </c>
+      <c t="inlineStr" r="B86">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C86">
+        <is>
+          <t xml:space="preserve">joyal</t>
+        </is>
+      </c>
+      <c r="D86" s="65">
+        <v>7736692907</v>
+      </c>
+      <c t="inlineStr" r="E86">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F86">
+        <is>
+          <t xml:space="preserve">HEMANTH K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G86">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H86">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I86">
+        <is>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J86">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K86">
+        <is>
+          <t xml:space="preserve">46 in suits</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="65">
+        <v>85</v>
+      </c>
+      <c t="inlineStr" r="B87">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C87">
+        <is>
+          <t xml:space="preserve">mohana krishnan</t>
+        </is>
+      </c>
+      <c r="D87" s="65">
+        <v>9995805831</v>
+      </c>
+      <c t="inlineStr" r="E87">
+        <is>
+          <t xml:space="preserve">31-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F87">
+        <is>
+          <t xml:space="preserve">DEVADETH R</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G87">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H87">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I87">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J87">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K87">
+        <is>
+          <t xml:space="preserve">disscus with family and confirm</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="65">
+        <v>86</v>
+      </c>
+      <c t="inlineStr" r="B88">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C88">
+        <is>
+          <t xml:space="preserve">Abees</t>
+        </is>
+      </c>
+      <c r="D88" s="65">
+        <v>7025027825</v>
+      </c>
+      <c t="inlineStr" r="E88">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F88">
+        <is>
+          <t xml:space="preserve">Muhammed Niyas Ns</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G88">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H88">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I88">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J88">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K88">
+        <is>
+          <t xml:space="preserve">product not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="65">
+        <v>87</v>
+      </c>
+      <c t="inlineStr" r="B89">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C89">
+        <is>
+          <t xml:space="preserve">Akshay</t>
+        </is>
+      </c>
+      <c r="D89" s="65">
+        <v>1234567899</v>
+      </c>
+      <c t="inlineStr" r="E89">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F89">
+        <is>
+          <t xml:space="preserve">HEMANTH K</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G89">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H89">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I89">
+        <is>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J89">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K89">
+        <is>
+          <t xml:space="preserve">size and color not available on customer date</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="65">
+        <v>88</v>
+      </c>
+      <c t="inlineStr" r="B90">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C90">
+        <is>
+          <t xml:space="preserve">philemon</t>
+        </is>
+      </c>
+      <c r="D90" s="65">
+        <v>8113834686</v>
+      </c>
+      <c t="inlineStr" r="E90">
+        <is>
+          <t xml:space="preserve">29-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F90">
+        <is>
+          <t xml:space="preserve">AKHIL K S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G90">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H90">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I90">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J90">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K90">
+        <is>
+          <t xml:space="preserve">product is already booked</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="65">
+        <v>89</v>
+      </c>
+      <c t="inlineStr" r="B91">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C91">
         <is>
           <t xml:space="preserve">Ajay</t>
         </is>
       </c>
-      <c r="D48" s="65">
+      <c r="D91" s="65">
         <v>7994994767</v>
       </c>
-      <c t="inlineStr" r="E48">
+      <c t="inlineStr" r="E91">
         <is>
           <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="F48">
+      <c t="inlineStr" r="F91">
         <is>
           <t xml:space="preserve">Muhammed Niyas Ns</t>
         </is>
       </c>
-      <c t="inlineStr" r="G48">
-        <is>
-          <t xml:space="preserve">Loss</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H48">
+      <c t="inlineStr" r="G91">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H91">
         <is>
           <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
-      <c t="inlineStr" r="I48">
+      <c t="inlineStr" r="I91">
         <is>
           <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
-      <c t="inlineStr" r="J48">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="K48">
+      <c t="inlineStr" r="J91">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K91">
         <is>
           <t xml:space="preserve">formal suite not availabl that date</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="65">
+        <v>90</v>
+      </c>
+      <c t="inlineStr" r="B92">
+        <is>
+          <t xml:space="preserve">18-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C92">
+        <is>
+          <t xml:space="preserve">Lijo</t>
+        </is>
+      </c>
+      <c r="D92" s="65">
+        <v>9746762012</v>
+      </c>
+      <c t="inlineStr" r="E92">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F92">
+        <is>
+          <t xml:space="preserve">Muhammed Niyas Ns</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G92">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H92">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I92">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J92">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K92">
+        <is>
+          <t xml:space="preserve">grape formal suite</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="65">
+        <v>91</v>
+      </c>
+      <c t="inlineStr" r="B93">
+        <is>
+          <t xml:space="preserve">18-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C93">
+        <is>
+          <t xml:space="preserve">kiran</t>
+        </is>
+      </c>
+      <c r="D93" s="65">
+        <v>8089161748</v>
+      </c>
+      <c t="inlineStr" r="E93">
+        <is>
+          <t xml:space="preserve">29-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F93">
+        <is>
+          <t xml:space="preserve">AKHIL K S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G93">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H93">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I93">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J93">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K93">
+        <is>
+          <t xml:space="preserve">products already booked</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="65">
+        <v>92</v>
+      </c>
+      <c t="inlineStr" r="B94">
+        <is>
+          <t xml:space="preserve">18-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C94">
+        <is>
+          <t xml:space="preserve">sahal</t>
+        </is>
+      </c>
+      <c r="D94" s="65">
+        <v>9605184290</v>
+      </c>
+      <c t="inlineStr" r="E94">
+        <is>
+          <t xml:space="preserve">15-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F94">
+        <is>
+          <t xml:space="preserve">Madhavan p</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G94">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H94">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I94">
+        <is>
+          <t xml:space="preserve">Product Already Booked</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J94">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K94">
+        <is>
+          <t xml:space="preserve">product not available that date..</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="65">
+        <v>93</v>
+      </c>
+      <c t="inlineStr" r="B95">
+        <is>
+          <t xml:space="preserve">18-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C95">
+        <is>
+          <t xml:space="preserve">jabeel</t>
+        </is>
+      </c>
+      <c r="D95" s="65">
+        <v>7025147357</v>
+      </c>
+      <c t="inlineStr" r="E95">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F95">
+        <is>
+          <t xml:space="preserve">Madhavan p</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G95">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H95">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I95">
+        <is>
+          <t xml:space="preserve">Product Already Booked</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J95">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K95">
+        <is>
+          <t xml:space="preserve">black suits already booked on that date..</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="65">
+        <v>94</v>
+      </c>
+      <c t="inlineStr" r="B96">
+        <is>
+          <t xml:space="preserve">18-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C96">
+        <is>
+          <t xml:space="preserve">babu</t>
+        </is>
+      </c>
+      <c r="D96" s="65">
+        <v>7909132845</v>
+      </c>
+      <c t="inlineStr" r="E96">
+        <is>
+          <t xml:space="preserve">29-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F96">
+        <is>
+          <t xml:space="preserve">Madhavan p</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G96">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H96">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I96">
+        <is>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J96">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K96">
+        <is>
+          <t xml:space="preserve">size vey tyt</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="65">
+        <v>95</v>
+      </c>
+      <c t="inlineStr" r="B97">
+        <is>
+          <t xml:space="preserve">18-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C97">
+        <is>
+          <t xml:space="preserve">Jacob</t>
+        </is>
+      </c>
+      <c r="D97" s="65">
+        <v>8870707234</v>
+      </c>
+      <c t="inlineStr" r="E97">
+        <is>
+          <t xml:space="preserve">08-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F97">
+        <is>
+          <t xml:space="preserve">Fayas E N</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G97">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H97">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I97">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J97">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K97">
+        <is>
+          <t xml:space="preserve">Enquiry for Warehouse bulk.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="65">
+        <v>96</v>
+      </c>
+      <c t="inlineStr" r="B98">
+        <is>
+          <t xml:space="preserve">19-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C98">
+        <is>
+          <t xml:space="preserve">bazil</t>
+        </is>
+      </c>
+      <c r="D98" s="65">
+        <v>8281989122</v>
+      </c>
+      <c t="inlineStr" r="E98">
+        <is>
+          <t xml:space="preserve">01-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F98">
+        <is>
+          <t xml:space="preserve">AKHIL K S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G98">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H98">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I98">
+        <is>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J98">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K98">
+        <is>
+          <t xml:space="preserve">required design not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="65">
+        <v>97</v>
+      </c>
+      <c t="inlineStr" r="B99">
+        <is>
+          <t xml:space="preserve">19-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C99">
+        <is>
+          <t xml:space="preserve">ranish</t>
+        </is>
+      </c>
+      <c r="D99" s="65">
+        <v>9496948267</v>
+      </c>
+      <c t="inlineStr" r="E99">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F99">
+        <is>
+          <t xml:space="preserve">Madhavan p</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G99">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H99">
+        <is>
+          <t xml:space="preserve">PRICING</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I99">
+        <is>
+          <t xml:space="preserve">RENT TO HIGH</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J99">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K99">
+        <is>
+          <t xml:space="preserve">they looking for non premium suit for 2 hour's of program. rent is to high..</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="65">
+        <v>98</v>
+      </c>
+      <c t="inlineStr" r="B100">
+        <is>
+          <t xml:space="preserve">19-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C100">
+        <is>
+          <t xml:space="preserve">roshna</t>
+        </is>
+      </c>
+      <c r="D100" s="65">
+        <v>8589090662</v>
+      </c>
+      <c t="inlineStr" r="E100">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F100">
+        <is>
+          <t xml:space="preserve">Madhavan p</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G100">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H100">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I100">
+        <is>
+          <t xml:space="preserve">Product Already Booked</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J100">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K100">
+        <is>
+          <t xml:space="preserve">products already booked in that dates.. 27 dec</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="65">
+        <v>99</v>
+      </c>
+      <c t="inlineStr" r="B101">
+        <is>
+          <t xml:space="preserve">19-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C101">
+        <is>
+          <t xml:space="preserve">allen</t>
+        </is>
+      </c>
+      <c r="D101" s="65">
+        <v>9562991211</v>
+      </c>
+      <c t="inlineStr" r="E101">
+        <is>
+          <t xml:space="preserve">25-02-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F101">
+        <is>
+          <t xml:space="preserve">Madhavan p</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G101">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H101">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I101">
+        <is>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J101">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K101">
+        <is>
+          <t xml:space="preserve">46 suit not suitable</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="65">
+        <v>100</v>
+      </c>
+      <c t="inlineStr" r="B102">
+        <is>
+          <t xml:space="preserve">19-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C102">
+        <is>
+          <t xml:space="preserve">Hassan</t>
+        </is>
+      </c>
+      <c r="D102" s="65">
+        <v>8281881940</v>
+      </c>
+      <c t="inlineStr" r="E102">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F102">
+        <is>
+          <t xml:space="preserve">Sanoob k h</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G102">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H102">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I102">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J102">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K102">
+        <is>
+          <t xml:space="preserve">choosing color booking</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="65">
+        <v>101</v>
+      </c>
+      <c t="inlineStr" r="B103">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C103">
+        <is>
+          <t xml:space="preserve">jery</t>
+        </is>
+      </c>
+      <c r="D103" s="65">
+        <v>9886939678</v>
+      </c>
+      <c t="inlineStr" r="E103">
+        <is>
+          <t xml:space="preserve">07-02-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F103">
+        <is>
+          <t xml:space="preserve">suhail ilyas</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G103">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H103">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I103">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J103">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K103">
+        <is>
+          <t xml:space="preserve">navy blue not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="65">
+        <v>102</v>
+      </c>
+      <c t="inlineStr" r="B104">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C104">
+        <is>
+          <t xml:space="preserve">karthik</t>
+        </is>
+      </c>
+      <c r="D104" s="65">
+        <v>6282680499</v>
+      </c>
+      <c t="inlineStr" r="E104">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F104">
+        <is>
+          <t xml:space="preserve">suhail ilyas</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G104">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H104">
+        <is>
+          <t xml:space="preserve">PRICING</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I104">
+        <is>
+          <t xml:space="preserve">RENT TO HIGH</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J104">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K104">
+        <is>
+          <t xml:space="preserve">non premium suit 2699 rent to high</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="65">
+        <v>103</v>
+      </c>
+      <c t="inlineStr" r="B105">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C105">
+        <is>
+          <t xml:space="preserve">joseph</t>
+        </is>
+      </c>
+      <c r="D105" s="65">
+        <v>8156867384</v>
+      </c>
+      <c t="inlineStr" r="E105">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F105">
+        <is>
+          <t xml:space="preserve">AKHIL K S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G105">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H105">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I105">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J105">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K105">
+        <is>
+          <t xml:space="preserve">2 daysin ullil confirm cheyum</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="65">
+        <v>104</v>
+      </c>
+      <c t="inlineStr" r="B106">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C106">
+        <is>
+          <t xml:space="preserve">rahul</t>
+        </is>
+      </c>
+      <c r="D106" s="65">
+        <v>9995556804</v>
+      </c>
+      <c t="inlineStr" r="E106">
+        <is>
+          <t xml:space="preserve">25-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F106">
+        <is>
+          <t xml:space="preserve">Madhavan p</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G106">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H106">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I106">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J106">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K106">
+        <is>
+          <t xml:space="preserve">product not available in that date..</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="65">
+        <v>105</v>
+      </c>
+      <c t="inlineStr" r="B107">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C107">
+        <is>
+          <t xml:space="preserve">ashiq</t>
+        </is>
+      </c>
+      <c r="D107" s="65">
+        <v>8594028677</v>
+      </c>
+      <c t="inlineStr" r="E107">
+        <is>
+          <t xml:space="preserve">29-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F107">
+        <is>
+          <t xml:space="preserve">Vipin V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G107">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H107">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I107">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J107">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K107">
+        <is>
+          <t xml:space="preserve">size not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="65">
+        <v>106</v>
+      </c>
+      <c t="inlineStr" r="B108">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C108">
+        <is>
+          <t xml:space="preserve">aveneii</t>
+        </is>
+      </c>
+      <c r="D108" s="65">
+        <v>8590467553</v>
+      </c>
+      <c t="inlineStr" r="E108">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F108">
+        <is>
+          <t xml:space="preserve">suhail ilyas</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G108">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H108">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I108">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J108">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K108">
+        <is>
+          <t xml:space="preserve">product not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="65">
+        <v>107</v>
+      </c>
+      <c t="inlineStr" r="B109">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C109">
+        <is>
+          <t xml:space="preserve">sulfi</t>
+        </is>
+      </c>
+      <c r="D109" s="65">
+        <v>9544155202</v>
+      </c>
+      <c t="inlineStr" r="E109">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F109">
+        <is>
+          <t xml:space="preserve">suhail ilyas</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G109">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H109">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I109">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J109">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K109">
+        <is>
+          <t xml:space="preserve">pant size  not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="65">
+        <v>108</v>
+      </c>
+      <c t="inlineStr" r="B110">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C110">
+        <is>
+          <t xml:space="preserve">youns</t>
+        </is>
+      </c>
+      <c r="D110" s="65">
+        <v>8138848423</v>
+      </c>
+      <c t="inlineStr" r="E110">
+        <is>
+          <t xml:space="preserve">04-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F110">
+        <is>
+          <t xml:space="preserve">Madhavan p</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G110">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H110">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I110">
+        <is>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J110">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K110">
+        <is>
+          <t xml:space="preserve">size not suitable..</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="65">
+        <v>109</v>
+      </c>
+      <c t="inlineStr" r="B111">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C111">
+        <is>
+          <t xml:space="preserve">azam</t>
+        </is>
+      </c>
+      <c r="D111" s="65">
+        <v>8089120455</v>
+      </c>
+      <c t="inlineStr" r="E111">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F111">
+        <is>
+          <t xml:space="preserve">Madhavan p</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G111">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H111">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I111">
+        <is>
+          <t xml:space="preserve">Product Already Booked</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J111">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K111">
+        <is>
+          <t xml:space="preserve">colour not available..</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="65">
+        <v>110</v>
+      </c>
+      <c t="inlineStr" r="B112">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C112">
+        <is>
+          <t xml:space="preserve">arjun</t>
+        </is>
+      </c>
+      <c r="D112" s="65">
+        <v>9496121236</v>
+      </c>
+      <c t="inlineStr" r="E112">
+        <is>
+          <t xml:space="preserve">26-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F112">
+        <is>
+          <t xml:space="preserve">Vipin V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G112">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H112">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I112">
+        <is>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J112">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K112">
+        <is>
+          <t xml:space="preserve">B-44 size  collection korava</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="65">
+        <v>111</v>
+      </c>
+      <c t="inlineStr" r="B113">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C113">
+        <is>
+          <t xml:space="preserve">noushif</t>
+        </is>
+      </c>
+      <c r="D113" s="65">
+        <v>9048816509</v>
+      </c>
+      <c t="inlineStr" r="E113">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F113">
+        <is>
+          <t xml:space="preserve">Madhavan p</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G113">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H113">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I113">
+        <is>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J113">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K113">
+        <is>
+          <t xml:space="preserve">44:size not suitable..</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="65">
+        <v>112</v>
+      </c>
+      <c t="inlineStr" r="B114">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C114">
+        <is>
+          <t xml:space="preserve">basil</t>
+        </is>
+      </c>
+      <c r="D114" s="65">
+        <v>9746957811</v>
+      </c>
+      <c t="inlineStr" r="E114">
+        <is>
+          <t xml:space="preserve">03-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F114">
+        <is>
+          <t xml:space="preserve">suhail ilyas</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G114">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H114">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I114">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J114">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K114">
+        <is>
+          <t xml:space="preserve">enquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="65">
+        <v>113</v>
+      </c>
+      <c t="inlineStr" r="B115">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C115">
+        <is>
+          <t xml:space="preserve">binoy</t>
+        </is>
+      </c>
+      <c r="D115" s="65">
+        <v>9061762422</v>
+      </c>
+      <c t="inlineStr" r="E115">
+        <is>
+          <t xml:space="preserve">15-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F115">
+        <is>
+          <t xml:space="preserve">suhail ilyas</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G115">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H115">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I115">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J115">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K115">
+        <is>
+          <t xml:space="preserve">enquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="65">
+        <v>114</v>
+      </c>
+      <c t="inlineStr" r="B116">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C116">
+        <is>
+          <t xml:space="preserve">bristo</t>
+        </is>
+      </c>
+      <c r="D116" s="65">
+        <v>9995451673</v>
+      </c>
+      <c t="inlineStr" r="E116">
+        <is>
+          <t xml:space="preserve">12-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F116">
+        <is>
+          <t xml:space="preserve">suhail ilyas</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G116">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H116">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I116">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J116">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K116">
+        <is>
+          <t xml:space="preserve">enquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="65">
+        <v>115</v>
+      </c>
+      <c t="inlineStr" r="B117">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C117">
+        <is>
+          <t xml:space="preserve">Vishnu</t>
+        </is>
+      </c>
+      <c r="D117" s="65">
+        <v>8075824661</v>
+      </c>
+      <c t="inlineStr" r="E117">
+        <is>
+          <t xml:space="preserve">25-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F117">
+        <is>
+          <t xml:space="preserve">AKHIL K S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G117">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H117">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I117">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J117">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K117">
+        <is>
+          <t xml:space="preserve">poyitte nokkiyatte parayum</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="65">
+        <v>116</v>
+      </c>
+      <c t="inlineStr" r="B118">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C118">
+        <is>
+          <t xml:space="preserve">aibel</t>
+        </is>
+      </c>
+      <c r="D118" s="65">
+        <v>9946255184</v>
+      </c>
+      <c t="inlineStr" r="E118">
+        <is>
+          <t xml:space="preserve">01-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F118">
+        <is>
+          <t xml:space="preserve">suhail ilyas</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G118">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H118">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I118">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J118">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K118">
+        <is>
+          <t xml:space="preserve">product not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="65">
+        <v>117</v>
+      </c>
+      <c t="inlineStr" r="B119">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C119">
+        <is>
+          <t xml:space="preserve">ramdas</t>
+        </is>
+      </c>
+      <c r="D119" s="65">
+        <v>8921064074</v>
+      </c>
+      <c t="inlineStr" r="E119">
+        <is>
+          <t xml:space="preserve">24-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F119">
+        <is>
+          <t xml:space="preserve">suhail ilyas</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G119">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H119">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I119">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J119">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K119">
+        <is>
+          <t xml:space="preserve">enquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="65">
+        <v>118</v>
+      </c>
+      <c t="inlineStr" r="B120">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C120">
+        <is>
+          <t xml:space="preserve">dharmik</t>
+        </is>
+      </c>
+      <c r="D120" s="65">
+        <v>9946201060</v>
+      </c>
+      <c t="inlineStr" r="E120">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F120">
+        <is>
+          <t xml:space="preserve">suhail ilyas</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G120">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H120">
+        <is>
+          <t xml:space="preserve">PRICING</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I120">
+        <is>
+          <t xml:space="preserve">RENT TO HIGH</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J120">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K120">
+        <is>
+          <t xml:space="preserve">rent to high</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="65">
+        <v>119</v>
+      </c>
+      <c t="inlineStr" r="B121">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C121">
+        <is>
+          <t xml:space="preserve">walkin customer</t>
+        </is>
+      </c>
+      <c r="D121" s="65">
+        <v>9847769608</v>
+      </c>
+      <c t="inlineStr" r="E121">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F121">
+        <is>
+          <t xml:space="preserve">ABHISHEK</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G121">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H121">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I121">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J121">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K121">
+        <is>
+          <t xml:space="preserve">plain grey kids suit need reffer to edapally</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="65">
+        <v>120</v>
+      </c>
+      <c t="inlineStr" r="B122">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C122">
+        <is>
+          <t xml:space="preserve">indrajith</t>
+        </is>
+      </c>
+      <c r="D122" s="65">
+        <v>7012239991</v>
+      </c>
+      <c t="inlineStr" r="E122">
+        <is>
+          <t xml:space="preserve">06-05-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F122">
+        <is>
+          <t xml:space="preserve">AKHIL K S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G122">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H122">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I122">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J122">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K122">
+        <is>
+          <t xml:space="preserve">veetil choichatte confirm</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="65">
+        <v>121</v>
+      </c>
+      <c t="inlineStr" r="B123">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C123">
+        <is>
+          <t xml:space="preserve">chris john</t>
+        </is>
+      </c>
+      <c r="D123" s="65">
+        <v>7561868802</v>
+      </c>
+      <c t="inlineStr" r="E123">
+        <is>
+          <t xml:space="preserve">08-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F123">
+        <is>
+          <t xml:space="preserve">AKHIL K S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G123">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H123">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I123">
+        <is>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J123">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K123">
+        <is>
+          <t xml:space="preserve">bz 48 not available and 44 pant not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="65">
+        <v>122</v>
+      </c>
+      <c t="inlineStr" r="B124">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C124">
+        <is>
+          <t xml:space="preserve">sebin</t>
+        </is>
+      </c>
+      <c r="D124" s="65">
+        <v>9947678184</v>
+      </c>
+      <c t="inlineStr" r="E124">
+        <is>
+          <t xml:space="preserve">11-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F124">
+        <is>
+          <t xml:space="preserve">AKHIL K S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G124">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H124">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I124">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J124">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K124">
+        <is>
+          <t xml:space="preserve">product booked on that date</t>
         </is>
       </c>
     </row>

--- a/data/lossofsale_sg_mg road.xlsx
+++ b/data/lossofsale_sg_mg road.xlsx
@@ -925,20 +925,20 @@
       </c>
       <c t="inlineStr" r="C15">
         <is>
-          <t xml:space="preserve">MELVIN</t>
+          <t xml:space="preserve">Bharat</t>
         </is>
       </c>
       <c r="D15" s="65">
-        <v>9496952220</v>
+        <v>9495317079</v>
       </c>
       <c t="inlineStr" r="E15">
         <is>
-          <t xml:space="preserve">01-01-2026</t>
+          <t xml:space="preserve">05-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F15">
         <is>
-          <t xml:space="preserve">Vishnu Raj</t>
+          <t xml:space="preserve">Muhammed Niyas Ns</t>
         </is>
       </c>
       <c t="inlineStr" r="G15">
@@ -948,12 +948,12 @@
       </c>
       <c t="inlineStr" r="H15">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I15">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J15">
@@ -963,7 +963,7 @@
       </c>
       <c t="inlineStr" r="K15">
         <is>
-          <t xml:space="preserve">KURTHA BULK SIZE NOT CONFIRM VISIT AGAIN</t>
+          <t xml:space="preserve">size not available</t>
         </is>
       </c>
     </row>
@@ -978,15 +978,15 @@
       </c>
       <c t="inlineStr" r="C16">
         <is>
-          <t xml:space="preserve">Bharat</t>
+          <t xml:space="preserve">Feniston</t>
         </is>
       </c>
       <c r="D16" s="65">
-        <v>9495317079</v>
+        <v>8848139006</v>
       </c>
       <c t="inlineStr" r="E16">
         <is>
-          <t xml:space="preserve">05-01-2026</t>
+          <t xml:space="preserve">28-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F16">
@@ -1016,7 +1016,7 @@
       </c>
       <c t="inlineStr" r="K16">
         <is>
-          <t xml:space="preserve">size not available</t>
+          <t xml:space="preserve">Size Not available all products of booking on that date</t>
         </is>
       </c>
     </row>
@@ -1031,20 +1031,20 @@
       </c>
       <c t="inlineStr" r="C17">
         <is>
-          <t xml:space="preserve">Feniston</t>
+          <t xml:space="preserve">Govind</t>
         </is>
       </c>
       <c r="D17" s="65">
-        <v>8848139006</v>
+        <v>8848749054</v>
       </c>
       <c t="inlineStr" r="E17">
         <is>
-          <t xml:space="preserve">28-12-2025</t>
+          <t xml:space="preserve">20-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F17">
         <is>
-          <t xml:space="preserve">Muhammed Niyas Ns</t>
+          <t xml:space="preserve">Fayas E N</t>
         </is>
       </c>
       <c t="inlineStr" r="G17">
@@ -1054,12 +1054,12 @@
       </c>
       <c t="inlineStr" r="H17">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I17">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J17">
@@ -1069,7 +1069,7 @@
       </c>
       <c t="inlineStr" r="K17">
         <is>
-          <t xml:space="preserve">Size Not available all products of booking on that date</t>
+          <t xml:space="preserve">WILL VISIT SOON. A MOTHER WALKEDIN AND ENQUIRED ABOUT THE PRODUCT'S  DETAILS AND WILL SEND HER SON FOR FURTHER SELECTIONS. (SON IS RIYAS IKKA'S FRIEND)</t>
         </is>
       </c>
     </row>
@@ -1079,25 +1079,25 @@
       </c>
       <c t="inlineStr" r="B18">
         <is>
-          <t xml:space="preserve">11-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C18">
         <is>
-          <t xml:space="preserve">Govind</t>
+          <t xml:space="preserve">kurian</t>
         </is>
       </c>
       <c r="D18" s="65">
-        <v>8848749054</v>
+        <v>7902829286</v>
       </c>
       <c t="inlineStr" r="E18">
         <is>
-          <t xml:space="preserve">20-12-2025</t>
+          <t xml:space="preserve">09-05-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F18">
         <is>
-          <t xml:space="preserve">Fayas E N</t>
+          <t xml:space="preserve">Madhavan p</t>
         </is>
       </c>
       <c t="inlineStr" r="G18">
@@ -1112,7 +1112,7 @@
       </c>
       <c t="inlineStr" r="I18">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J18">
@@ -1122,7 +1122,7 @@
       </c>
       <c t="inlineStr" r="K18">
         <is>
-          <t xml:space="preserve">WILL VISIT SOON. A MOTHER WALKEDIN AND ENQUIRED ABOUT THE PRODUCT'S  DETAILS AND WILL SEND HER SON FOR FURTHER SELECTIONS. (SON IS RIYAS IKKA'S FRIEND)</t>
+          <t xml:space="preserve">groom is not here..program in may.. just explore the details..</t>
         </is>
       </c>
     </row>
@@ -1137,15 +1137,15 @@
       </c>
       <c t="inlineStr" r="C19">
         <is>
-          <t xml:space="preserve">kurian</t>
+          <t xml:space="preserve">jotty</t>
         </is>
       </c>
       <c r="D19" s="65">
-        <v>7902829286</v>
+        <v>7909125090</v>
       </c>
       <c t="inlineStr" r="E19">
         <is>
-          <t xml:space="preserve">09-05-2026</t>
+          <t xml:space="preserve">21-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F19">
@@ -1160,12 +1160,12 @@
       </c>
       <c t="inlineStr" r="H19">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I19">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">Product Already Booked</t>
         </is>
       </c>
       <c t="inlineStr" r="J19">
@@ -1175,7 +1175,7 @@
       </c>
       <c t="inlineStr" r="K19">
         <is>
-          <t xml:space="preserve">groom is not here..program in may.. just explore the details..</t>
+          <t xml:space="preserve">normal suit preferred colour and size already booked..</t>
         </is>
       </c>
     </row>
@@ -1190,20 +1190,20 @@
       </c>
       <c t="inlineStr" r="C20">
         <is>
-          <t xml:space="preserve">jotty</t>
+          <t xml:space="preserve">fahim</t>
         </is>
       </c>
       <c r="D20" s="65">
-        <v>7909125090</v>
+        <v>8547190953</v>
       </c>
       <c t="inlineStr" r="E20">
         <is>
-          <t xml:space="preserve">21-01-2026</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F20">
         <is>
-          <t xml:space="preserve">Madhavan p</t>
+          <t xml:space="preserve">suhail ilyas</t>
         </is>
       </c>
       <c t="inlineStr" r="G20">
@@ -1213,12 +1213,12 @@
       </c>
       <c t="inlineStr" r="H20">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I20">
         <is>
-          <t xml:space="preserve">Product Already Booked</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J20">
@@ -1228,7 +1228,7 @@
       </c>
       <c t="inlineStr" r="K20">
         <is>
-          <t xml:space="preserve">normal suit preferred colour and size already booked..</t>
+          <t xml:space="preserve">enquiry</t>
         </is>
       </c>
     </row>
@@ -1243,20 +1243,20 @@
       </c>
       <c t="inlineStr" r="C21">
         <is>
-          <t xml:space="preserve">fahim</t>
+          <t xml:space="preserve">amoz</t>
         </is>
       </c>
       <c r="D21" s="65">
-        <v>8547190953</v>
+        <v>7594016963</v>
       </c>
       <c t="inlineStr" r="E21">
         <is>
-          <t xml:space="preserve">12-12-2025</t>
+          <t xml:space="preserve">10-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F21">
         <is>
-          <t xml:space="preserve">suhail ilyas</t>
+          <t xml:space="preserve">Madhavan p</t>
         </is>
       </c>
       <c t="inlineStr" r="G21">
@@ -1266,12 +1266,12 @@
       </c>
       <c t="inlineStr" r="H21">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I21">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
         </is>
       </c>
       <c t="inlineStr" r="J21">
@@ -1281,7 +1281,7 @@
       </c>
       <c t="inlineStr" r="K21">
         <is>
-          <t xml:space="preserve">enquiry</t>
+          <t xml:space="preserve">fit products not available in that date..</t>
         </is>
       </c>
     </row>
@@ -1296,15 +1296,15 @@
       </c>
       <c t="inlineStr" r="C22">
         <is>
-          <t xml:space="preserve">amoz</t>
+          <t xml:space="preserve">arun</t>
         </is>
       </c>
       <c r="D22" s="65">
-        <v>7594016963</v>
+        <v>7736502744</v>
       </c>
       <c t="inlineStr" r="E22">
         <is>
-          <t xml:space="preserve">10-01-2026</t>
+          <t xml:space="preserve">04-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F22">
@@ -1319,12 +1319,12 @@
       </c>
       <c t="inlineStr" r="H22">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I22">
         <is>
-          <t xml:space="preserve">SIZE TOO LARGE</t>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
       <c t="inlineStr" r="J22">
@@ -1334,7 +1334,7 @@
       </c>
       <c t="inlineStr" r="K22">
         <is>
-          <t xml:space="preserve">fit products not available in that date..</t>
+          <t xml:space="preserve">groom not here</t>
         </is>
       </c>
     </row>
@@ -1349,15 +1349,15 @@
       </c>
       <c t="inlineStr" r="C23">
         <is>
-          <t xml:space="preserve">arun</t>
+          <t xml:space="preserve">akshey</t>
         </is>
       </c>
       <c r="D23" s="65">
-        <v>7736502744</v>
+        <v>8921740083</v>
       </c>
       <c t="inlineStr" r="E23">
         <is>
-          <t xml:space="preserve">04-01-2026</t>
+          <t xml:space="preserve">29-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F23">
@@ -1372,12 +1372,12 @@
       </c>
       <c t="inlineStr" r="H23">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I23">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">Product Already Booked</t>
         </is>
       </c>
       <c t="inlineStr" r="J23">
@@ -1387,7 +1387,7 @@
       </c>
       <c t="inlineStr" r="K23">
         <is>
-          <t xml:space="preserve">groom not here</t>
+          <t xml:space="preserve">loved products already booked the same date..</t>
         </is>
       </c>
     </row>
@@ -1402,20 +1402,20 @@
       </c>
       <c t="inlineStr" r="C24">
         <is>
-          <t xml:space="preserve">akshey</t>
+          <t xml:space="preserve">Akhil</t>
         </is>
       </c>
       <c r="D24" s="65">
-        <v>8921740083</v>
+        <v>9946204482</v>
       </c>
       <c t="inlineStr" r="E24">
         <is>
-          <t xml:space="preserve">29-12-2025</t>
+          <t xml:space="preserve">06-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F24">
         <is>
-          <t xml:space="preserve">Madhavan p</t>
+          <t xml:space="preserve">AKHIL K S</t>
         </is>
       </c>
       <c t="inlineStr" r="G24">
@@ -1425,12 +1425,12 @@
       </c>
       <c t="inlineStr" r="H24">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I24">
         <is>
-          <t xml:space="preserve">Product Already Booked</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J24">
@@ -1440,7 +1440,7 @@
       </c>
       <c t="inlineStr" r="K24">
         <is>
-          <t xml:space="preserve">loved products already booked the same date..</t>
+          <t xml:space="preserve">groom varunnathe Jan 1st ennit nokkum</t>
         </is>
       </c>
     </row>
@@ -1455,20 +1455,20 @@
       </c>
       <c t="inlineStr" r="C25">
         <is>
-          <t xml:space="preserve">Akhil</t>
+          <t xml:space="preserve">jestin</t>
         </is>
       </c>
       <c r="D25" s="65">
-        <v>9946204482</v>
+        <v>9946458237</v>
       </c>
       <c t="inlineStr" r="E25">
         <is>
-          <t xml:space="preserve">06-01-2026</t>
+          <t xml:space="preserve">05-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F25">
         <is>
-          <t xml:space="preserve">AKHIL K S</t>
+          <t xml:space="preserve">suhail ilyas</t>
         </is>
       </c>
       <c t="inlineStr" r="G25">
@@ -1493,7 +1493,7 @@
       </c>
       <c t="inlineStr" r="K25">
         <is>
-          <t xml:space="preserve">groom varunnathe Jan 1st ennit nokkum</t>
+          <t xml:space="preserve">enquiry</t>
         </is>
       </c>
     </row>
@@ -1508,15 +1508,15 @@
       </c>
       <c t="inlineStr" r="C26">
         <is>
-          <t xml:space="preserve">jestin</t>
+          <t xml:space="preserve">raez</t>
         </is>
       </c>
       <c r="D26" s="65">
-        <v>9946458237</v>
+        <v>9496971740</v>
       </c>
       <c t="inlineStr" r="E26">
         <is>
-          <t xml:space="preserve">05-01-2026</t>
+          <t xml:space="preserve">20-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F26">
@@ -1531,12 +1531,12 @@
       </c>
       <c t="inlineStr" r="H26">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I26">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J26">
@@ -1546,7 +1546,7 @@
       </c>
       <c t="inlineStr" r="K26">
         <is>
-          <t xml:space="preserve">enquiry</t>
+          <t xml:space="preserve">product not available</t>
         </is>
       </c>
     </row>
@@ -1561,20 +1561,20 @@
       </c>
       <c t="inlineStr" r="C27">
         <is>
-          <t xml:space="preserve">raez</t>
+          <t xml:space="preserve">Ebin</t>
         </is>
       </c>
       <c r="D27" s="65">
-        <v>9496971740</v>
+        <v>8078585931</v>
       </c>
       <c t="inlineStr" r="E27">
         <is>
-          <t xml:space="preserve">20-12-2025</t>
+          <t xml:space="preserve">27-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F27">
         <is>
-          <t xml:space="preserve">suhail ilyas</t>
+          <t xml:space="preserve">Muhammed Niyas Ns</t>
         </is>
       </c>
       <c t="inlineStr" r="G27">
@@ -1584,12 +1584,12 @@
       </c>
       <c t="inlineStr" r="H27">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I27">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J27">
@@ -1599,7 +1599,7 @@
       </c>
       <c t="inlineStr" r="K27">
         <is>
-          <t xml:space="preserve">product not available</t>
+          <t xml:space="preserve">enquiry without groom</t>
         </is>
       </c>
     </row>
@@ -1614,20 +1614,20 @@
       </c>
       <c t="inlineStr" r="C28">
         <is>
-          <t xml:space="preserve">Ebin</t>
+          <t xml:space="preserve">shahabas</t>
         </is>
       </c>
       <c r="D28" s="65">
-        <v>8078585931</v>
+        <v>8714951548</v>
       </c>
       <c t="inlineStr" r="E28">
         <is>
-          <t xml:space="preserve">27-12-2025</t>
+          <t xml:space="preserve">26-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F28">
         <is>
-          <t xml:space="preserve">Muhammed Niyas Ns</t>
+          <t xml:space="preserve">suhail ilyas</t>
         </is>
       </c>
       <c t="inlineStr" r="G28">
@@ -1637,22 +1637,20 @@
       </c>
       <c t="inlineStr" r="H28">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I28">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="J28">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c r="J28" s="65">
+        <v>2</v>
       </c>
       <c t="inlineStr" r="K28">
         <is>
-          <t xml:space="preserve">enquiry without groom</t>
+          <t xml:space="preserve">product not available</t>
         </is>
       </c>
     </row>
@@ -1667,20 +1665,20 @@
       </c>
       <c t="inlineStr" r="C29">
         <is>
-          <t xml:space="preserve">shahabas</t>
+          <t xml:space="preserve">sachin</t>
         </is>
       </c>
       <c r="D29" s="65">
-        <v>8714951548</v>
+        <v>8129345939</v>
       </c>
       <c t="inlineStr" r="E29">
         <is>
-          <t xml:space="preserve">26-12-2025</t>
+          <t xml:space="preserve">27-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F29">
         <is>
-          <t xml:space="preserve">suhail ilyas</t>
+          <t xml:space="preserve">Madhavan p</t>
         </is>
       </c>
       <c t="inlineStr" r="G29">
@@ -1695,15 +1693,17 @@
       </c>
       <c t="inlineStr" r="I29">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
-        </is>
-      </c>
-      <c r="J29" s="65">
-        <v>2</v>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J29">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
       </c>
       <c t="inlineStr" r="K29">
         <is>
-          <t xml:space="preserve">product not available</t>
+          <t xml:space="preserve">products not available on that date</t>
         </is>
       </c>
     </row>
@@ -1718,20 +1718,20 @@
       </c>
       <c t="inlineStr" r="C30">
         <is>
-          <t xml:space="preserve">sachin</t>
+          <t xml:space="preserve">jithin</t>
         </is>
       </c>
       <c r="D30" s="65">
-        <v>8129345939</v>
+        <v>8891734117</v>
       </c>
       <c t="inlineStr" r="E30">
         <is>
-          <t xml:space="preserve">27-12-2025</t>
+          <t xml:space="preserve">10-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F30">
         <is>
-          <t xml:space="preserve">Madhavan p</t>
+          <t xml:space="preserve">AKHIL K S</t>
         </is>
       </c>
       <c t="inlineStr" r="G30">
@@ -1741,12 +1741,12 @@
       </c>
       <c t="inlineStr" r="H30">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I30">
         <is>
-          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J30">
@@ -1756,7 +1756,7 @@
       </c>
       <c t="inlineStr" r="K30">
         <is>
-          <t xml:space="preserve">products not available on that date</t>
+          <t xml:space="preserve">confirm in 2 days</t>
         </is>
       </c>
     </row>
@@ -1771,20 +1771,20 @@
       </c>
       <c t="inlineStr" r="C31">
         <is>
-          <t xml:space="preserve">jithin</t>
+          <t xml:space="preserve">Livin</t>
         </is>
       </c>
       <c r="D31" s="65">
-        <v>8891734117</v>
+        <v>8075759667</v>
       </c>
       <c t="inlineStr" r="E31">
         <is>
-          <t xml:space="preserve">10-01-2026</t>
+          <t xml:space="preserve">06-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F31">
         <is>
-          <t xml:space="preserve">AKHIL K S</t>
+          <t xml:space="preserve">Muhammed Niyas Ns</t>
         </is>
       </c>
       <c t="inlineStr" r="G31">
@@ -1794,12 +1794,12 @@
       </c>
       <c t="inlineStr" r="H31">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I31">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
         </is>
       </c>
       <c t="inlineStr" r="J31">
@@ -1809,7 +1809,7 @@
       </c>
       <c t="inlineStr" r="K31">
         <is>
-          <t xml:space="preserve">confirm in 2 days</t>
+          <t xml:space="preserve">cream suit size 44 not available</t>
         </is>
       </c>
     </row>
@@ -1824,20 +1824,20 @@
       </c>
       <c t="inlineStr" r="C32">
         <is>
-          <t xml:space="preserve">Livin</t>
+          <t xml:space="preserve">al7</t>
         </is>
       </c>
       <c r="D32" s="65">
-        <v>8075759667</v>
+        <v>7012591139</v>
       </c>
       <c t="inlineStr" r="E32">
         <is>
-          <t xml:space="preserve">06-01-2026</t>
+          <t xml:space="preserve">04-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F32">
         <is>
-          <t xml:space="preserve">Muhammed Niyas Ns</t>
+          <t xml:space="preserve">suhail ilyas</t>
         </is>
       </c>
       <c t="inlineStr" r="G32">
@@ -1847,12 +1847,12 @@
       </c>
       <c t="inlineStr" r="H32">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I32">
         <is>
-          <t xml:space="preserve">SIZE TOO SMALL</t>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
         </is>
       </c>
       <c t="inlineStr" r="J32">
@@ -1862,7 +1862,7 @@
       </c>
       <c t="inlineStr" r="K32">
         <is>
-          <t xml:space="preserve">cream suit size 44 not available</t>
+          <t xml:space="preserve">enquiry</t>
         </is>
       </c>
     </row>
@@ -1877,20 +1877,20 @@
       </c>
       <c t="inlineStr" r="C33">
         <is>
-          <t xml:space="preserve">al7</t>
+          <t xml:space="preserve">derrik</t>
         </is>
       </c>
       <c r="D33" s="65">
-        <v>7012591139</v>
+        <v>7558958775</v>
       </c>
       <c t="inlineStr" r="E33">
         <is>
-          <t xml:space="preserve">04-01-2026</t>
+          <t xml:space="preserve">20-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F33">
         <is>
-          <t xml:space="preserve">suhail ilyas</t>
+          <t xml:space="preserve">Madhavan p</t>
         </is>
       </c>
       <c t="inlineStr" r="G33">
@@ -1900,12 +1900,12 @@
       </c>
       <c t="inlineStr" r="H33">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I33">
         <is>
-          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+          <t xml:space="preserve">Product Already Booked</t>
         </is>
       </c>
       <c t="inlineStr" r="J33">
@@ -1915,7 +1915,7 @@
       </c>
       <c t="inlineStr" r="K33">
         <is>
-          <t xml:space="preserve">enquiry</t>
+          <t xml:space="preserve">product and available size and colour already booked..</t>
         </is>
       </c>
     </row>
@@ -1930,20 +1930,20 @@
       </c>
       <c t="inlineStr" r="C34">
         <is>
-          <t xml:space="preserve">derrik</t>
+          <t xml:space="preserve">fadhil</t>
         </is>
       </c>
       <c r="D34" s="65">
-        <v>7558958775</v>
+        <v>9745526644</v>
       </c>
       <c t="inlineStr" r="E34">
         <is>
-          <t xml:space="preserve">20-12-2025</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F34">
         <is>
-          <t xml:space="preserve">Madhavan p</t>
+          <t xml:space="preserve">suhail ilyas</t>
         </is>
       </c>
       <c t="inlineStr" r="G34">
@@ -1958,7 +1958,7 @@
       </c>
       <c t="inlineStr" r="I34">
         <is>
-          <t xml:space="preserve">Product Already Booked</t>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J34">
@@ -1968,7 +1968,7 @@
       </c>
       <c t="inlineStr" r="K34">
         <is>
-          <t xml:space="preserve">product and available size and colour already booked..</t>
+          <t xml:space="preserve">not available</t>
         </is>
       </c>
     </row>
@@ -1983,20 +1983,20 @@
       </c>
       <c t="inlineStr" r="C35">
         <is>
-          <t xml:space="preserve">fadhil</t>
+          <t xml:space="preserve">Abdul basith</t>
         </is>
       </c>
       <c r="D35" s="65">
-        <v>9745526644</v>
+        <v>9633482162</v>
       </c>
       <c t="inlineStr" r="E35">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">15-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F35">
         <is>
-          <t xml:space="preserve">suhail ilyas</t>
+          <t xml:space="preserve">Muhammed Niyas Ns</t>
         </is>
       </c>
       <c t="inlineStr" r="G35">
@@ -2011,7 +2011,7 @@
       </c>
       <c t="inlineStr" r="I35">
         <is>
-          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J35">
@@ -2021,7 +2021,7 @@
       </c>
       <c t="inlineStr" r="K35">
         <is>
-          <t xml:space="preserve">not available</t>
+          <t xml:space="preserve">black texido.all product booked that date</t>
         </is>
       </c>
     </row>
@@ -2036,15 +2036,15 @@
       </c>
       <c t="inlineStr" r="C36">
         <is>
-          <t xml:space="preserve">Abdul basith</t>
+          <t xml:space="preserve">Rizwan</t>
         </is>
       </c>
       <c r="D36" s="65">
-        <v>9633482162</v>
+        <v>8089552240</v>
       </c>
       <c t="inlineStr" r="E36">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F36">
@@ -2059,12 +2059,12 @@
       </c>
       <c t="inlineStr" r="H36">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">PRICING</t>
         </is>
       </c>
       <c t="inlineStr" r="I36">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">RENT TO HIGH</t>
         </is>
       </c>
       <c t="inlineStr" r="J36">
@@ -2074,7 +2074,7 @@
       </c>
       <c t="inlineStr" r="K36">
         <is>
-          <t xml:space="preserve">black texido.all product booked that date</t>
+          <t xml:space="preserve">black ind western rent to high</t>
         </is>
       </c>
     </row>
@@ -2089,20 +2089,20 @@
       </c>
       <c t="inlineStr" r="C37">
         <is>
-          <t xml:space="preserve">Rizwan</t>
+          <t xml:space="preserve">firoz</t>
         </is>
       </c>
       <c r="D37" s="65">
-        <v>8089552240</v>
+        <v>9995981509</v>
       </c>
       <c t="inlineStr" r="E37">
         <is>
-          <t xml:space="preserve">22-12-2025</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F37">
         <is>
-          <t xml:space="preserve">Muhammed Niyas Ns</t>
+          <t xml:space="preserve">AKHIL K S</t>
         </is>
       </c>
       <c t="inlineStr" r="G37">
@@ -2112,12 +2112,12 @@
       </c>
       <c t="inlineStr" r="H37">
         <is>
-          <t xml:space="preserve">PRICING</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I37">
         <is>
-          <t xml:space="preserve">RENT TO HIGH</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J37">
@@ -2127,7 +2127,7 @@
       </c>
       <c t="inlineStr" r="K37">
         <is>
-          <t xml:space="preserve">black ind western rent to high</t>
+          <t xml:space="preserve">confirm in Tommorow</t>
         </is>
       </c>
     </row>
@@ -2137,25 +2137,25 @@
       </c>
       <c t="inlineStr" r="B38">
         <is>
-          <t xml:space="preserve">12-12-2025</t>
+          <t xml:space="preserve">13-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C38">
         <is>
-          <t xml:space="preserve">firoz</t>
+          <t xml:space="preserve">frederik</t>
         </is>
       </c>
       <c r="D38" s="65">
-        <v>9995981509</v>
+        <v>7034060021</v>
       </c>
       <c t="inlineStr" r="E38">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">27-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F38">
         <is>
-          <t xml:space="preserve">AKHIL K S</t>
+          <t xml:space="preserve">DEVADETH R</t>
         </is>
       </c>
       <c t="inlineStr" r="G38">
@@ -2165,12 +2165,12 @@
       </c>
       <c t="inlineStr" r="H38">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I38">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
       <c t="inlineStr" r="J38">
@@ -2180,7 +2180,7 @@
       </c>
       <c t="inlineStr" r="K38">
         <is>
-          <t xml:space="preserve">confirm in Tommorow</t>
+          <t xml:space="preserve">product will be confirm tomorrow</t>
         </is>
       </c>
     </row>
@@ -2195,20 +2195,20 @@
       </c>
       <c t="inlineStr" r="C39">
         <is>
-          <t xml:space="preserve">frederik</t>
+          <t xml:space="preserve">Alfin</t>
         </is>
       </c>
       <c r="D39" s="65">
-        <v>7034060021</v>
+        <v>8891594432</v>
       </c>
       <c t="inlineStr" r="E39">
         <is>
-          <t xml:space="preserve">27-12-2025</t>
+          <t xml:space="preserve">04-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F39">
         <is>
-          <t xml:space="preserve">DEVADETH R</t>
+          <t xml:space="preserve">Madhavan p</t>
         </is>
       </c>
       <c t="inlineStr" r="G39">
@@ -2218,12 +2218,12 @@
       </c>
       <c t="inlineStr" r="H39">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I39">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J39">
@@ -2233,7 +2233,7 @@
       </c>
       <c t="inlineStr" r="K39">
         <is>
-          <t xml:space="preserve">product will be confirm tomorrow</t>
+          <t xml:space="preserve">after available of products they will book.. pistagreen bulk</t>
         </is>
       </c>
     </row>
@@ -2248,20 +2248,20 @@
       </c>
       <c t="inlineStr" r="C40">
         <is>
-          <t xml:space="preserve">Alfin</t>
+          <t xml:space="preserve">thanush</t>
         </is>
       </c>
       <c r="D40" s="65">
-        <v>8891594432</v>
+        <v>9446496875</v>
       </c>
       <c t="inlineStr" r="E40">
         <is>
-          <t xml:space="preserve">04-01-2026</t>
+          <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F40">
         <is>
-          <t xml:space="preserve">Madhavan p</t>
+          <t xml:space="preserve">suhail ilyas</t>
         </is>
       </c>
       <c t="inlineStr" r="G40">
@@ -2271,12 +2271,12 @@
       </c>
       <c t="inlineStr" r="H40">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I40">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J40">
@@ -2286,7 +2286,7 @@
       </c>
       <c t="inlineStr" r="K40">
         <is>
-          <t xml:space="preserve">after available of products they will book.. pistagreen bulk</t>
+          <t xml:space="preserve">enquiry</t>
         </is>
       </c>
     </row>
@@ -2301,15 +2301,15 @@
       </c>
       <c t="inlineStr" r="C41">
         <is>
-          <t xml:space="preserve">thanush</t>
+          <t xml:space="preserve">tony</t>
         </is>
       </c>
       <c r="D41" s="65">
-        <v>9446496875</v>
+        <v>6238053244</v>
       </c>
       <c t="inlineStr" r="E41">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">10-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F41">
@@ -2324,12 +2324,12 @@
       </c>
       <c t="inlineStr" r="H41">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I41">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J41">
@@ -2339,7 +2339,7 @@
       </c>
       <c t="inlineStr" r="K41">
         <is>
-          <t xml:space="preserve">enquiry</t>
+          <t xml:space="preserve">model not available in this shop</t>
         </is>
       </c>
     </row>
@@ -2354,20 +2354,20 @@
       </c>
       <c t="inlineStr" r="C42">
         <is>
-          <t xml:space="preserve">tony</t>
+          <t xml:space="preserve">Paul antony</t>
         </is>
       </c>
       <c r="D42" s="65">
-        <v>6238053244</v>
+        <v>995846150</v>
       </c>
       <c t="inlineStr" r="E42">
         <is>
-          <t xml:space="preserve">10-01-2026</t>
+          <t xml:space="preserve">20-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F42">
         <is>
-          <t xml:space="preserve">suhail ilyas</t>
+          <t xml:space="preserve">Madhavan p</t>
         </is>
       </c>
       <c t="inlineStr" r="G42">
@@ -2382,7 +2382,7 @@
       </c>
       <c t="inlineStr" r="I42">
         <is>
-          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+          <t xml:space="preserve">Product Already Booked</t>
         </is>
       </c>
       <c t="inlineStr" r="J42">
@@ -2392,7 +2392,7 @@
       </c>
       <c t="inlineStr" r="K42">
         <is>
-          <t xml:space="preserve">model not available in this shop</t>
+          <t xml:space="preserve">non premium suit.. not available for that date..</t>
         </is>
       </c>
     </row>
@@ -2407,20 +2407,20 @@
       </c>
       <c t="inlineStr" r="C43">
         <is>
-          <t xml:space="preserve">Arjun</t>
+          <t xml:space="preserve">abin</t>
         </is>
       </c>
       <c r="D43" s="65">
-        <v>8921025726</v>
+        <v>8075666934</v>
       </c>
       <c t="inlineStr" r="E43">
         <is>
-          <t xml:space="preserve">26-12-2025</t>
+          <t xml:space="preserve">03-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F43">
         <is>
-          <t xml:space="preserve">HEMANTH K</t>
+          <t xml:space="preserve">suhail ilyas</t>
         </is>
       </c>
       <c t="inlineStr" r="G43">
@@ -2445,7 +2445,7 @@
       </c>
       <c t="inlineStr" r="K43">
         <is>
-          <t xml:space="preserve">46 size need</t>
+          <t xml:space="preserve">size not suitable</t>
         </is>
       </c>
     </row>
@@ -2455,25 +2455,25 @@
       </c>
       <c t="inlineStr" r="B44">
         <is>
-          <t xml:space="preserve">13-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C44">
         <is>
-          <t xml:space="preserve">Paul antony</t>
+          <t xml:space="preserve">ahmed</t>
         </is>
       </c>
       <c r="D44" s="65">
-        <v>995846150</v>
+        <v>9037861022</v>
       </c>
       <c t="inlineStr" r="E44">
         <is>
-          <t xml:space="preserve">20-12-2025</t>
+          <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F44">
         <is>
-          <t xml:space="preserve">Madhavan p</t>
+          <t xml:space="preserve">ABHISHEK</t>
         </is>
       </c>
       <c t="inlineStr" r="G44">
@@ -2488,7 +2488,7 @@
       </c>
       <c t="inlineStr" r="I44">
         <is>
-          <t xml:space="preserve">Product Already Booked</t>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J44">
@@ -2498,7 +2498,7 @@
       </c>
       <c t="inlineStr" r="K44">
         <is>
-          <t xml:space="preserve">non premium suit.. not available for that date..</t>
+          <t xml:space="preserve">required model plain formal suit size 36 but we 11 option of product we trail product but not single product 36 size not avilable for dec 22</t>
         </is>
       </c>
     </row>
@@ -2508,25 +2508,25 @@
       </c>
       <c t="inlineStr" r="B45">
         <is>
-          <t xml:space="preserve">13-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C45">
         <is>
-          <t xml:space="preserve">abin</t>
+          <t xml:space="preserve">belram</t>
         </is>
       </c>
       <c r="D45" s="65">
-        <v>8075666934</v>
+        <v>9544969953</v>
       </c>
       <c t="inlineStr" r="E45">
         <is>
-          <t xml:space="preserve">03-01-2026</t>
+          <t xml:space="preserve">25-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F45">
         <is>
-          <t xml:space="preserve">suhail ilyas</t>
+          <t xml:space="preserve">Madhavan p</t>
         </is>
       </c>
       <c t="inlineStr" r="G45">
@@ -2536,12 +2536,12 @@
       </c>
       <c t="inlineStr" r="H45">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I45">
         <is>
-          <t xml:space="preserve">SIZE TOO LARGE</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J45">
@@ -2551,7 +2551,7 @@
       </c>
       <c t="inlineStr" r="K45">
         <is>
-          <t xml:space="preserve">size not suitable</t>
+          <t xml:space="preserve">they think this store is retail store.. they came for buy..</t>
         </is>
       </c>
     </row>
@@ -2566,20 +2566,20 @@
       </c>
       <c t="inlineStr" r="C46">
         <is>
-          <t xml:space="preserve">ahmed</t>
+          <t xml:space="preserve">albit</t>
         </is>
       </c>
       <c r="D46" s="65">
-        <v>9037861022</v>
+        <v>7902250062</v>
       </c>
       <c t="inlineStr" r="E46">
         <is>
-          <t xml:space="preserve">22-12-2025</t>
+          <t xml:space="preserve">27-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F46">
         <is>
-          <t xml:space="preserve">ABHISHEK</t>
+          <t xml:space="preserve">Fayas E N</t>
         </is>
       </c>
       <c t="inlineStr" r="G46">
@@ -2589,12 +2589,12 @@
       </c>
       <c t="inlineStr" r="H46">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I46">
         <is>
-          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J46">
@@ -2604,7 +2604,7 @@
       </c>
       <c t="inlineStr" r="K46">
         <is>
-          <t xml:space="preserve">required model plain formal suit size 36 but we 11 option of product we trail product but not single product 36 size not avilable for dec 22</t>
+          <t xml:space="preserve">Enquiry for cream non premium formal suit (customer showed a specific colour)</t>
         </is>
       </c>
     </row>
@@ -2619,15 +2619,15 @@
       </c>
       <c t="inlineStr" r="C47">
         <is>
-          <t xml:space="preserve">belram</t>
+          <t xml:space="preserve">melvin</t>
         </is>
       </c>
       <c r="D47" s="65">
-        <v>9544969953</v>
+        <v>9496952204</v>
       </c>
       <c t="inlineStr" r="E47">
         <is>
-          <t xml:space="preserve">25-01-2026</t>
+          <t xml:space="preserve">29-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F47">
@@ -2642,12 +2642,12 @@
       </c>
       <c t="inlineStr" r="H47">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I47">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">Product Already Booked</t>
         </is>
       </c>
       <c t="inlineStr" r="J47">
@@ -2657,7 +2657,7 @@
       </c>
       <c t="inlineStr" r="K47">
         <is>
-          <t xml:space="preserve">they think this store is retail store.. they came for buy..</t>
+          <t xml:space="preserve">non premium products not available in that date.. they want casual suits..</t>
         </is>
       </c>
     </row>
@@ -2672,20 +2672,20 @@
       </c>
       <c t="inlineStr" r="C48">
         <is>
-          <t xml:space="preserve">albit</t>
+          <t xml:space="preserve">frady</t>
         </is>
       </c>
       <c r="D48" s="65">
-        <v>7902250062</v>
+        <v>8921853595</v>
       </c>
       <c t="inlineStr" r="E48">
         <is>
-          <t xml:space="preserve">27-12-2025</t>
+          <t xml:space="preserve">28-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F48">
         <is>
-          <t xml:space="preserve">Fayas E N</t>
+          <t xml:space="preserve">Sanoob k h</t>
         </is>
       </c>
       <c t="inlineStr" r="G48">
@@ -2695,12 +2695,12 @@
       </c>
       <c t="inlineStr" r="H48">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I48">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J48">
@@ -2710,7 +2710,7 @@
       </c>
       <c t="inlineStr" r="K48">
         <is>
-          <t xml:space="preserve">Enquiry for cream non premium formal suit (customer showed a specific colour)</t>
+          <t xml:space="preserve">pintrest model</t>
         </is>
       </c>
     </row>
@@ -2725,20 +2725,20 @@
       </c>
       <c t="inlineStr" r="C49">
         <is>
-          <t xml:space="preserve">ARUN</t>
+          <t xml:space="preserve">Roshan</t>
         </is>
       </c>
       <c r="D49" s="65">
-        <v>6901255023</v>
+        <v>9633222807</v>
       </c>
       <c t="inlineStr" r="E49">
         <is>
-          <t xml:space="preserve">25-04-2026</t>
+          <t xml:space="preserve">27-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F49">
         <is>
-          <t xml:space="preserve">HEMANTH K</t>
+          <t xml:space="preserve">Muhammed Niyas Ns</t>
         </is>
       </c>
       <c t="inlineStr" r="G49">
@@ -2753,7 +2753,7 @@
       </c>
       <c t="inlineStr" r="I49">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
         </is>
       </c>
       <c t="inlineStr" r="J49">
@@ -2763,7 +2763,7 @@
       </c>
       <c t="inlineStr" r="K49">
         <is>
-          <t xml:space="preserve">with in two days visit showroom</t>
+          <t xml:space="preserve">enquiry</t>
         </is>
       </c>
     </row>
@@ -2778,15 +2778,15 @@
       </c>
       <c t="inlineStr" r="C50">
         <is>
-          <t xml:space="preserve">melvin</t>
+          <t xml:space="preserve">vishvajith</t>
         </is>
       </c>
       <c r="D50" s="65">
-        <v>9496952204</v>
+        <v>9778205101</v>
       </c>
       <c t="inlineStr" r="E50">
         <is>
-          <t xml:space="preserve">29-12-2025</t>
+          <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F50">
@@ -2816,7 +2816,7 @@
       </c>
       <c t="inlineStr" r="K50">
         <is>
-          <t xml:space="preserve">non premium products not available in that date.. they want casual suits..</t>
+          <t xml:space="preserve">non premium black blazer not available on that date.. they looking for black blazer..</t>
         </is>
       </c>
     </row>
@@ -2831,11 +2831,11 @@
       </c>
       <c t="inlineStr" r="C51">
         <is>
-          <t xml:space="preserve">frady</t>
+          <t xml:space="preserve">shenil</t>
         </is>
       </c>
       <c r="D51" s="65">
-        <v>8921853595</v>
+        <v>9188866751</v>
       </c>
       <c t="inlineStr" r="E51">
         <is>
@@ -2844,7 +2844,7 @@
       </c>
       <c t="inlineStr" r="F51">
         <is>
-          <t xml:space="preserve">Sanoob k h</t>
+          <t xml:space="preserve">suhail ilyas</t>
         </is>
       </c>
       <c t="inlineStr" r="G51">
@@ -2859,7 +2859,7 @@
       </c>
       <c t="inlineStr" r="I51">
         <is>
-          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J51">
@@ -2869,7 +2869,7 @@
       </c>
       <c t="inlineStr" r="K51">
         <is>
-          <t xml:space="preserve">pintrest model</t>
+          <t xml:space="preserve">black non premium bulk booking not available</t>
         </is>
       </c>
     </row>
@@ -2884,20 +2884,20 @@
       </c>
       <c t="inlineStr" r="C52">
         <is>
-          <t xml:space="preserve">Roshan</t>
+          <t xml:space="preserve">eldho</t>
         </is>
       </c>
       <c r="D52" s="65">
-        <v>9633222807</v>
+        <v>9020297279</v>
       </c>
       <c t="inlineStr" r="E52">
         <is>
-          <t xml:space="preserve">27-12-2025</t>
+          <t xml:space="preserve">03-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F52">
         <is>
-          <t xml:space="preserve">Muhammed Niyas Ns</t>
+          <t xml:space="preserve">AKHIL K S</t>
         </is>
       </c>
       <c t="inlineStr" r="G52">
@@ -2907,12 +2907,12 @@
       </c>
       <c t="inlineStr" r="H52">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I52">
         <is>
-          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J52">
@@ -2922,7 +2922,7 @@
       </c>
       <c t="inlineStr" r="K52">
         <is>
-          <t xml:space="preserve">enquiry</t>
+          <t xml:space="preserve">blackil design work olla single piece not available</t>
         </is>
       </c>
     </row>
@@ -2937,20 +2937,20 @@
       </c>
       <c t="inlineStr" r="C53">
         <is>
-          <t xml:space="preserve">vishvajith</t>
+          <t xml:space="preserve">bincy</t>
         </is>
       </c>
       <c r="D53" s="65">
-        <v>9778205101</v>
+        <v>8714154578</v>
       </c>
       <c t="inlineStr" r="E53">
         <is>
-          <t xml:space="preserve">22-12-2025</t>
+          <t xml:space="preserve">05-03-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F53">
         <is>
-          <t xml:space="preserve">Madhavan p</t>
+          <t xml:space="preserve">AKHIL K S</t>
         </is>
       </c>
       <c t="inlineStr" r="G53">
@@ -2960,12 +2960,12 @@
       </c>
       <c t="inlineStr" r="H53">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I53">
         <is>
-          <t xml:space="preserve">Product Already Booked</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J53">
@@ -2975,7 +2975,7 @@
       </c>
       <c t="inlineStr" r="K53">
         <is>
-          <t xml:space="preserve">non premium black blazer not available on that date.. they looking for black blazer..</t>
+          <t xml:space="preserve">function date fixed akkiyattila dress trial cheythatunde leave anusarich parayum eth dress vennam enn</t>
         </is>
       </c>
     </row>
@@ -2990,20 +2990,20 @@
       </c>
       <c t="inlineStr" r="C54">
         <is>
-          <t xml:space="preserve">shenil</t>
+          <t xml:space="preserve">Melvin</t>
         </is>
       </c>
       <c r="D54" s="65">
-        <v>9188866751</v>
+        <v>8075468546</v>
       </c>
       <c t="inlineStr" r="E54">
         <is>
-          <t xml:space="preserve">28-12-2025</t>
+          <t xml:space="preserve">15-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F54">
         <is>
-          <t xml:space="preserve">suhail ilyas</t>
+          <t xml:space="preserve">Fayas E N</t>
         </is>
       </c>
       <c t="inlineStr" r="G54">
@@ -3013,12 +3013,12 @@
       </c>
       <c t="inlineStr" r="H54">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">PRICING</t>
         </is>
       </c>
       <c t="inlineStr" r="I54">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">RENT TO HIGH</t>
         </is>
       </c>
       <c t="inlineStr" r="J54">
@@ -3028,7 +3028,7 @@
       </c>
       <c t="inlineStr" r="K54">
         <is>
-          <t xml:space="preserve">black non premium bulk booking not available</t>
+          <t xml:space="preserve">SIZE WAS OKEY BUT RENT WAS NOT AFFORDABLE BY THE CUSTOMER</t>
         </is>
       </c>
     </row>
@@ -3038,20 +3038,20 @@
       </c>
       <c t="inlineStr" r="B55">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">15-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C55">
         <is>
-          <t xml:space="preserve">eldho</t>
+          <t xml:space="preserve">Althaj</t>
         </is>
       </c>
       <c r="D55" s="65">
-        <v>9020297279</v>
+        <v>7559957569</v>
       </c>
       <c t="inlineStr" r="E55">
         <is>
-          <t xml:space="preserve">03-01-2026</t>
+          <t xml:space="preserve">29-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F55">
@@ -3071,7 +3071,7 @@
       </c>
       <c t="inlineStr" r="I55">
         <is>
-          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J55">
@@ -3081,7 +3081,7 @@
       </c>
       <c t="inlineStr" r="K55">
         <is>
-          <t xml:space="preserve">blackil design work olla single piece not available</t>
+          <t xml:space="preserve">product not available on that date</t>
         </is>
       </c>
     </row>
@@ -3091,25 +3091,25 @@
       </c>
       <c t="inlineStr" r="B56">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">15-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C56">
         <is>
-          <t xml:space="preserve">bincy</t>
+          <t xml:space="preserve">georgi</t>
         </is>
       </c>
       <c r="D56" s="65">
-        <v>8714154578</v>
+        <v>9562393568</v>
       </c>
       <c t="inlineStr" r="E56">
         <is>
-          <t xml:space="preserve">05-03-2026</t>
+          <t xml:space="preserve">16-05-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F56">
         <is>
-          <t xml:space="preserve">AKHIL K S</t>
+          <t xml:space="preserve">Madhavan p</t>
         </is>
       </c>
       <c t="inlineStr" r="G56">
@@ -3134,7 +3134,7 @@
       </c>
       <c t="inlineStr" r="K56">
         <is>
-          <t xml:space="preserve">function date fixed akkiyattila dress trial cheythatunde leave anusarich parayum eth dress vennam enn</t>
+          <t xml:space="preserve">wedding in may.. they just explore the product details..</t>
         </is>
       </c>
     </row>
@@ -3144,25 +3144,25 @@
       </c>
       <c t="inlineStr" r="B57">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">15-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C57">
         <is>
-          <t xml:space="preserve">Melvin</t>
+          <t xml:space="preserve">arjun</t>
         </is>
       </c>
       <c r="D57" s="65">
-        <v>8075468546</v>
+        <v>9539531728</v>
       </c>
       <c t="inlineStr" r="E57">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">04-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F57">
         <is>
-          <t xml:space="preserve">Fayas E N</t>
+          <t xml:space="preserve">Madhavan p</t>
         </is>
       </c>
       <c t="inlineStr" r="G57">
@@ -3172,12 +3172,12 @@
       </c>
       <c t="inlineStr" r="H57">
         <is>
-          <t xml:space="preserve">PRICING</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I57">
         <is>
-          <t xml:space="preserve">RENT TO HIGH</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J57">
@@ -3187,7 +3187,7 @@
       </c>
       <c t="inlineStr" r="K57">
         <is>
-          <t xml:space="preserve">SIZE WAS OKEY BUT RENT WAS NOT AFFORDABLE BY THE CUSTOMER</t>
+          <t xml:space="preserve">colour not available</t>
         </is>
       </c>
     </row>
@@ -3202,20 +3202,20 @@
       </c>
       <c t="inlineStr" r="C58">
         <is>
-          <t xml:space="preserve">Althaj</t>
+          <t xml:space="preserve">Charls</t>
         </is>
       </c>
       <c r="D58" s="65">
-        <v>7559957569</v>
+        <v>7025243407</v>
       </c>
       <c t="inlineStr" r="E58">
         <is>
-          <t xml:space="preserve">29-12-2025</t>
+          <t xml:space="preserve">27-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F58">
         <is>
-          <t xml:space="preserve">AKHIL K S</t>
+          <t xml:space="preserve">Madhavan p</t>
         </is>
       </c>
       <c t="inlineStr" r="G58">
@@ -3230,7 +3230,7 @@
       </c>
       <c t="inlineStr" r="I58">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J58">
@@ -3240,7 +3240,7 @@
       </c>
       <c t="inlineStr" r="K58">
         <is>
-          <t xml:space="preserve">product not available on that date</t>
+          <t xml:space="preserve">products not available for that date..</t>
         </is>
       </c>
     </row>
@@ -3255,20 +3255,20 @@
       </c>
       <c t="inlineStr" r="C59">
         <is>
-          <t xml:space="preserve">georgi</t>
+          <t xml:space="preserve">rithu</t>
         </is>
       </c>
       <c r="D59" s="65">
-        <v>9562393568</v>
+        <v>7034940790</v>
       </c>
       <c t="inlineStr" r="E59">
         <is>
-          <t xml:space="preserve">16-05-2026</t>
+          <t xml:space="preserve">18-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F59">
         <is>
-          <t xml:space="preserve">Madhavan p</t>
+          <t xml:space="preserve">suhail ilyas</t>
         </is>
       </c>
       <c t="inlineStr" r="G59">
@@ -3278,12 +3278,12 @@
       </c>
       <c t="inlineStr" r="H59">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I59">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J59">
@@ -3293,7 +3293,7 @@
       </c>
       <c t="inlineStr" r="K59">
         <is>
-          <t xml:space="preserve">wedding in may.. they just explore the product details..</t>
+          <t xml:space="preserve">model not available</t>
         </is>
       </c>
     </row>
@@ -3308,20 +3308,20 @@
       </c>
       <c t="inlineStr" r="C60">
         <is>
-          <t xml:space="preserve">arjun</t>
+          <t xml:space="preserve">Binosh</t>
         </is>
       </c>
       <c r="D60" s="65">
-        <v>9539531728</v>
+        <v>8075879638</v>
       </c>
       <c t="inlineStr" r="E60">
         <is>
-          <t xml:space="preserve">04-01-2026</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F60">
         <is>
-          <t xml:space="preserve">Madhavan p</t>
+          <t xml:space="preserve">Fayas E N</t>
         </is>
       </c>
       <c t="inlineStr" r="G60">
@@ -3336,7 +3336,7 @@
       </c>
       <c t="inlineStr" r="I60">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
         </is>
       </c>
       <c t="inlineStr" r="J60">
@@ -3346,7 +3346,7 @@
       </c>
       <c t="inlineStr" r="K60">
         <is>
-          <t xml:space="preserve">colour not available</t>
+          <t xml:space="preserve">will come tommorrow for booking</t>
         </is>
       </c>
     </row>
@@ -3361,20 +3361,20 @@
       </c>
       <c t="inlineStr" r="C61">
         <is>
-          <t xml:space="preserve">Charls</t>
+          <t xml:space="preserve">muhameed</t>
         </is>
       </c>
       <c r="D61" s="65">
-        <v>7025243407</v>
+        <v>9072368000</v>
       </c>
       <c t="inlineStr" r="E61">
         <is>
-          <t xml:space="preserve">27-01-2026</t>
+          <t xml:space="preserve">28-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F61">
         <is>
-          <t xml:space="preserve">Madhavan p</t>
+          <t xml:space="preserve">ABHISHEK</t>
         </is>
       </c>
       <c t="inlineStr" r="G61">
@@ -3389,7 +3389,7 @@
       </c>
       <c t="inlineStr" r="I61">
         <is>
-          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+          <t xml:space="preserve">Product Already Booked</t>
         </is>
       </c>
       <c t="inlineStr" r="J61">
@@ -3399,7 +3399,7 @@
       </c>
       <c t="inlineStr" r="K61">
         <is>
-          <t xml:space="preserve">products not available for that date..</t>
+          <t xml:space="preserve">They need same colour suit but collect most product are booked on that days trail 4 to 5 sets but product are already booked</t>
         </is>
       </c>
     </row>
@@ -3414,20 +3414,20 @@
       </c>
       <c t="inlineStr" r="C62">
         <is>
-          <t xml:space="preserve">rithu</t>
+          <t xml:space="preserve">Sabin</t>
         </is>
       </c>
       <c r="D62" s="65">
-        <v>7034940790</v>
+        <v>7736345309</v>
       </c>
       <c t="inlineStr" r="E62">
         <is>
-          <t xml:space="preserve">18-12-2025</t>
+          <t xml:space="preserve">01-02-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F62">
         <is>
-          <t xml:space="preserve">suhail ilyas</t>
+          <t xml:space="preserve">Fayas E N</t>
         </is>
       </c>
       <c t="inlineStr" r="G62">
@@ -3437,12 +3437,12 @@
       </c>
       <c t="inlineStr" r="H62">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I62">
         <is>
-          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
         </is>
       </c>
       <c t="inlineStr" r="J62">
@@ -3452,7 +3452,7 @@
       </c>
       <c t="inlineStr" r="K62">
         <is>
-          <t xml:space="preserve">model not available</t>
+          <t xml:space="preserve">46 size is not available for needed colour.</t>
         </is>
       </c>
     </row>
@@ -3467,20 +3467,20 @@
       </c>
       <c t="inlineStr" r="C63">
         <is>
-          <t xml:space="preserve">Akash</t>
+          <t xml:space="preserve">customer not ready for mentioning</t>
         </is>
       </c>
       <c r="D63" s="65">
-        <v>123456789</v>
+        <v>1234567890</v>
       </c>
       <c t="inlineStr" r="E63">
         <is>
-          <t xml:space="preserve">02-12-2026</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F63">
         <is>
-          <t xml:space="preserve">HEMANTH K</t>
+          <t xml:space="preserve">Fayas E N</t>
         </is>
       </c>
       <c t="inlineStr" r="G63">
@@ -3490,12 +3490,12 @@
       </c>
       <c t="inlineStr" r="H63">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I63">
         <is>
-          <t xml:space="preserve">SIZE TOO LARGE</t>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J63">
@@ -3505,7 +3505,7 @@
       </c>
       <c t="inlineStr" r="K63">
         <is>
-          <t xml:space="preserve">need 58 size customer not interested to give number</t>
+          <t xml:space="preserve">THE REQUIRED MODEL CUSTOMER ENQUIRED WAS NOT AVAILABLE HERE.</t>
         </is>
       </c>
     </row>
@@ -3515,25 +3515,25 @@
       </c>
       <c t="inlineStr" r="B64">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">16-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C64">
         <is>
-          <t xml:space="preserve">ajay</t>
+          <t xml:space="preserve">ashik</t>
         </is>
       </c>
       <c r="D64" s="65">
-        <v>9496253497</v>
+        <v>9037260665</v>
       </c>
       <c t="inlineStr" r="E64">
         <is>
-          <t xml:space="preserve">09-01-2026</t>
+          <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F64">
         <is>
-          <t xml:space="preserve">HEMANTH K</t>
+          <t xml:space="preserve">AKHIL K S</t>
         </is>
       </c>
       <c t="inlineStr" r="G64">
@@ -3543,12 +3543,12 @@
       </c>
       <c t="inlineStr" r="H64">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I64">
         <is>
-          <t xml:space="preserve">SIZE TOO LARGE</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J64">
@@ -3558,7 +3558,7 @@
       </c>
       <c t="inlineStr" r="K64">
         <is>
-          <t xml:space="preserve">46 size not available</t>
+          <t xml:space="preserve">required model already booked not available</t>
         </is>
       </c>
     </row>
@@ -3568,20 +3568,20 @@
       </c>
       <c t="inlineStr" r="B65">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">16-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C65">
         <is>
-          <t xml:space="preserve">Binosh</t>
+          <t xml:space="preserve">Eldhos</t>
         </is>
       </c>
       <c r="D65" s="65">
-        <v>8075879638</v>
+        <v>8592931127</v>
       </c>
       <c t="inlineStr" r="E65">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">12-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F65">
@@ -3601,7 +3601,7 @@
       </c>
       <c t="inlineStr" r="I65">
         <is>
-          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J65">
@@ -3611,7 +3611,7 @@
       </c>
       <c t="inlineStr" r="K65">
         <is>
-          <t xml:space="preserve">will come tommorrow for booking</t>
+          <t xml:space="preserve">will visit soon and book the product. color issues was there. non premium item</t>
         </is>
       </c>
     </row>
@@ -3621,25 +3621,25 @@
       </c>
       <c t="inlineStr" r="B66">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">16-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C66">
         <is>
-          <t xml:space="preserve">muhameed</t>
+          <t xml:space="preserve">Swalih</t>
         </is>
       </c>
       <c r="D66" s="65">
-        <v>9072368000</v>
+        <v>7594903470</v>
       </c>
       <c t="inlineStr" r="E66">
         <is>
-          <t xml:space="preserve">28-12-2025</t>
+          <t xml:space="preserve">04-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F66">
         <is>
-          <t xml:space="preserve">ABHISHEK</t>
+          <t xml:space="preserve">Madhavan p</t>
         </is>
       </c>
       <c t="inlineStr" r="G66">
@@ -3654,7 +3654,7 @@
       </c>
       <c t="inlineStr" r="I66">
         <is>
-          <t xml:space="preserve">Product Already Booked</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J66">
@@ -3664,7 +3664,7 @@
       </c>
       <c t="inlineStr" r="K66">
         <is>
-          <t xml:space="preserve">They need same colour suit but collect most product are booked on that days trail 4 to 5 sets but product are already booked</t>
+          <t xml:space="preserve">product not available in that size..</t>
         </is>
       </c>
     </row>
@@ -3674,25 +3674,25 @@
       </c>
       <c t="inlineStr" r="B67">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">16-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C67">
         <is>
-          <t xml:space="preserve">Sabin</t>
+          <t xml:space="preserve">yashik</t>
         </is>
       </c>
       <c r="D67" s="65">
-        <v>7736345309</v>
+        <v>8606342468</v>
       </c>
       <c t="inlineStr" r="E67">
         <is>
-          <t xml:space="preserve">01-02-2026</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F67">
         <is>
-          <t xml:space="preserve">Fayas E N</t>
+          <t xml:space="preserve">Vipin V</t>
         </is>
       </c>
       <c t="inlineStr" r="G67">
@@ -3702,12 +3702,12 @@
       </c>
       <c t="inlineStr" r="H67">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I67">
         <is>
-          <t xml:space="preserve">SIZE TOO SMALL</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J67">
@@ -3717,7 +3717,7 @@
       </c>
       <c t="inlineStr" r="K67">
         <is>
-          <t xml:space="preserve">46 size is not available for needed colour.</t>
+          <t xml:space="preserve">pistha green bangala aane nokkunney suit colour available ane bangala ane vendath</t>
         </is>
       </c>
     </row>
@@ -3727,25 +3727,25 @@
       </c>
       <c t="inlineStr" r="B68">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">16-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C68">
         <is>
-          <t xml:space="preserve">customer not ready for mentioning</t>
+          <t xml:space="preserve">Arshad</t>
         </is>
       </c>
       <c r="D68" s="65">
-        <v>1234567890</v>
+        <v>7736458418</v>
       </c>
       <c t="inlineStr" r="E68">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">04-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F68">
         <is>
-          <t xml:space="preserve">Fayas E N</t>
+          <t xml:space="preserve">AKHIL K S</t>
         </is>
       </c>
       <c t="inlineStr" r="G68">
@@ -3755,12 +3755,12 @@
       </c>
       <c t="inlineStr" r="H68">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I68">
         <is>
-          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J68">
@@ -3770,7 +3770,7 @@
       </c>
       <c t="inlineStr" r="K68">
         <is>
-          <t xml:space="preserve">THE REQUIRED MODEL CUSTOMER ENQUIRED WAS NOT AVAILABLE HERE.</t>
+          <t xml:space="preserve">family ayyite discuss cheythande varum</t>
         </is>
       </c>
     </row>
@@ -3785,20 +3785,20 @@
       </c>
       <c t="inlineStr" r="C69">
         <is>
-          <t xml:space="preserve">ashik</t>
+          <t xml:space="preserve">Afras</t>
         </is>
       </c>
       <c r="D69" s="65">
-        <v>9037260665</v>
+        <v>9526236699</v>
       </c>
       <c t="inlineStr" r="E69">
         <is>
-          <t xml:space="preserve">22-12-2025</t>
+          <t xml:space="preserve">28-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F69">
         <is>
-          <t xml:space="preserve">AKHIL K S</t>
+          <t xml:space="preserve">Muhammed Niyas Ns</t>
         </is>
       </c>
       <c t="inlineStr" r="G69">
@@ -3808,12 +3808,12 @@
       </c>
       <c t="inlineStr" r="H69">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I69">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J69">
@@ -3823,7 +3823,7 @@
       </c>
       <c t="inlineStr" r="K69">
         <is>
-          <t xml:space="preserve">required model already booked not available</t>
+          <t xml:space="preserve">Alredy bookd in edapally</t>
         </is>
       </c>
     </row>
@@ -3838,20 +3838,20 @@
       </c>
       <c t="inlineStr" r="C70">
         <is>
-          <t xml:space="preserve">Eldhos</t>
+          <t xml:space="preserve">Saxon</t>
         </is>
       </c>
       <c r="D70" s="65">
-        <v>8592931127</v>
+        <v>8590724045</v>
       </c>
       <c t="inlineStr" r="E70">
         <is>
-          <t xml:space="preserve">12-01-2026</t>
+          <t xml:space="preserve">27-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F70">
         <is>
-          <t xml:space="preserve">Fayas E N</t>
+          <t xml:space="preserve">Muhammed Niyas Ns</t>
         </is>
       </c>
       <c t="inlineStr" r="G70">
@@ -3861,12 +3861,12 @@
       </c>
       <c t="inlineStr" r="H70">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I70">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J70">
@@ -3876,7 +3876,7 @@
       </c>
       <c t="inlineStr" r="K70">
         <is>
-          <t xml:space="preserve">will visit soon and book the product. color issues was there. non premium item</t>
+          <t xml:space="preserve">White indowestern not available 40 size</t>
         </is>
       </c>
     </row>
@@ -3891,11 +3891,11 @@
       </c>
       <c t="inlineStr" r="C71">
         <is>
-          <t xml:space="preserve">aswim</t>
+          <t xml:space="preserve">Thanveer</t>
         </is>
       </c>
       <c r="D71" s="65">
-        <v>1111111111</v>
+        <v>9947874867</v>
       </c>
       <c t="inlineStr" r="E71">
         <is>
@@ -3904,7 +3904,7 @@
       </c>
       <c t="inlineStr" r="F71">
         <is>
-          <t xml:space="preserve">HEMANTH K</t>
+          <t xml:space="preserve">AKHIL K S</t>
         </is>
       </c>
       <c t="inlineStr" r="G71">
@@ -3914,12 +3914,12 @@
       </c>
       <c t="inlineStr" r="H71">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I71">
         <is>
-          <t xml:space="preserve">SIZE TOO SMALL</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J71">
@@ -3929,7 +3929,7 @@
       </c>
       <c t="inlineStr" r="K71">
         <is>
-          <t xml:space="preserve">32 size</t>
+          <t xml:space="preserve">Saturday vanne confirm cheyum</t>
         </is>
       </c>
     </row>
@@ -3944,20 +3944,20 @@
       </c>
       <c t="inlineStr" r="C72">
         <is>
-          <t xml:space="preserve">Swalih</t>
+          <t xml:space="preserve">joreg</t>
         </is>
       </c>
       <c r="D72" s="65">
-        <v>7594903470</v>
+        <v>7592553007</v>
       </c>
       <c t="inlineStr" r="E72">
         <is>
-          <t xml:space="preserve">04-01-2026</t>
+          <t xml:space="preserve">28-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F72">
         <is>
-          <t xml:space="preserve">Madhavan p</t>
+          <t xml:space="preserve">DEVADETH R</t>
         </is>
       </c>
       <c t="inlineStr" r="G72">
@@ -3967,12 +3967,12 @@
       </c>
       <c t="inlineStr" r="H72">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I72">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J72">
@@ -3982,7 +3982,7 @@
       </c>
       <c t="inlineStr" r="K72">
         <is>
-          <t xml:space="preserve">product not available in that size..</t>
+          <t xml:space="preserve">discuss with family and they will come back in future</t>
         </is>
       </c>
     </row>
@@ -3997,20 +3997,20 @@
       </c>
       <c t="inlineStr" r="C73">
         <is>
-          <t xml:space="preserve">pink suit normal</t>
+          <t xml:space="preserve">vishnu</t>
         </is>
       </c>
       <c r="D73" s="65">
-        <v>8891895652</v>
+        <v>9995931223</v>
       </c>
       <c t="inlineStr" r="E73">
         <is>
-          <t xml:space="preserve">22-01-2026</t>
+          <t xml:space="preserve">26-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F73">
         <is>
-          <t xml:space="preserve">HEMANTH K</t>
+          <t xml:space="preserve">Fayas E N</t>
         </is>
       </c>
       <c t="inlineStr" r="G73">
@@ -4020,12 +4020,12 @@
       </c>
       <c t="inlineStr" r="H73">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRICING</t>
         </is>
       </c>
       <c t="inlineStr" r="I73">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">RENT TO HIGH</t>
         </is>
       </c>
       <c t="inlineStr" r="J73">
@@ -4035,7 +4035,7 @@
       </c>
       <c t="inlineStr" r="K73">
         <is>
-          <t xml:space="preserve">WILL VISIT STORE TOMORROW</t>
+          <t xml:space="preserve">Customer was facing rent price issue.rent was not okey for customer.</t>
         </is>
       </c>
     </row>
@@ -4050,15 +4050,15 @@
       </c>
       <c t="inlineStr" r="C74">
         <is>
-          <t xml:space="preserve">yashik</t>
+          <t xml:space="preserve">riju johnson</t>
         </is>
       </c>
       <c r="D74" s="65">
-        <v>8606342468</v>
+        <v>8921576245</v>
       </c>
       <c t="inlineStr" r="E74">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">10-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F74">
@@ -4073,12 +4073,12 @@
       </c>
       <c t="inlineStr" r="H74">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I74">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
       <c t="inlineStr" r="J74">
@@ -4088,7 +4088,7 @@
       </c>
       <c t="inlineStr" r="K74">
         <is>
-          <t xml:space="preserve">pistha green bangala aane nokkunney suit colour available ane bangala ane vendath</t>
+          <t xml:space="preserve">family ayit onnumkoodi nokkit nale vera paraju</t>
         </is>
       </c>
     </row>
@@ -4103,20 +4103,20 @@
       </c>
       <c t="inlineStr" r="C75">
         <is>
-          <t xml:space="preserve">Arshad</t>
+          <t xml:space="preserve">lavanya</t>
         </is>
       </c>
       <c r="D75" s="65">
-        <v>7736458418</v>
+        <v>8904482775</v>
       </c>
       <c t="inlineStr" r="E75">
         <is>
-          <t xml:space="preserve">04-01-2026</t>
+          <t xml:space="preserve">20-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F75">
         <is>
-          <t xml:space="preserve">AKHIL K S</t>
+          <t xml:space="preserve">Vipin V</t>
         </is>
       </c>
       <c t="inlineStr" r="G75">
@@ -4126,12 +4126,12 @@
       </c>
       <c t="inlineStr" r="H75">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I75">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J75">
@@ -4141,7 +4141,7 @@
       </c>
       <c t="inlineStr" r="K75">
         <is>
-          <t xml:space="preserve">family ayyite discuss cheythande varum</t>
+          <t xml:space="preserve">plain black 34 over size aane kid's suit ok ane but work ellatha typ venam</t>
         </is>
       </c>
     </row>
@@ -4151,25 +4151,25 @@
       </c>
       <c t="inlineStr" r="B76">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C76">
         <is>
-          <t xml:space="preserve">Afras</t>
+          <t xml:space="preserve">suhail</t>
         </is>
       </c>
       <c r="D76" s="65">
-        <v>9526236699</v>
+        <v>8137912784</v>
       </c>
       <c t="inlineStr" r="E76">
         <is>
-          <t xml:space="preserve">28-12-2025</t>
+          <t xml:space="preserve">18-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F76">
         <is>
-          <t xml:space="preserve">Muhammed Niyas Ns</t>
+          <t xml:space="preserve">Fayas E N</t>
         </is>
       </c>
       <c t="inlineStr" r="G76">
@@ -4179,22 +4179,17 @@
       </c>
       <c t="inlineStr" r="H76">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I76">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
       <c t="inlineStr" r="J76">
         <is>
           <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="K76">
-        <is>
-          <t xml:space="preserve">Alredy bookd in edapally</t>
         </is>
       </c>
     </row>
@@ -4204,25 +4199,25 @@
       </c>
       <c t="inlineStr" r="B77">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C77">
         <is>
-          <t xml:space="preserve">Saxon</t>
+          <t xml:space="preserve">mohana krishnan</t>
         </is>
       </c>
       <c r="D77" s="65">
-        <v>8590724045</v>
+        <v>9995805831</v>
       </c>
       <c t="inlineStr" r="E77">
         <is>
-          <t xml:space="preserve">27-12-2025</t>
+          <t xml:space="preserve">31-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F77">
         <is>
-          <t xml:space="preserve">Muhammed Niyas Ns</t>
+          <t xml:space="preserve">DEVADETH R</t>
         </is>
       </c>
       <c t="inlineStr" r="G77">
@@ -4232,12 +4227,12 @@
       </c>
       <c t="inlineStr" r="H77">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I77">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
       <c t="inlineStr" r="J77">
@@ -4247,7 +4242,7 @@
       </c>
       <c t="inlineStr" r="K77">
         <is>
-          <t xml:space="preserve">White indowestern not available 40 size</t>
+          <t xml:space="preserve">disscus with family and confirm</t>
         </is>
       </c>
     </row>
@@ -4257,25 +4252,25 @@
       </c>
       <c t="inlineStr" r="B78">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C78">
         <is>
-          <t xml:space="preserve">Thanveer</t>
+          <t xml:space="preserve">Abees</t>
         </is>
       </c>
       <c r="D78" s="65">
-        <v>9947874867</v>
+        <v>7025027825</v>
       </c>
       <c t="inlineStr" r="E78">
         <is>
-          <t xml:space="preserve">10-01-2026</t>
+          <t xml:space="preserve">25-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F78">
         <is>
-          <t xml:space="preserve">AKHIL K S</t>
+          <t xml:space="preserve">Muhammed Niyas Ns</t>
         </is>
       </c>
       <c t="inlineStr" r="G78">
@@ -4285,12 +4280,12 @@
       </c>
       <c t="inlineStr" r="H78">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I78">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J78">
@@ -4300,7 +4295,7 @@
       </c>
       <c t="inlineStr" r="K78">
         <is>
-          <t xml:space="preserve">Saturday vanne confirm cheyum</t>
+          <t xml:space="preserve">product not available</t>
         </is>
       </c>
     </row>
@@ -4310,25 +4305,25 @@
       </c>
       <c t="inlineStr" r="B79">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C79">
         <is>
-          <t xml:space="preserve">joreg</t>
+          <t xml:space="preserve">philemon</t>
         </is>
       </c>
       <c r="D79" s="65">
-        <v>7592553007</v>
+        <v>8113834686</v>
       </c>
       <c t="inlineStr" r="E79">
         <is>
-          <t xml:space="preserve">28-01-2026</t>
+          <t xml:space="preserve">29-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F79">
         <is>
-          <t xml:space="preserve">DEVADETH R</t>
+          <t xml:space="preserve">AKHIL K S</t>
         </is>
       </c>
       <c t="inlineStr" r="G79">
@@ -4338,12 +4333,12 @@
       </c>
       <c t="inlineStr" r="H79">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I79">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J79">
@@ -4353,7 +4348,7 @@
       </c>
       <c t="inlineStr" r="K79">
         <is>
-          <t xml:space="preserve">discuss with family and they will come back in future</t>
+          <t xml:space="preserve">product is already booked</t>
         </is>
       </c>
     </row>
@@ -4363,25 +4358,25 @@
       </c>
       <c t="inlineStr" r="B80">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C80">
         <is>
-          <t xml:space="preserve">rashid</t>
+          <t xml:space="preserve">Ajay</t>
         </is>
       </c>
       <c r="D80" s="65">
-        <v>9744315737</v>
+        <v>7994994767</v>
       </c>
       <c t="inlineStr" r="E80">
         <is>
-          <t xml:space="preserve">04-01-2026</t>
+          <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F80">
         <is>
-          <t xml:space="preserve">HEMANTH K</t>
+          <t xml:space="preserve">Muhammed Niyas Ns</t>
         </is>
       </c>
       <c t="inlineStr" r="G80">
@@ -4391,12 +4386,12 @@
       </c>
       <c t="inlineStr" r="H80">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I80">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J80">
@@ -4406,7 +4401,7 @@
       </c>
       <c t="inlineStr" r="K80">
         <is>
-          <t xml:space="preserve">will come jan 1</t>
+          <t xml:space="preserve">formal suite not availabl that date</t>
         </is>
       </c>
     </row>
@@ -4416,25 +4411,25 @@
       </c>
       <c t="inlineStr" r="B81">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">18-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C81">
         <is>
-          <t xml:space="preserve">vishnu</t>
+          <t xml:space="preserve">Lijo</t>
         </is>
       </c>
       <c r="D81" s="65">
-        <v>9995931223</v>
+        <v>9746762012</v>
       </c>
       <c t="inlineStr" r="E81">
         <is>
-          <t xml:space="preserve">26-01-2026</t>
+          <t xml:space="preserve">27-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F81">
         <is>
-          <t xml:space="preserve">Fayas E N</t>
+          <t xml:space="preserve">Muhammed Niyas Ns</t>
         </is>
       </c>
       <c t="inlineStr" r="G81">
@@ -4444,12 +4439,12 @@
       </c>
       <c t="inlineStr" r="H81">
         <is>
-          <t xml:space="preserve">PRICING</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I81">
         <is>
-          <t xml:space="preserve">RENT TO HIGH</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J81">
@@ -4459,7 +4454,7 @@
       </c>
       <c t="inlineStr" r="K81">
         <is>
-          <t xml:space="preserve">Customer was facing rent price issue.rent was not okey for customer.</t>
+          <t xml:space="preserve">grape formal suite</t>
         </is>
       </c>
     </row>
@@ -4469,25 +4464,25 @@
       </c>
       <c t="inlineStr" r="B82">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">18-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C82">
         <is>
-          <t xml:space="preserve">riju johnson</t>
+          <t xml:space="preserve">kiran</t>
         </is>
       </c>
       <c r="D82" s="65">
-        <v>8921576245</v>
+        <v>8089161748</v>
       </c>
       <c t="inlineStr" r="E82">
         <is>
-          <t xml:space="preserve">10-01-2026</t>
+          <t xml:space="preserve">29-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F82">
         <is>
-          <t xml:space="preserve">Vipin V</t>
+          <t xml:space="preserve">AKHIL K S</t>
         </is>
       </c>
       <c t="inlineStr" r="G82">
@@ -4497,12 +4492,12 @@
       </c>
       <c t="inlineStr" r="H82">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I82">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J82">
@@ -4512,7 +4507,7 @@
       </c>
       <c t="inlineStr" r="K82">
         <is>
-          <t xml:space="preserve">family ayit onnumkoodi nokkit nale vera paraju</t>
+          <t xml:space="preserve">products already booked</t>
         </is>
       </c>
     </row>
@@ -4522,25 +4517,25 @@
       </c>
       <c t="inlineStr" r="B83">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">18-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C83">
         <is>
-          <t xml:space="preserve">lavanya</t>
+          <t xml:space="preserve">sahal</t>
         </is>
       </c>
       <c r="D83" s="65">
-        <v>8904482775</v>
+        <v>9605184290</v>
       </c>
       <c t="inlineStr" r="E83">
         <is>
-          <t xml:space="preserve">20-12-2025</t>
+          <t xml:space="preserve">15-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F83">
         <is>
-          <t xml:space="preserve">Vipin V</t>
+          <t xml:space="preserve">Madhavan p</t>
         </is>
       </c>
       <c t="inlineStr" r="G83">
@@ -4555,7 +4550,7 @@
       </c>
       <c t="inlineStr" r="I83">
         <is>
-          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+          <t xml:space="preserve">Product Already Booked</t>
         </is>
       </c>
       <c t="inlineStr" r="J83">
@@ -4565,7 +4560,7 @@
       </c>
       <c t="inlineStr" r="K83">
         <is>
-          <t xml:space="preserve">plain black 34 over size aane kid's suit ok ane but work ellatha typ venam</t>
+          <t xml:space="preserve">product not available that date..</t>
         </is>
       </c>
     </row>
@@ -4575,25 +4570,25 @@
       </c>
       <c t="inlineStr" r="B84">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">18-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C84">
         <is>
-          <t xml:space="preserve">salma</t>
+          <t xml:space="preserve">jabeel</t>
         </is>
       </c>
       <c r="D84" s="65">
-        <v>8086676767</v>
+        <v>7025147357</v>
       </c>
       <c t="inlineStr" r="E84">
         <is>
-          <t xml:space="preserve">21-01-2026</t>
+          <t xml:space="preserve">25-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F84">
         <is>
-          <t xml:space="preserve">HEMANTH K</t>
+          <t xml:space="preserve">Madhavan p</t>
         </is>
       </c>
       <c t="inlineStr" r="G84">
@@ -4608,7 +4603,7 @@
       </c>
       <c t="inlineStr" r="I84">
         <is>
-          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+          <t xml:space="preserve">Product Already Booked</t>
         </is>
       </c>
       <c t="inlineStr" r="J84">
@@ -4618,7 +4613,7 @@
       </c>
       <c t="inlineStr" r="K84">
         <is>
-          <t xml:space="preserve">KURTHA</t>
+          <t xml:space="preserve">black suits already booked on that date..</t>
         </is>
       </c>
     </row>
@@ -4628,25 +4623,25 @@
       </c>
       <c t="inlineStr" r="B85">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">18-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C85">
         <is>
-          <t xml:space="preserve">suhail</t>
+          <t xml:space="preserve">babu</t>
         </is>
       </c>
       <c r="D85" s="65">
-        <v>8137912784</v>
+        <v>7909132845</v>
       </c>
       <c t="inlineStr" r="E85">
         <is>
-          <t xml:space="preserve">18-01-2026</t>
+          <t xml:space="preserve">29-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F85">
         <is>
-          <t xml:space="preserve">Fayas E N</t>
+          <t xml:space="preserve">Madhavan p</t>
         </is>
       </c>
       <c t="inlineStr" r="G85">
@@ -4656,17 +4651,22 @@
       </c>
       <c t="inlineStr" r="H85">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I85">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
         </is>
       </c>
       <c t="inlineStr" r="J85">
         <is>
           <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K85">
+        <is>
+          <t xml:space="preserve">size vey tyt</t>
         </is>
       </c>
     </row>
@@ -4676,25 +4676,25 @@
       </c>
       <c t="inlineStr" r="B86">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">18-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C86">
         <is>
-          <t xml:space="preserve">joyal</t>
+          <t xml:space="preserve">Jacob</t>
         </is>
       </c>
       <c r="D86" s="65">
-        <v>7736692907</v>
+        <v>8870707234</v>
       </c>
       <c t="inlineStr" r="E86">
         <is>
-          <t xml:space="preserve">28-12-2025</t>
+          <t xml:space="preserve">08-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F86">
         <is>
-          <t xml:space="preserve">HEMANTH K</t>
+          <t xml:space="preserve">Fayas E N</t>
         </is>
       </c>
       <c t="inlineStr" r="G86">
@@ -4704,12 +4704,12 @@
       </c>
       <c t="inlineStr" r="H86">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I86">
         <is>
-          <t xml:space="preserve">SIZE TOO LARGE</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J86">
@@ -4719,7 +4719,7 @@
       </c>
       <c t="inlineStr" r="K86">
         <is>
-          <t xml:space="preserve">46 in suits</t>
+          <t xml:space="preserve">Enquiry for Warehouse bulk.</t>
         </is>
       </c>
     </row>
@@ -4729,25 +4729,25 @@
       </c>
       <c t="inlineStr" r="B87">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">19-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C87">
         <is>
-          <t xml:space="preserve">mohana krishnan</t>
+          <t xml:space="preserve">bazil</t>
         </is>
       </c>
       <c r="D87" s="65">
-        <v>9995805831</v>
+        <v>8281989122</v>
       </c>
       <c t="inlineStr" r="E87">
         <is>
-          <t xml:space="preserve">31-12-2025</t>
+          <t xml:space="preserve">01-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F87">
         <is>
-          <t xml:space="preserve">DEVADETH R</t>
+          <t xml:space="preserve">AKHIL K S</t>
         </is>
       </c>
       <c t="inlineStr" r="G87">
@@ -4757,12 +4757,12 @@
       </c>
       <c t="inlineStr" r="H87">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I87">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J87">
@@ -4772,7 +4772,7 @@
       </c>
       <c t="inlineStr" r="K87">
         <is>
-          <t xml:space="preserve">disscus with family and confirm</t>
+          <t xml:space="preserve">required design not available</t>
         </is>
       </c>
     </row>
@@ -4782,25 +4782,25 @@
       </c>
       <c t="inlineStr" r="B88">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">19-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C88">
         <is>
-          <t xml:space="preserve">Abees</t>
+          <t xml:space="preserve">ranish</t>
         </is>
       </c>
       <c r="D88" s="65">
-        <v>7025027825</v>
+        <v>9496948267</v>
       </c>
       <c t="inlineStr" r="E88">
         <is>
-          <t xml:space="preserve">25-12-2025</t>
+          <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F88">
         <is>
-          <t xml:space="preserve">Muhammed Niyas Ns</t>
+          <t xml:space="preserve">Madhavan p</t>
         </is>
       </c>
       <c t="inlineStr" r="G88">
@@ -4810,12 +4810,12 @@
       </c>
       <c t="inlineStr" r="H88">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">PRICING</t>
         </is>
       </c>
       <c t="inlineStr" r="I88">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">RENT TO HIGH</t>
         </is>
       </c>
       <c t="inlineStr" r="J88">
@@ -4825,7 +4825,7 @@
       </c>
       <c t="inlineStr" r="K88">
         <is>
-          <t xml:space="preserve">product not available</t>
+          <t xml:space="preserve">they looking for non premium suit for 2 hour's of program. rent is to high..</t>
         </is>
       </c>
     </row>
@@ -4835,25 +4835,25 @@
       </c>
       <c t="inlineStr" r="B89">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">19-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C89">
         <is>
-          <t xml:space="preserve">Akshay</t>
+          <t xml:space="preserve">roshna</t>
         </is>
       </c>
       <c r="D89" s="65">
-        <v>1234567899</v>
+        <v>8589090662</v>
       </c>
       <c t="inlineStr" r="E89">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">27-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F89">
         <is>
-          <t xml:space="preserve">HEMANTH K</t>
+          <t xml:space="preserve">Madhavan p</t>
         </is>
       </c>
       <c t="inlineStr" r="G89">
@@ -4863,12 +4863,12 @@
       </c>
       <c t="inlineStr" r="H89">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I89">
         <is>
-          <t xml:space="preserve">SIZE TOO SMALL</t>
+          <t xml:space="preserve">Product Already Booked</t>
         </is>
       </c>
       <c t="inlineStr" r="J89">
@@ -4878,7 +4878,7 @@
       </c>
       <c t="inlineStr" r="K89">
         <is>
-          <t xml:space="preserve">size and color not available on customer date</t>
+          <t xml:space="preserve">products already booked in that dates.. 27 dec</t>
         </is>
       </c>
     </row>
@@ -4888,25 +4888,25 @@
       </c>
       <c t="inlineStr" r="B90">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">19-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C90">
         <is>
-          <t xml:space="preserve">philemon</t>
+          <t xml:space="preserve">allen</t>
         </is>
       </c>
       <c r="D90" s="65">
-        <v>8113834686</v>
+        <v>9562991211</v>
       </c>
       <c t="inlineStr" r="E90">
         <is>
-          <t xml:space="preserve">29-12-2025</t>
+          <t xml:space="preserve">25-02-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F90">
         <is>
-          <t xml:space="preserve">AKHIL K S</t>
+          <t xml:space="preserve">Madhavan p</t>
         </is>
       </c>
       <c t="inlineStr" r="G90">
@@ -4916,12 +4916,12 @@
       </c>
       <c t="inlineStr" r="H90">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I90">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
         </is>
       </c>
       <c t="inlineStr" r="J90">
@@ -4931,7 +4931,7 @@
       </c>
       <c t="inlineStr" r="K90">
         <is>
-          <t xml:space="preserve">product is already booked</t>
+          <t xml:space="preserve">46 suit not suitable</t>
         </is>
       </c>
     </row>
@@ -4941,25 +4941,25 @@
       </c>
       <c t="inlineStr" r="B91">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">19-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C91">
         <is>
-          <t xml:space="preserve">Ajay</t>
+          <t xml:space="preserve">Hassan</t>
         </is>
       </c>
       <c r="D91" s="65">
-        <v>7994994767</v>
+        <v>8281881940</v>
       </c>
       <c t="inlineStr" r="E91">
         <is>
-          <t xml:space="preserve">22-12-2025</t>
+          <t xml:space="preserve">25-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F91">
         <is>
-          <t xml:space="preserve">Muhammed Niyas Ns</t>
+          <t xml:space="preserve">Sanoob k h</t>
         </is>
       </c>
       <c t="inlineStr" r="G91">
@@ -4984,7 +4984,7 @@
       </c>
       <c t="inlineStr" r="K91">
         <is>
-          <t xml:space="preserve">formal suite not availabl that date</t>
+          <t xml:space="preserve">choosing color booking</t>
         </is>
       </c>
     </row>
@@ -4994,25 +4994,25 @@
       </c>
       <c t="inlineStr" r="B92">
         <is>
-          <t xml:space="preserve">18-12-2025</t>
+          <t xml:space="preserve">20-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C92">
         <is>
-          <t xml:space="preserve">Lijo</t>
+          <t xml:space="preserve">jery</t>
         </is>
       </c>
       <c r="D92" s="65">
-        <v>9746762012</v>
+        <v>9886939678</v>
       </c>
       <c t="inlineStr" r="E92">
         <is>
-          <t xml:space="preserve">27-12-2025</t>
+          <t xml:space="preserve">07-02-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F92">
         <is>
-          <t xml:space="preserve">Muhammed Niyas Ns</t>
+          <t xml:space="preserve">suhail ilyas</t>
         </is>
       </c>
       <c t="inlineStr" r="G92">
@@ -5037,7 +5037,7 @@
       </c>
       <c t="inlineStr" r="K92">
         <is>
-          <t xml:space="preserve">grape formal suite</t>
+          <t xml:space="preserve">navy blue not available</t>
         </is>
       </c>
     </row>
@@ -5047,25 +5047,25 @@
       </c>
       <c t="inlineStr" r="B93">
         <is>
-          <t xml:space="preserve">18-12-2025</t>
+          <t xml:space="preserve">20-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C93">
         <is>
-          <t xml:space="preserve">kiran</t>
+          <t xml:space="preserve">karthik</t>
         </is>
       </c>
       <c r="D93" s="65">
-        <v>8089161748</v>
+        <v>6282680499</v>
       </c>
       <c t="inlineStr" r="E93">
         <is>
-          <t xml:space="preserve">29-12-2025</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F93">
         <is>
-          <t xml:space="preserve">AKHIL K S</t>
+          <t xml:space="preserve">suhail ilyas</t>
         </is>
       </c>
       <c t="inlineStr" r="G93">
@@ -5075,12 +5075,12 @@
       </c>
       <c t="inlineStr" r="H93">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">PRICING</t>
         </is>
       </c>
       <c t="inlineStr" r="I93">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">RENT TO HIGH</t>
         </is>
       </c>
       <c t="inlineStr" r="J93">
@@ -5090,7 +5090,7 @@
       </c>
       <c t="inlineStr" r="K93">
         <is>
-          <t xml:space="preserve">products already booked</t>
+          <t xml:space="preserve">non premium suit 2699 rent to high</t>
         </is>
       </c>
     </row>
@@ -5100,25 +5100,25 @@
       </c>
       <c t="inlineStr" r="B94">
         <is>
-          <t xml:space="preserve">18-12-2025</t>
+          <t xml:space="preserve">20-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C94">
         <is>
-          <t xml:space="preserve">sahal</t>
+          <t xml:space="preserve">joseph</t>
         </is>
       </c>
       <c r="D94" s="65">
-        <v>9605184290</v>
+        <v>8156867384</v>
       </c>
       <c t="inlineStr" r="E94">
         <is>
-          <t xml:space="preserve">15-01-2026</t>
+          <t xml:space="preserve">27-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F94">
         <is>
-          <t xml:space="preserve">Madhavan p</t>
+          <t xml:space="preserve">AKHIL K S</t>
         </is>
       </c>
       <c t="inlineStr" r="G94">
@@ -5133,7 +5133,7 @@
       </c>
       <c t="inlineStr" r="I94">
         <is>
-          <t xml:space="preserve">Product Already Booked</t>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J94">
@@ -5143,7 +5143,7 @@
       </c>
       <c t="inlineStr" r="K94">
         <is>
-          <t xml:space="preserve">product not available that date..</t>
+          <t xml:space="preserve">2 daysin ullil confirm cheyum</t>
         </is>
       </c>
     </row>
@@ -5153,20 +5153,20 @@
       </c>
       <c t="inlineStr" r="B95">
         <is>
-          <t xml:space="preserve">18-12-2025</t>
+          <t xml:space="preserve">20-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C95">
         <is>
-          <t xml:space="preserve">jabeel</t>
+          <t xml:space="preserve">rahul</t>
         </is>
       </c>
       <c r="D95" s="65">
-        <v>7025147357</v>
+        <v>9995556804</v>
       </c>
       <c t="inlineStr" r="E95">
         <is>
-          <t xml:space="preserve">25-12-2025</t>
+          <t xml:space="preserve">25-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F95">
@@ -5186,7 +5186,7 @@
       </c>
       <c t="inlineStr" r="I95">
         <is>
-          <t xml:space="preserve">Product Already Booked</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J95">
@@ -5196,7 +5196,7 @@
       </c>
       <c t="inlineStr" r="K95">
         <is>
-          <t xml:space="preserve">black suits already booked on that date..</t>
+          <t xml:space="preserve">product not available in that date..</t>
         </is>
       </c>
     </row>
@@ -5206,16 +5206,16 @@
       </c>
       <c t="inlineStr" r="B96">
         <is>
-          <t xml:space="preserve">18-12-2025</t>
+          <t xml:space="preserve">20-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C96">
         <is>
-          <t xml:space="preserve">babu</t>
+          <t xml:space="preserve">ashiq</t>
         </is>
       </c>
       <c r="D96" s="65">
-        <v>7909132845</v>
+        <v>8594028677</v>
       </c>
       <c t="inlineStr" r="E96">
         <is>
@@ -5224,7 +5224,7 @@
       </c>
       <c t="inlineStr" r="F96">
         <is>
-          <t xml:space="preserve">Madhavan p</t>
+          <t xml:space="preserve">Vipin V</t>
         </is>
       </c>
       <c t="inlineStr" r="G96">
@@ -5234,12 +5234,12 @@
       </c>
       <c t="inlineStr" r="H96">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I96">
         <is>
-          <t xml:space="preserve">SIZE TOO SMALL</t>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J96">
@@ -5249,7 +5249,7 @@
       </c>
       <c t="inlineStr" r="K96">
         <is>
-          <t xml:space="preserve">size vey tyt</t>
+          <t xml:space="preserve">size not available</t>
         </is>
       </c>
     </row>
@@ -5259,25 +5259,25 @@
       </c>
       <c t="inlineStr" r="B97">
         <is>
-          <t xml:space="preserve">18-12-2025</t>
+          <t xml:space="preserve">20-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C97">
         <is>
-          <t xml:space="preserve">Jacob</t>
+          <t xml:space="preserve">aveneii</t>
         </is>
       </c>
       <c r="D97" s="65">
-        <v>8870707234</v>
+        <v>8590467553</v>
       </c>
       <c t="inlineStr" r="E97">
         <is>
-          <t xml:space="preserve">08-01-2026</t>
+          <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F97">
         <is>
-          <t xml:space="preserve">Fayas E N</t>
+          <t xml:space="preserve">suhail ilyas</t>
         </is>
       </c>
       <c t="inlineStr" r="G97">
@@ -5287,12 +5287,12 @@
       </c>
       <c t="inlineStr" r="H97">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I97">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J97">
@@ -5302,7 +5302,7 @@
       </c>
       <c t="inlineStr" r="K97">
         <is>
-          <t xml:space="preserve">Enquiry for Warehouse bulk.</t>
+          <t xml:space="preserve">product not available</t>
         </is>
       </c>
     </row>
@@ -5312,25 +5312,25 @@
       </c>
       <c t="inlineStr" r="B98">
         <is>
-          <t xml:space="preserve">19-12-2025</t>
+          <t xml:space="preserve">20-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C98">
         <is>
-          <t xml:space="preserve">bazil</t>
+          <t xml:space="preserve">sulfi</t>
         </is>
       </c>
       <c r="D98" s="65">
-        <v>8281989122</v>
+        <v>9544155202</v>
       </c>
       <c t="inlineStr" r="E98">
         <is>
-          <t xml:space="preserve">01-01-2026</t>
+          <t xml:space="preserve">28-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F98">
         <is>
-          <t xml:space="preserve">AKHIL K S</t>
+          <t xml:space="preserve">suhail ilyas</t>
         </is>
       </c>
       <c t="inlineStr" r="G98">
@@ -5345,7 +5345,7 @@
       </c>
       <c t="inlineStr" r="I98">
         <is>
-          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J98">
@@ -5355,7 +5355,7 @@
       </c>
       <c t="inlineStr" r="K98">
         <is>
-          <t xml:space="preserve">required design not available</t>
+          <t xml:space="preserve">pant size  not available</t>
         </is>
       </c>
     </row>
@@ -5365,20 +5365,20 @@
       </c>
       <c t="inlineStr" r="B99">
         <is>
-          <t xml:space="preserve">19-12-2025</t>
+          <t xml:space="preserve">20-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C99">
         <is>
-          <t xml:space="preserve">ranish</t>
+          <t xml:space="preserve">youns</t>
         </is>
       </c>
       <c r="D99" s="65">
-        <v>9496948267</v>
+        <v>8138848423</v>
       </c>
       <c t="inlineStr" r="E99">
         <is>
-          <t xml:space="preserve">22-12-2025</t>
+          <t xml:space="preserve">04-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F99">
@@ -5393,12 +5393,12 @@
       </c>
       <c t="inlineStr" r="H99">
         <is>
-          <t xml:space="preserve">PRICING</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I99">
         <is>
-          <t xml:space="preserve">RENT TO HIGH</t>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
         </is>
       </c>
       <c t="inlineStr" r="J99">
@@ -5408,7 +5408,7 @@
       </c>
       <c t="inlineStr" r="K99">
         <is>
-          <t xml:space="preserve">they looking for non premium suit for 2 hour's of program. rent is to high..</t>
+          <t xml:space="preserve">size not suitable..</t>
         </is>
       </c>
     </row>
@@ -5418,20 +5418,20 @@
       </c>
       <c t="inlineStr" r="B100">
         <is>
-          <t xml:space="preserve">19-12-2025</t>
+          <t xml:space="preserve">20-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C100">
         <is>
-          <t xml:space="preserve">roshna</t>
+          <t xml:space="preserve">azam</t>
         </is>
       </c>
       <c r="D100" s="65">
-        <v>8589090662</v>
+        <v>8089120455</v>
       </c>
       <c t="inlineStr" r="E100">
         <is>
-          <t xml:space="preserve">27-12-2025</t>
+          <t xml:space="preserve">28-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F100">
@@ -5461,7 +5461,7 @@
       </c>
       <c t="inlineStr" r="K100">
         <is>
-          <t xml:space="preserve">products already booked in that dates.. 27 dec</t>
+          <t xml:space="preserve">colour not available..</t>
         </is>
       </c>
     </row>
@@ -5471,25 +5471,25 @@
       </c>
       <c t="inlineStr" r="B101">
         <is>
-          <t xml:space="preserve">19-12-2025</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C101">
         <is>
-          <t xml:space="preserve">allen</t>
+          <t xml:space="preserve">arjun</t>
         </is>
       </c>
       <c r="D101" s="65">
-        <v>9562991211</v>
+        <v>9496121236</v>
       </c>
       <c t="inlineStr" r="E101">
         <is>
-          <t xml:space="preserve">25-02-2026</t>
+          <t xml:space="preserve">26-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F101">
         <is>
-          <t xml:space="preserve">Madhavan p</t>
+          <t xml:space="preserve">Vipin V</t>
         </is>
       </c>
       <c t="inlineStr" r="G101">
@@ -5514,7 +5514,7 @@
       </c>
       <c t="inlineStr" r="K101">
         <is>
-          <t xml:space="preserve">46 suit not suitable</t>
+          <t xml:space="preserve">B-44 size  collection korava</t>
         </is>
       </c>
     </row>
@@ -5524,16 +5524,16 @@
       </c>
       <c t="inlineStr" r="B102">
         <is>
-          <t xml:space="preserve">19-12-2025</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C102">
         <is>
-          <t xml:space="preserve">Hassan</t>
+          <t xml:space="preserve">noushif</t>
         </is>
       </c>
       <c r="D102" s="65">
-        <v>8281881940</v>
+        <v>9048816509</v>
       </c>
       <c t="inlineStr" r="E102">
         <is>
@@ -5542,7 +5542,7 @@
       </c>
       <c t="inlineStr" r="F102">
         <is>
-          <t xml:space="preserve">Sanoob k h</t>
+          <t xml:space="preserve">Madhavan p</t>
         </is>
       </c>
       <c t="inlineStr" r="G102">
@@ -5552,12 +5552,12 @@
       </c>
       <c t="inlineStr" r="H102">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I102">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
         </is>
       </c>
       <c t="inlineStr" r="J102">
@@ -5567,7 +5567,7 @@
       </c>
       <c t="inlineStr" r="K102">
         <is>
-          <t xml:space="preserve">choosing color booking</t>
+          <t xml:space="preserve">44:size not suitable..</t>
         </is>
       </c>
     </row>
@@ -5577,20 +5577,20 @@
       </c>
       <c t="inlineStr" r="B103">
         <is>
-          <t xml:space="preserve">20-12-2025</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C103">
         <is>
-          <t xml:space="preserve">jery</t>
+          <t xml:space="preserve">basil</t>
         </is>
       </c>
       <c r="D103" s="65">
-        <v>9886939678</v>
+        <v>9746957811</v>
       </c>
       <c t="inlineStr" r="E103">
         <is>
-          <t xml:space="preserve">07-02-2026</t>
+          <t xml:space="preserve">03-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F103">
@@ -5605,12 +5605,12 @@
       </c>
       <c t="inlineStr" r="H103">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I103">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J103">
@@ -5620,7 +5620,7 @@
       </c>
       <c t="inlineStr" r="K103">
         <is>
-          <t xml:space="preserve">navy blue not available</t>
+          <t xml:space="preserve">enquiry</t>
         </is>
       </c>
     </row>
@@ -5630,20 +5630,20 @@
       </c>
       <c t="inlineStr" r="B104">
         <is>
-          <t xml:space="preserve">20-12-2025</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C104">
         <is>
-          <t xml:space="preserve">karthik</t>
+          <t xml:space="preserve">binoy</t>
         </is>
       </c>
       <c r="D104" s="65">
-        <v>6282680499</v>
+        <v>9061762422</v>
       </c>
       <c t="inlineStr" r="E104">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">15-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F104">
@@ -5658,12 +5658,12 @@
       </c>
       <c t="inlineStr" r="H104">
         <is>
-          <t xml:space="preserve">PRICING</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I104">
         <is>
-          <t xml:space="preserve">RENT TO HIGH</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J104">
@@ -5673,7 +5673,7 @@
       </c>
       <c t="inlineStr" r="K104">
         <is>
-          <t xml:space="preserve">non premium suit 2699 rent to high</t>
+          <t xml:space="preserve">enquiry</t>
         </is>
       </c>
     </row>
@@ -5683,25 +5683,25 @@
       </c>
       <c t="inlineStr" r="B105">
         <is>
-          <t xml:space="preserve">20-12-2025</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C105">
         <is>
-          <t xml:space="preserve">joseph</t>
+          <t xml:space="preserve">bristo</t>
         </is>
       </c>
       <c r="D105" s="65">
-        <v>8156867384</v>
+        <v>9995451673</v>
       </c>
       <c t="inlineStr" r="E105">
         <is>
-          <t xml:space="preserve">27-12-2025</t>
+          <t xml:space="preserve">12-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F105">
         <is>
-          <t xml:space="preserve">AKHIL K S</t>
+          <t xml:space="preserve">suhail ilyas</t>
         </is>
       </c>
       <c t="inlineStr" r="G105">
@@ -5711,12 +5711,12 @@
       </c>
       <c t="inlineStr" r="H105">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I105">
         <is>
-          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J105">
@@ -5726,7 +5726,7 @@
       </c>
       <c t="inlineStr" r="K105">
         <is>
-          <t xml:space="preserve">2 daysin ullil confirm cheyum</t>
+          <t xml:space="preserve">enquiry</t>
         </is>
       </c>
     </row>
@@ -5736,16 +5736,16 @@
       </c>
       <c t="inlineStr" r="B106">
         <is>
-          <t xml:space="preserve">20-12-2025</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C106">
         <is>
-          <t xml:space="preserve">rahul</t>
+          <t xml:space="preserve">Vishnu</t>
         </is>
       </c>
       <c r="D106" s="65">
-        <v>9995556804</v>
+        <v>8075824661</v>
       </c>
       <c t="inlineStr" r="E106">
         <is>
@@ -5754,7 +5754,7 @@
       </c>
       <c t="inlineStr" r="F106">
         <is>
-          <t xml:space="preserve">Madhavan p</t>
+          <t xml:space="preserve">AKHIL K S</t>
         </is>
       </c>
       <c t="inlineStr" r="G106">
@@ -5769,7 +5769,7 @@
       </c>
       <c t="inlineStr" r="I106">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J106">
@@ -5779,7 +5779,7 @@
       </c>
       <c t="inlineStr" r="K106">
         <is>
-          <t xml:space="preserve">product not available in that date..</t>
+          <t xml:space="preserve">poyitte nokkiyatte parayum</t>
         </is>
       </c>
     </row>
@@ -5789,25 +5789,25 @@
       </c>
       <c t="inlineStr" r="B107">
         <is>
-          <t xml:space="preserve">20-12-2025</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C107">
         <is>
-          <t xml:space="preserve">ashiq</t>
+          <t xml:space="preserve">aibel</t>
         </is>
       </c>
       <c r="D107" s="65">
-        <v>8594028677</v>
+        <v>9946255184</v>
       </c>
       <c t="inlineStr" r="E107">
         <is>
-          <t xml:space="preserve">29-12-2025</t>
+          <t xml:space="preserve">01-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F107">
         <is>
-          <t xml:space="preserve">Vipin V</t>
+          <t xml:space="preserve">suhail ilyas</t>
         </is>
       </c>
       <c t="inlineStr" r="G107">
@@ -5822,7 +5822,7 @@
       </c>
       <c t="inlineStr" r="I107">
         <is>
-          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J107">
@@ -5832,7 +5832,7 @@
       </c>
       <c t="inlineStr" r="K107">
         <is>
-          <t xml:space="preserve">size not available</t>
+          <t xml:space="preserve">product not available</t>
         </is>
       </c>
     </row>
@@ -5842,20 +5842,20 @@
       </c>
       <c t="inlineStr" r="B108">
         <is>
-          <t xml:space="preserve">20-12-2025</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C108">
         <is>
-          <t xml:space="preserve">aveneii</t>
+          <t xml:space="preserve">ramdas</t>
         </is>
       </c>
       <c r="D108" s="65">
-        <v>8590467553</v>
+        <v>8921064074</v>
       </c>
       <c t="inlineStr" r="E108">
         <is>
-          <t xml:space="preserve">22-12-2025</t>
+          <t xml:space="preserve">24-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F108">
@@ -5870,12 +5870,12 @@
       </c>
       <c t="inlineStr" r="H108">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I108">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J108">
@@ -5885,7 +5885,7 @@
       </c>
       <c t="inlineStr" r="K108">
         <is>
-          <t xml:space="preserve">product not available</t>
+          <t xml:space="preserve">enquiry</t>
         </is>
       </c>
     </row>
@@ -5895,20 +5895,20 @@
       </c>
       <c t="inlineStr" r="B109">
         <is>
-          <t xml:space="preserve">20-12-2025</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C109">
         <is>
-          <t xml:space="preserve">sulfi</t>
+          <t xml:space="preserve">dharmik</t>
         </is>
       </c>
       <c r="D109" s="65">
-        <v>9544155202</v>
+        <v>9946201060</v>
       </c>
       <c t="inlineStr" r="E109">
         <is>
-          <t xml:space="preserve">28-12-2025</t>
+          <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F109">
@@ -5923,12 +5923,12 @@
       </c>
       <c t="inlineStr" r="H109">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">PRICING</t>
         </is>
       </c>
       <c t="inlineStr" r="I109">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">RENT TO HIGH</t>
         </is>
       </c>
       <c t="inlineStr" r="J109">
@@ -5938,7 +5938,7 @@
       </c>
       <c t="inlineStr" r="K109">
         <is>
-          <t xml:space="preserve">pant size  not available</t>
+          <t xml:space="preserve">rent to high</t>
         </is>
       </c>
     </row>
@@ -5948,25 +5948,25 @@
       </c>
       <c t="inlineStr" r="B110">
         <is>
-          <t xml:space="preserve">20-12-2025</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C110">
         <is>
-          <t xml:space="preserve">youns</t>
+          <t xml:space="preserve">walkin customer</t>
         </is>
       </c>
       <c r="D110" s="65">
-        <v>8138848423</v>
+        <v>9847769608</v>
       </c>
       <c t="inlineStr" r="E110">
         <is>
-          <t xml:space="preserve">04-01-2026</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F110">
         <is>
-          <t xml:space="preserve">Madhavan p</t>
+          <t xml:space="preserve">ABHISHEK</t>
         </is>
       </c>
       <c t="inlineStr" r="G110">
@@ -5976,12 +5976,12 @@
       </c>
       <c t="inlineStr" r="H110">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I110">
         <is>
-          <t xml:space="preserve">SIZE TOO SMALL</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J110">
@@ -5991,7 +5991,7 @@
       </c>
       <c t="inlineStr" r="K110">
         <is>
-          <t xml:space="preserve">size not suitable..</t>
+          <t xml:space="preserve">plain grey kids suit need reffer to edapally</t>
         </is>
       </c>
     </row>
@@ -6001,25 +6001,25 @@
       </c>
       <c t="inlineStr" r="B111">
         <is>
-          <t xml:space="preserve">20-12-2025</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C111">
         <is>
-          <t xml:space="preserve">azam</t>
+          <t xml:space="preserve">indrajith</t>
         </is>
       </c>
       <c r="D111" s="65">
-        <v>8089120455</v>
+        <v>7012239991</v>
       </c>
       <c t="inlineStr" r="E111">
         <is>
-          <t xml:space="preserve">28-12-2025</t>
+          <t xml:space="preserve">06-05-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F111">
         <is>
-          <t xml:space="preserve">Madhavan p</t>
+          <t xml:space="preserve">AKHIL K S</t>
         </is>
       </c>
       <c t="inlineStr" r="G111">
@@ -6029,12 +6029,12 @@
       </c>
       <c t="inlineStr" r="H111">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I111">
         <is>
-          <t xml:space="preserve">Product Already Booked</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J111">
@@ -6044,7 +6044,7 @@
       </c>
       <c t="inlineStr" r="K111">
         <is>
-          <t xml:space="preserve">colour not available..</t>
+          <t xml:space="preserve">veetil choichatte confirm</t>
         </is>
       </c>
     </row>
@@ -6059,20 +6059,20 @@
       </c>
       <c t="inlineStr" r="C112">
         <is>
-          <t xml:space="preserve">arjun</t>
+          <t xml:space="preserve">chris john</t>
         </is>
       </c>
       <c r="D112" s="65">
-        <v>9496121236</v>
+        <v>7561868802</v>
       </c>
       <c t="inlineStr" r="E112">
         <is>
-          <t xml:space="preserve">26-01-2026</t>
+          <t xml:space="preserve">08-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F112">
         <is>
-          <t xml:space="preserve">Vipin V</t>
+          <t xml:space="preserve">AKHIL K S</t>
         </is>
       </c>
       <c t="inlineStr" r="G112">
@@ -6097,7 +6097,7 @@
       </c>
       <c t="inlineStr" r="K112">
         <is>
-          <t xml:space="preserve">B-44 size  collection korava</t>
+          <t xml:space="preserve">bz 48 not available and 44 pant not available</t>
         </is>
       </c>
     </row>
@@ -6112,20 +6112,20 @@
       </c>
       <c t="inlineStr" r="C113">
         <is>
-          <t xml:space="preserve">noushif</t>
+          <t xml:space="preserve">sebin</t>
         </is>
       </c>
       <c r="D113" s="65">
-        <v>9048816509</v>
+        <v>9947678184</v>
       </c>
       <c t="inlineStr" r="E113">
         <is>
-          <t xml:space="preserve">25-12-2025</t>
+          <t xml:space="preserve">11-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F113">
         <is>
-          <t xml:space="preserve">Madhavan p</t>
+          <t xml:space="preserve">AKHIL K S</t>
         </is>
       </c>
       <c t="inlineStr" r="G113">
@@ -6135,12 +6135,12 @@
       </c>
       <c t="inlineStr" r="H113">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I113">
         <is>
-          <t xml:space="preserve">SIZE TOO LARGE</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J113">
@@ -6150,7 +6150,7 @@
       </c>
       <c t="inlineStr" r="K113">
         <is>
-          <t xml:space="preserve">44:size not suitable..</t>
+          <t xml:space="preserve">product booked on that date</t>
         </is>
       </c>
     </row>
@@ -6160,25 +6160,25 @@
       </c>
       <c t="inlineStr" r="B114">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C114">
         <is>
-          <t xml:space="preserve">basil</t>
+          <t xml:space="preserve">jerry</t>
         </is>
       </c>
       <c r="D114" s="65">
-        <v>9746957811</v>
+        <v>9544520376</v>
       </c>
       <c t="inlineStr" r="E114">
         <is>
-          <t xml:space="preserve">03-01-2026</t>
+          <t xml:space="preserve">27-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F114">
         <is>
-          <t xml:space="preserve">suhail ilyas</t>
+          <t xml:space="preserve">Madhavan p</t>
         </is>
       </c>
       <c t="inlineStr" r="G114">
@@ -6188,12 +6188,12 @@
       </c>
       <c t="inlineStr" r="H114">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I114">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J114">
@@ -6203,7 +6203,7 @@
       </c>
       <c t="inlineStr" r="K114">
         <is>
-          <t xml:space="preserve">enquiry</t>
+          <t xml:space="preserve">they searching for sharvani.. not available</t>
         </is>
       </c>
     </row>
@@ -6213,25 +6213,25 @@
       </c>
       <c t="inlineStr" r="B115">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C115">
         <is>
-          <t xml:space="preserve">binoy</t>
+          <t xml:space="preserve">Arshad</t>
         </is>
       </c>
       <c r="D115" s="65">
-        <v>9061762422</v>
+        <v>9400203819</v>
       </c>
       <c t="inlineStr" r="E115">
         <is>
-          <t xml:space="preserve">15-01-2026</t>
+          <t xml:space="preserve">12-04-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F115">
         <is>
-          <t xml:space="preserve">suhail ilyas</t>
+          <t xml:space="preserve">AKHIL K S</t>
         </is>
       </c>
       <c t="inlineStr" r="G115">
@@ -6241,12 +6241,12 @@
       </c>
       <c t="inlineStr" r="H115">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I115">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
         </is>
       </c>
       <c t="inlineStr" r="J115">
@@ -6256,7 +6256,7 @@
       </c>
       <c t="inlineStr" r="K115">
         <is>
-          <t xml:space="preserve">enquiry</t>
+          <t xml:space="preserve">46 size not available in indowestern</t>
         </is>
       </c>
     </row>
@@ -6266,20 +6266,20 @@
       </c>
       <c t="inlineStr" r="B116">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C116">
         <is>
-          <t xml:space="preserve">bristo</t>
+          <t xml:space="preserve">noufal</t>
         </is>
       </c>
       <c r="D116" s="65">
-        <v>9995451673</v>
+        <v>9895064769</v>
       </c>
       <c t="inlineStr" r="E116">
         <is>
-          <t xml:space="preserve">12-01-2026</t>
+          <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F116">
@@ -6294,12 +6294,12 @@
       </c>
       <c t="inlineStr" r="H116">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="I116">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
         </is>
       </c>
       <c t="inlineStr" r="J116">
@@ -6309,7 +6309,7 @@
       </c>
       <c t="inlineStr" r="K116">
         <is>
-          <t xml:space="preserve">enquiry</t>
+          <t xml:space="preserve">size not suitable</t>
         </is>
       </c>
     </row>
@@ -6319,25 +6319,25 @@
       </c>
       <c t="inlineStr" r="B117">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C117">
         <is>
-          <t xml:space="preserve">Vishnu</t>
+          <t xml:space="preserve">ayden</t>
         </is>
       </c>
       <c r="D117" s="65">
-        <v>8075824661</v>
+        <v>9747793966</v>
       </c>
       <c t="inlineStr" r="E117">
         <is>
-          <t xml:space="preserve">25-01-2026</t>
+          <t xml:space="preserve">10-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F117">
         <is>
-          <t xml:space="preserve">AKHIL K S</t>
+          <t xml:space="preserve">suhail ilyas</t>
         </is>
       </c>
       <c t="inlineStr" r="G117">
@@ -6347,12 +6347,12 @@
       </c>
       <c t="inlineStr" r="H117">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I117">
         <is>
-          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
         </is>
       </c>
       <c t="inlineStr" r="J117">
@@ -6362,7 +6362,7 @@
       </c>
       <c t="inlineStr" r="K117">
         <is>
-          <t xml:space="preserve">poyitte nokkiyatte parayum</t>
+          <t xml:space="preserve">enquiry</t>
         </is>
       </c>
     </row>
@@ -6372,25 +6372,25 @@
       </c>
       <c t="inlineStr" r="B118">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C118">
         <is>
-          <t xml:space="preserve">aibel</t>
+          <t xml:space="preserve">sharath</t>
         </is>
       </c>
       <c r="D118" s="65">
-        <v>9946255184</v>
+        <v>9495275743</v>
       </c>
       <c t="inlineStr" r="E118">
         <is>
-          <t xml:space="preserve">01-01-2026</t>
+          <t xml:space="preserve">18-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F118">
         <is>
-          <t xml:space="preserve">suhail ilyas</t>
+          <t xml:space="preserve">Vipin V</t>
         </is>
       </c>
       <c t="inlineStr" r="G118">
@@ -6415,7 +6415,7 @@
       </c>
       <c t="inlineStr" r="K118">
         <is>
-          <t xml:space="preserve">product not available</t>
+          <t xml:space="preserve">single kurthas</t>
         </is>
       </c>
     </row>
@@ -6425,25 +6425,25 @@
       </c>
       <c t="inlineStr" r="B119">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C119">
         <is>
-          <t xml:space="preserve">ramdas</t>
+          <t xml:space="preserve">Badar</t>
         </is>
       </c>
       <c r="D119" s="65">
-        <v>8921064074</v>
+        <v>9400479981</v>
       </c>
       <c t="inlineStr" r="E119">
         <is>
-          <t xml:space="preserve">24-01-2026</t>
+          <t xml:space="preserve">25-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F119">
         <is>
-          <t xml:space="preserve">suhail ilyas</t>
+          <t xml:space="preserve">Fayas E N</t>
         </is>
       </c>
       <c t="inlineStr" r="G119">
@@ -6468,7 +6468,7 @@
       </c>
       <c t="inlineStr" r="K119">
         <is>
-          <t xml:space="preserve">enquiry</t>
+          <t xml:space="preserve">Kurtas</t>
         </is>
       </c>
     </row>
@@ -6478,20 +6478,20 @@
       </c>
       <c t="inlineStr" r="B120">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C120">
         <is>
-          <t xml:space="preserve">dharmik</t>
+          <t xml:space="preserve">antony</t>
         </is>
       </c>
       <c r="D120" s="65">
-        <v>9946201060</v>
+        <v>9048268121</v>
       </c>
       <c t="inlineStr" r="E120">
         <is>
-          <t xml:space="preserve">22-12-2025</t>
+          <t xml:space="preserve">01-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F120">
@@ -6506,12 +6506,12 @@
       </c>
       <c t="inlineStr" r="H120">
         <is>
-          <t xml:space="preserve">PRICING</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I120">
         <is>
-          <t xml:space="preserve">RENT TO HIGH</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J120">
@@ -6521,7 +6521,7 @@
       </c>
       <c t="inlineStr" r="K120">
         <is>
-          <t xml:space="preserve">rent to high</t>
+          <t xml:space="preserve">enquiry</t>
         </is>
       </c>
     </row>
@@ -6531,25 +6531,25 @@
       </c>
       <c t="inlineStr" r="B121">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C121">
         <is>
-          <t xml:space="preserve">walkin customer</t>
+          <t xml:space="preserve">nasim</t>
         </is>
       </c>
       <c r="D121" s="65">
-        <v>9847769608</v>
+        <v>9715620024</v>
       </c>
       <c t="inlineStr" r="E121">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">28-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F121">
         <is>
-          <t xml:space="preserve">ABHISHEK</t>
+          <t xml:space="preserve">suhail ilyas</t>
         </is>
       </c>
       <c t="inlineStr" r="G121">
@@ -6564,7 +6564,7 @@
       </c>
       <c t="inlineStr" r="I121">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J121">
@@ -6574,7 +6574,7 @@
       </c>
       <c t="inlineStr" r="K121">
         <is>
-          <t xml:space="preserve">plain grey kids suit need reffer to edapally</t>
+          <t xml:space="preserve">model not available</t>
         </is>
       </c>
     </row>
@@ -6584,25 +6584,25 @@
       </c>
       <c t="inlineStr" r="B122">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C122">
         <is>
-          <t xml:space="preserve">indrajith</t>
+          <t xml:space="preserve">jefin</t>
         </is>
       </c>
       <c r="D122" s="65">
-        <v>7012239991</v>
+        <v>8330065205</v>
       </c>
       <c t="inlineStr" r="E122">
         <is>
-          <t xml:space="preserve">06-05-2026</t>
+          <t xml:space="preserve">03-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F122">
         <is>
-          <t xml:space="preserve">AKHIL K S</t>
+          <t xml:space="preserve">suhail ilyas</t>
         </is>
       </c>
       <c t="inlineStr" r="G122">
@@ -6612,12 +6612,12 @@
       </c>
       <c t="inlineStr" r="H122">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I122">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J122">
@@ -6627,7 +6627,7 @@
       </c>
       <c t="inlineStr" r="K122">
         <is>
-          <t xml:space="preserve">veetil choichatte confirm</t>
+          <t xml:space="preserve">model not available</t>
         </is>
       </c>
     </row>
@@ -6637,25 +6637,25 @@
       </c>
       <c t="inlineStr" r="B123">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">23-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C123">
         <is>
-          <t xml:space="preserve">chris john</t>
+          <t xml:space="preserve">alen</t>
         </is>
       </c>
       <c r="D123" s="65">
-        <v>7561868802</v>
+        <v>7558949260</v>
       </c>
       <c t="inlineStr" r="E123">
         <is>
-          <t xml:space="preserve">08-01-2026</t>
+          <t xml:space="preserve">31-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F123">
         <is>
-          <t xml:space="preserve">AKHIL K S</t>
+          <t xml:space="preserve">Madhavan p</t>
         </is>
       </c>
       <c t="inlineStr" r="G123">
@@ -6665,12 +6665,12 @@
       </c>
       <c t="inlineStr" r="H123">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I123">
         <is>
-          <t xml:space="preserve">SIZE TOO SMALL</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J123">
@@ -6680,7 +6680,7 @@
       </c>
       <c t="inlineStr" r="K123">
         <is>
-          <t xml:space="preserve">bz 48 not available and 44 pant not available</t>
+          <t xml:space="preserve">he searching for double breast suit.. not available</t>
         </is>
       </c>
     </row>
@@ -6690,20 +6690,20 @@
       </c>
       <c t="inlineStr" r="B124">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">23-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C124">
         <is>
-          <t xml:space="preserve">sebin</t>
+          <t xml:space="preserve">saif</t>
         </is>
       </c>
       <c r="D124" s="65">
-        <v>9947678184</v>
+        <v>7306102949</v>
       </c>
       <c t="inlineStr" r="E124">
         <is>
-          <t xml:space="preserve">11-01-2026</t>
+          <t xml:space="preserve">28-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F124">
@@ -6718,22 +6718,181 @@
       </c>
       <c t="inlineStr" r="H124">
         <is>
+          <t xml:space="preserve">PRICING</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I124">
+        <is>
+          <t xml:space="preserve">RENT TO HIGH</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J124">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K124">
+        <is>
+          <t xml:space="preserve">2 daysin rent korakko enn chothichu</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="65">
+        <v>123</v>
+      </c>
+      <c t="inlineStr" r="B125">
+        <is>
+          <t xml:space="preserve">23-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C125">
+        <is>
+          <t xml:space="preserve">anand</t>
+        </is>
+      </c>
+      <c r="D125" s="65">
+        <v>8714523008</v>
+      </c>
+      <c t="inlineStr" r="E125">
+        <is>
+          <t xml:space="preserve">04-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F125">
+        <is>
+          <t xml:space="preserve">Fayas E N</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G125">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H125">
+        <is>
           <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
-      <c t="inlineStr" r="I124">
+      <c t="inlineStr" r="I125">
         <is>
           <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
-      <c t="inlineStr" r="J124">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="K124">
-        <is>
-          <t xml:space="preserve">product booked on that date</t>
+      <c t="inlineStr" r="J125">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K125">
+        <is>
+          <t xml:space="preserve">34 size silvergrey non premium is not available in the store stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="65">
+        <v>124</v>
+      </c>
+      <c t="inlineStr" r="B126">
+        <is>
+          <t xml:space="preserve">23-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C126">
+        <is>
+          <t xml:space="preserve">Ashbin</t>
+        </is>
+      </c>
+      <c r="D126" s="65">
+        <v>7994127080</v>
+      </c>
+      <c t="inlineStr" r="E126">
+        <is>
+          <t xml:space="preserve">29-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F126">
+        <is>
+          <t xml:space="preserve">AKHIL K S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G126">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H126">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I126">
+        <is>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J126">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K126">
+        <is>
+          <t xml:space="preserve">bengala size not suitable 42</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="65">
+        <v>125</v>
+      </c>
+      <c t="inlineStr" r="B127">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C127">
+        <is>
+          <t xml:space="preserve">Antony</t>
+        </is>
+      </c>
+      <c r="D127" s="65">
+        <v>9538027724</v>
+      </c>
+      <c t="inlineStr" r="E127">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F127">
+        <is>
+          <t xml:space="preserve">AKHIL K S</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G127">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H127">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I127">
+        <is>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J127">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K127">
+        <is>
+          <t xml:space="preserve">46 size is not available</t>
         </is>
       </c>
     </row>
